--- a/runs/run971/NotionalETEOutput971.xlsx
+++ b/runs/run971/NotionalETEOutput971.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_HELLMASKER3_State_Update</t>
+    <t>Missile_ANGERMAX0_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER3_459.MISSILE_HELLMASKER3_459</t>
+    <t>MISSILE_ANGERMAX0_419.MISSILE_ANGERMAX0_419</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER3</t>
+    <t>MISSILE_ANGERMAX0</t>
   </si>
 </sst>
 </file>
@@ -471,19 +471,19 @@
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>271.13511384174</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>-132.3561649373627</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1035.738216202934</v>
       </c>
       <c r="I2">
-        <v>-1755.423035995241</v>
+        <v>-1632.493161755704</v>
       </c>
       <c r="J2">
-        <v>2148.684052456086</v>
+        <v>2082.103960877755</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -506,22 +506,22 @@
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>271.13511384174</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>-132.3561649373627</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1035.738216202934</v>
       </c>
       <c r="I3">
-        <v>-1720.766311034271</v>
+        <v>-1600.263399842186</v>
       </c>
       <c r="J3">
-        <v>2096.415606572168</v>
+        <v>2031.455128593905</v>
       </c>
       <c r="K3">
-        <v>456.586253106736</v>
+        <v>215.4847851424597</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -541,22 +541,22 @@
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>271.13511384174</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>-132.3561649373627</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1035.738216202934</v>
       </c>
       <c r="I4">
-        <v>-1685.256196104739</v>
+        <v>-1567.240009692384</v>
       </c>
       <c r="J4">
-        <v>2044.147160688249</v>
+        <v>1980.806296310056</v>
       </c>
       <c r="K4">
-        <v>890.4050227173212</v>
+        <v>420.2245111509213</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -576,22 +576,22 @@
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>271.13511384174</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>-132.3561649373627</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1035.738216202934</v>
       </c>
       <c r="I5">
-        <v>-1648.871677263774</v>
+        <v>-1533.403448941106</v>
       </c>
       <c r="J5">
-        <v>1991.878714804331</v>
+        <v>1930.157464026206</v>
       </c>
       <c r="K5">
-        <v>1301.456308831759</v>
+        <v>614.2191780253862</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -611,22 +611,22 @@
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>271.13511384174</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>-132.3561649373627</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1035.738216202934</v>
       </c>
       <c r="I6">
-        <v>-1611.591223119494</v>
+        <v>-1498.733694010392</v>
       </c>
       <c r="J6">
-        <v>1939.610268920413</v>
+        <v>1879.508631742356</v>
       </c>
       <c r="K6">
-        <v>1689.740111450046</v>
+        <v>797.4687857658531</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -646,22 +646,22 @@
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>271.13511384174</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>-132.3561649373627</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1035.738216202934</v>
       </c>
       <c r="I7">
-        <v>-1573.392772089299</v>
+        <v>-1463.210228260099</v>
       </c>
       <c r="J7">
-        <v>1887.341823036495</v>
+        <v>1828.859799458507</v>
       </c>
       <c r="K7">
-        <v>2055.256430572187</v>
+        <v>969.9733343723237</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -681,22 +681,22 @@
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>271.13511384174</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>-132.3561649373627</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1035.738216202934</v>
       </c>
       <c r="I8">
-        <v>-1534.253719344417</v>
+        <v>-1426.812029846694</v>
       </c>
       <c r="J8">
-        <v>1835.073377152576</v>
+        <v>1778.210967174657</v>
       </c>
       <c r="K8">
-        <v>2398.005266198178</v>
+        <v>1131.732823844796</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -716,22 +716,22 @@
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>271.13511384174</v>
       </c>
       <c r="G9">
-        <v>-133.3811484989676</v>
+        <v>-132.3561649373627</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1035.738216202934</v>
       </c>
       <c r="I9">
-        <v>-1494.150903432961</v>
+        <v>-1389.517559283088</v>
       </c>
       <c r="J9">
-        <v>1782.804931268658</v>
+        <v>1727.562134890807</v>
       </c>
       <c r="K9">
-        <v>2717.98661832802</v>
+        <v>1282.747254183272</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>206.4841038040112</v>
+        <v>271.13511384174</v>
       </c>
       <c r="G10">
-        <v>-111.3561664494599</v>
+        <v>-110.5004365252652</v>
       </c>
       <c r="H10">
-        <v>1370.340900378969</v>
+        <v>1035.738216202934</v>
       </c>
       <c r="I10">
-        <v>-1453.060592573599</v>
+        <v>-1351.304746692137</v>
       </c>
       <c r="J10">
-        <v>1730.53648538474</v>
+        <v>1676.913302606957</v>
       </c>
       <c r="K10">
-        <v>3015.200486961712</v>
+        <v>1423.01662538775</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>160.2557522562309</v>
+        <v>210.4324780033879</v>
       </c>
       <c r="G11">
-        <v>-89.33118439995229</v>
+        <v>-88.64470811316762</v>
       </c>
       <c r="H11">
-        <v>1688.250768166484</v>
+        <v>1276.022512821747</v>
       </c>
       <c r="I11">
-        <v>-1410.958470611718</v>
+        <v>-1312.150978746277</v>
       </c>
       <c r="J11">
-        <v>1678.268039500821</v>
+        <v>1626.264470323108</v>
       </c>
       <c r="K11">
-        <v>3289.646872099255</v>
+        <v>1552.54093745823</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>133.0989147863625</v>
+        <v>174.7727246212906</v>
       </c>
       <c r="G12">
-        <v>-67.30620235044466</v>
+        <v>-66.78897970107009</v>
       </c>
       <c r="H12">
-        <v>1877.614143948608</v>
+        <v>1419.148128493368</v>
       </c>
       <c r="I12">
-        <v>-1367.819622629768</v>
+        <v>-1272.033085285556</v>
       </c>
       <c r="J12">
-        <v>1625.999593616903</v>
+        <v>1575.615638039258</v>
       </c>
       <c r="K12">
-        <v>3541.325773740651</v>
+        <v>1671.320190394714</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>115.9555266489825</v>
+        <v>152.2616721546389</v>
       </c>
       <c r="G13">
-        <v>-45.28122030093701</v>
+        <v>-44.93325128897255</v>
       </c>
       <c r="H13">
-        <v>2012.939350038803</v>
+        <v>1521.430332523323</v>
       </c>
       <c r="I13">
-        <v>-1323.618520203273</v>
+        <v>-1230.927325606149</v>
       </c>
       <c r="J13">
-        <v>1573.731147732985</v>
+        <v>1524.966805755408</v>
       </c>
       <c r="K13">
-        <v>3770.237191885898</v>
+        <v>1779.354384197201</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>103.9997973510715</v>
+        <v>136.5625555421225</v>
       </c>
       <c r="G14">
-        <v>-23.25623825142935</v>
+        <v>-23.077522876875</v>
       </c>
       <c r="H14">
-        <v>2118.317015520706</v>
+        <v>1601.077430003718</v>
       </c>
       <c r="I14">
-        <v>-1278.329006293796</v>
+        <v>-1188.809374411243</v>
       </c>
       <c r="J14">
-        <v>1521.462701849066</v>
+        <v>1474.317973471558</v>
       </c>
       <c r="K14">
-        <v>3976.381126534995</v>
+        <v>1876.64351886569</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>95.08046526158807</v>
+        <v>124.8505444142838</v>
       </c>
       <c r="G15">
-        <v>-1.231256201921715</v>
+        <v>-1.221794464777476</v>
       </c>
       <c r="H15">
-        <v>2204.629497387179</v>
+        <v>1666.314580832176</v>
       </c>
       <c r="I15">
-        <v>-1231.924279769887</v>
+        <v>-1145.654307415967</v>
       </c>
       <c r="J15">
-        <v>1469.194255965148</v>
+        <v>1423.669141187709</v>
       </c>
       <c r="K15">
-        <v>4159.757577687943</v>
+        <v>1963.187594400181</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>88.10679311541176</v>
+        <v>115.6933872461795</v>
       </c>
       <c r="G16">
-        <v>20.79372584758594</v>
+        <v>20.63393394732007</v>
       </c>
       <c r="H16">
-        <v>2277.729869022275</v>
+        <v>1721.565685502677</v>
       </c>
       <c r="I16">
-        <v>-1184.376879546892</v>
+        <v>-1101.436586597865</v>
       </c>
       <c r="J16">
-        <v>1416.92581008123</v>
+        <v>1373.020308903859</v>
       </c>
       <c r="K16">
-        <v>4320.366545344742</v>
+        <v>2038.986610800675</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>82.4645845794364</v>
+        <v>108.2845803427069</v>
       </c>
       <c r="G17">
-        <v>42.8187078970936</v>
+        <v>42.48966235941761</v>
       </c>
       <c r="H17">
-        <v>2341.131127853934</v>
+        <v>1769.485956078533</v>
       </c>
       <c r="I17">
-        <v>-1135.658668336211</v>
+        <v>-1056.130045084175</v>
       </c>
       <c r="J17">
-        <v>1364.657364197312</v>
+        <v>1322.371476620009</v>
       </c>
       <c r="K17">
-        <v>4458.208029505393</v>
+        <v>2104.040568067172</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>77.77954106304882</v>
+        <v>102.1326307070344</v>
       </c>
       <c r="G18">
-        <v>64.84368994660123</v>
+        <v>64.34539077151514</v>
       </c>
       <c r="H18">
-        <v>2397.10816561324</v>
+        <v>1811.794813109009</v>
       </c>
       <c r="I18">
-        <v>-1085.7408159944</v>
+        <v>-1009.707871666965</v>
       </c>
       <c r="J18">
-        <v>1312.388918313394</v>
+        <v>1271.72264433616</v>
       </c>
       <c r="K18">
-        <v>4573.282030169895</v>
+        <v>2158.349466199672</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>73.8093191886359</v>
+        <v>96.9193162674993</v>
       </c>
       <c r="G19">
-        <v>86.8686719961089</v>
+        <v>86.2011191836127</v>
       </c>
       <c r="H19">
-        <v>2447.218878604363</v>
+        <v>1849.669753915147</v>
       </c>
       <c r="I19">
-        <v>-1034.593782462254</v>
+        <v>-962.1425949369719</v>
       </c>
       <c r="J19">
-        <v>1260.120472429475</v>
+        <v>1221.07381205231</v>
       </c>
       <c r="K19">
-        <v>4665.588547338248</v>
+        <v>2201.913305198174</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>70.3893603801295</v>
+        <v>92.42855449070615</v>
       </c>
       <c r="G20">
-        <v>108.8936540456165</v>
+        <v>108.0568475957102</v>
       </c>
       <c r="H20">
-        <v>2492.577032570971</v>
+        <v>1883.952590738189</v>
       </c>
       <c r="I20">
-        <v>-982.1873002837871</v>
+        <v>-913.4060670267551</v>
       </c>
       <c r="J20">
-        <v>1207.852026545557</v>
+        <v>1170.42497976846</v>
       </c>
       <c r="K20">
-        <v>4735.127581010452</v>
+        <v>2234.732085062679</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>67.40355962510023</v>
+        <v>88.50788741411597</v>
       </c>
       <c r="G21">
-        <v>130.9186360951242</v>
+        <v>129.9125760078078</v>
       </c>
       <c r="H21">
-        <v>2534.006527127968</v>
+        <v>1915.266047688052</v>
       </c>
       <c r="I21">
-        <v>-928.4903566947551</v>
+        <v>-863.4694469535328</v>
       </c>
       <c r="J21">
-        <v>1155.583580661639</v>
+        <v>1119.77614748461</v>
       </c>
       <c r="K21">
-        <v>4781.899131186507</v>
+        <v>2256.805805793187</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>64.76737976019891</v>
+        <v>85.04630894580079</v>
       </c>
       <c r="G22">
-        <v>152.9436181446318</v>
+        <v>151.7683044199053</v>
       </c>
       <c r="H22">
-        <v>2572.134001445539</v>
+        <v>1944.083754455093</v>
       </c>
       <c r="I22">
-        <v>-873.4711752701249</v>
+        <v>-812.3031835518552</v>
       </c>
       <c r="J22">
-        <v>1103.31513477772</v>
+        <v>1069.127315200761</v>
       </c>
       <c r="K22">
-        <v>4805.903197866412</v>
+        <v>2268.134467389697</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>62.41762894725487</v>
+        <v>81.96084162686364</v>
       </c>
       <c r="G23">
-        <v>174.9686001941395</v>
+        <v>173.6240328320029</v>
       </c>
       <c r="H23">
-        <v>2607.447177986536</v>
+        <v>1970.774343978412</v>
       </c>
       <c r="I23">
-        <v>-817.0971971196321</v>
+        <v>-759.8769979860106</v>
       </c>
       <c r="J23">
-        <v>1051.046688893802</v>
+        <v>1018.478482916911</v>
       </c>
       <c r="K23">
-        <v>4807.13978105017</v>
+        <v>2268.71806985221</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>60.30600674803012</v>
+        <v>79.18806195603251</v>
       </c>
       <c r="G24">
-        <v>196.9935822436472</v>
+        <v>195.4797612441004</v>
       </c>
       <c r="H24">
-        <v>2640.333113133249</v>
+        <v>1995.630363234353</v>
       </c>
       <c r="I24">
-        <v>-759.3350616202927</v>
+        <v>-706.1598658318135</v>
       </c>
       <c r="J24">
-        <v>998.7782430098837</v>
+        <v>967.8296506330613</v>
       </c>
       <c r="K24">
-        <v>4785.608880737778</v>
+        <v>2258.556613180726</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>58.3948821581944</v>
+        <v>76.67855650895609</v>
       </c>
       <c r="G25">
-        <v>219.0185642931548</v>
+        <v>217.3354896561979</v>
       </c>
       <c r="H25">
-        <v>2671.104126138542</v>
+        <v>2018.887870991762</v>
       </c>
       <c r="I25">
-        <v>-700.1505866744716</v>
+        <v>-651.1199987171742</v>
       </c>
       <c r="J25">
-        <v>946.5097971259656</v>
+        <v>917.1808183492117</v>
       </c>
       <c r="K25">
-        <v>4741.310496929238</v>
+        <v>2237.650097375245</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>56.65444637111333</v>
+        <v>74.39318322079066</v>
       </c>
       <c r="G26">
-        <v>241.0435463426625</v>
+        <v>239.1912180682955</v>
       </c>
       <c r="H26">
-        <v>2700.015882480402</v>
+        <v>2040.740105667477</v>
       </c>
       <c r="I26">
-        <v>-639.5087484818285</v>
+        <v>-594.7248255105866</v>
       </c>
       <c r="J26">
-        <v>894.2413512420472</v>
+        <v>866.5319860653619</v>
       </c>
       <c r="K26">
-        <v>4674.244629624548</v>
+        <v>2205.998522435766</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>55.06074134061438</v>
+        <v>72.30048268397535</v>
       </c>
       <c r="G27">
-        <v>263.0685283921701</v>
+        <v>261.046946480393</v>
       </c>
       <c r="H27">
-        <v>2727.280318495711</v>
+        <v>2061.34725409052</v>
       </c>
       <c r="I27">
-        <v>-577.37366081316</v>
+        <v>-536.9409730463948</v>
       </c>
       <c r="J27">
-        <v>841.9729053581289</v>
+        <v>815.8831537815121</v>
       </c>
       <c r="K27">
-        <v>4584.41127882371</v>
+        <v>2163.60188836229</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>53.59426290780866</v>
+        <v>70.3748439083985</v>
       </c>
       <c r="G28">
-        <v>285.0935104416777</v>
+        <v>282.9026748924906</v>
       </c>
       <c r="H28">
-        <v>2753.075078357803</v>
+        <v>2080.843584207762</v>
       </c>
       <c r="I28">
-        <v>-513.7085537738832</v>
+        <v>-477.734246375442</v>
       </c>
       <c r="J28">
-        <v>789.7044594742107</v>
+        <v>765.2343214976626</v>
       </c>
       <c r="K28">
-        <v>4471.810444526723</v>
+        <v>2110.460195154816</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>52.23895070390869</v>
+        <v>68.5951779586927</v>
       </c>
       <c r="G29">
-        <v>307.1184924911854</v>
+        <v>304.7584033045881</v>
       </c>
       <c r="H29">
-        <v>2777.550535155446</v>
+        <v>2099.342751792508</v>
       </c>
       <c r="I29">
-        <v>-448.475752044588</v>
+        <v>-417.0696085294061</v>
       </c>
       <c r="J29">
-        <v>737.4360135902923</v>
+        <v>714.5854892138127</v>
       </c>
       <c r="K29">
-        <v>4336.442126733587</v>
+        <v>2046.573442813345</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>50.98144441803586</v>
+        <v>66.94394135647727</v>
       </c>
       <c r="G30">
-        <v>329.143474540693</v>
+        <v>326.6141317166856</v>
       </c>
       <c r="H30">
-        <v>2800.83510223686</v>
+        <v>2116.941814892275</v>
       </c>
       <c r="I30">
-        <v>-381.6366525857862</v>
+        <v>-354.9111597868552</v>
       </c>
       <c r="J30">
-        <v>685.167567706374</v>
+        <v>663.936656929963</v>
       </c>
       <c r="K30">
-        <v>4178.306325444301</v>
+        <v>1971.941631337877</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>49.81052726763124</v>
+        <v>65.40640529909854</v>
       </c>
       <c r="G31">
-        <v>351.1684565902007</v>
+        <v>348.4698601287832</v>
       </c>
       <c r="H31">
-        <v>2823.039311315658</v>
+        <v>2133.72431616412</v>
       </c>
       <c r="I31">
-        <v>-313.1517017936556</v>
+        <v>-291.2221164287434</v>
       </c>
       <c r="J31">
-        <v>632.8991218224559</v>
+        <v>613.2878246461133</v>
       </c>
       <c r="K31">
-        <v>3997.403040658868</v>
+        <v>1886.564760728412</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>48.71670345250493</v>
+        <v>63.97010081282883</v>
       </c>
       <c r="G32">
-        <v>373.1934386397083</v>
+        <v>370.3255885408807</v>
       </c>
       <c r="H32">
-        <v>2844.258985757561</v>
+        <v>2149.762681324778</v>
       </c>
       <c r="I32">
-        <v>-242.9803720932683</v>
+        <v>-225.9647889707837</v>
       </c>
       <c r="J32">
-        <v>580.6306759385375</v>
+        <v>562.6389923622635</v>
       </c>
       <c r="K32">
-        <v>3793.732272377285</v>
+        <v>1790.442830984949</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>47.69187308976446</v>
+        <v>62.62439190860319</v>
       </c>
       <c r="G33">
-        <v>395.218420689216</v>
+        <v>392.1813169529782</v>
       </c>
       <c r="H33">
-        <v>2864.577739751896</v>
+        <v>2165.120108087519</v>
       </c>
       <c r="I33">
-        <v>-171.0811379554481</v>
+        <v>-159.1005598598117</v>
       </c>
       <c r="J33">
-        <v>528.3622300546193</v>
+        <v>511.990160078414</v>
       </c>
       <c r="K33">
-        <v>3567.294020599554</v>
+        <v>1683.575842107489</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>46.72907913454764</v>
+        <v>61.36014326260752</v>
       </c>
       <c r="G34">
-        <v>417.2434027387237</v>
+        <v>414.0370453650758</v>
       </c>
       <c r="H34">
-        <v>2884.068968233232</v>
+        <v>2179.852070195109</v>
       </c>
       <c r="I34">
-        <v>-97.41145132306653</v>
+        <v>-90.58986062094486</v>
       </c>
       <c r="J34">
-        <v>476.093784170701</v>
+        <v>461.3413277945642</v>
       </c>
       <c r="K34">
-        <v>3318.088285325673</v>
+        <v>1565.963794096032</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>45.82230818427063</v>
+        <v>60.16945865152918</v>
       </c>
       <c r="G35">
-        <v>439.2683847882313</v>
+        <v>435.8927737771733</v>
       </c>
       <c r="H35">
-        <v>2902.797447214661</v>
+        <v>2194.007526992068</v>
       </c>
       <c r="I35">
-        <v>-21.92771643223183</v>
+        <v>-20.39214844200877</v>
       </c>
       <c r="J35">
-        <v>423.8253382867826</v>
+        <v>410.6924955107144</v>
       </c>
       <c r="K35">
-        <v>3046.115066555643</v>
+        <v>1437.606686950577</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>44.96633211882375</v>
+        <v>59.04547300965608</v>
       </c>
       <c r="G36">
-        <v>461.293366837739</v>
+        <v>457.7485021892709</v>
       </c>
       <c r="H36">
-        <v>2920.820632622906</v>
+        <v>2207.629905117005</v>
       </c>
       <c r="I36">
-        <v>55.41473598652713</v>
+        <v>51.5341178186228</v>
       </c>
       <c r="J36">
-        <v>371.5568924028645</v>
+        <v>360.0436632268648</v>
       </c>
       <c r="K36">
-        <v>2751.374364289465</v>
+        <v>1298.504520671125</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>44.15658104229409</v>
+        <v>57.9821855881375</v>
       </c>
       <c r="G37">
-        <v>483.3183488872466</v>
+        <v>479.6042306013684</v>
       </c>
       <c r="H37">
-        <v>2938.189723329081</v>
+        <v>2220.757901968085</v>
       </c>
       <c r="I37">
-        <v>134.6616751423464</v>
+        <v>125.2315022149707</v>
       </c>
       <c r="J37">
-        <v>319.2884465189461</v>
+        <v>309.3948309430149</v>
       </c>
       <c r="K37">
-        <v>2433.866178527138</v>
+        <v>1148.657295257676</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>43.38904047040393</v>
+        <v>56.97432495139268</v>
       </c>
       <c r="G38">
-        <v>505.3433309367542</v>
+        <v>501.4599590134659</v>
       </c>
       <c r="H38">
-        <v>2954.950537952703</v>
+        <v>2233.426148413606</v>
       </c>
       <c r="I38">
-        <v>215.8599972690313</v>
+        <v>200.7436169017289</v>
       </c>
       <c r="J38">
-        <v>267.020000635028</v>
+        <v>258.7459986591654</v>
       </c>
       <c r="K38">
-        <v>2093.590509268663</v>
+        <v>988.0650107102294</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>42.66016748091629</v>
+        <v>56.01723887386839</v>
       </c>
       <c r="G39">
-        <v>527.3683129862619</v>
+        <v>523.3156874255635</v>
       </c>
       <c r="H39">
-        <v>2971.144243266201</v>
+        <v>2245.665759338508</v>
       </c>
       <c r="I39">
-        <v>299.0577533769983</v>
+        <v>278.115147942776</v>
       </c>
       <c r="J39">
-        <v>214.7515547511096</v>
+        <v>208.0971663753156</v>
       </c>
       <c r="K39">
-        <v>1730.547356514036</v>
+        <v>816.7276670287849</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>41.96682182888327</v>
+        <v>55.10680388719221</v>
       </c>
       <c r="G40">
-        <v>549.3932950357695</v>
+        <v>545.171415837661</v>
       </c>
       <c r="H40">
-        <v>2986.807963355738</v>
+        <v>2257.504794063482</v>
       </c>
       <c r="I40">
-        <v>384.3041776885926</v>
+        <v>357.3918817552063</v>
       </c>
       <c r="J40">
-        <v>162.4831088671912</v>
+        <v>157.4483340914658</v>
       </c>
       <c r="K40">
-        <v>1344.736720263262</v>
+        <v>634.6452642133437</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>41.30620897041884</v>
+        <v>54.23935046445763</v>
       </c>
       <c r="G41">
-        <v>571.4182770852772</v>
+        <v>567.0271442497585</v>
       </c>
       <c r="H41">
-        <v>3001.975292222563</v>
+        <v>2268.968643782005</v>
       </c>
       <c r="I41">
-        <v>471.6497167735862</v>
+        <v>438.6207322045087</v>
       </c>
       <c r="J41">
-        <v>110.2146629832731</v>
+        <v>106.7995018076162</v>
       </c>
       <c r="K41">
-        <v>936.1586005163401</v>
+        <v>441.8178022639054</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>40.67583263678022</v>
+        <v>53.41160074505805</v>
       </c>
       <c r="G42">
-        <v>593.4432591347847</v>
+        <v>588.882872661856</v>
       </c>
       <c r="H42">
-        <v>3016.676727628946</v>
+        <v>2280.080359472034</v>
       </c>
       <c r="I42">
-        <v>561.1460594021273</v>
+        <v>521.8497683669548</v>
       </c>
       <c r="J42">
-        <v>57.94621709935475</v>
+        <v>56.1506695237664</v>
       </c>
       <c r="K42">
-        <v>504.8129972732677</v>
+        <v>238.2452811804692</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>40.07345512330814</v>
+        <v>52.62061638993315</v>
       </c>
       <c r="G43">
-        <v>615.4682411842925</v>
+        <v>610.7386010739538</v>
       </c>
       <c r="H43">
-        <v>3030.940040276736</v>
+        <v>2290.86093093048</v>
       </c>
       <c r="I43">
-        <v>652.8461671327699</v>
+        <v>607.1282429755911</v>
       </c>
       <c r="J43">
-        <v>5.677771215436374</v>
+        <v>5.501837239916588</v>
       </c>
       <c r="K43">
-        <v>50.69991053404679</v>
+        <v>23.92770096303591</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>39.49706385301266</v>
+        <v>51.863754676078</v>
       </c>
       <c r="G44">
-        <v>637.4932232338001</v>
+        <v>632.5943294860512</v>
       </c>
       <c r="H44">
-        <v>3044.790589551355</v>
+        <v>2301.329525420477</v>
       </c>
       <c r="I44">
-        <v>746.8043056537266</v>
+        <v>694.5066215667064</v>
       </c>
       <c r="J44">
-        <v>-46.59067466848175</v>
+        <v>-45.14699504393298</v>
       </c>
       <c r="K44">
-        <v>-426.1806597013217</v>
+        <v>-201.1349383883941</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>38.94484307608393</v>
+        <v>51.13863133505578</v>
       </c>
       <c r="G45">
-        <v>659.5182052833078</v>
+        <v>654.4500578981487</v>
       </c>
       <c r="H45">
-        <v>3058.25159485161</v>
+        <v>2311.503692749298</v>
       </c>
       <c r="I45">
-        <v>843.07607689586</v>
+        <v>784.036612343994</v>
       </c>
       <c r="J45">
-        <v>-98.85912055240013</v>
+        <v>-95.79582732778279</v>
       </c>
       <c r="K45">
-        <v>-925.8287134328405</v>
+        <v>-436.9426368738221</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>38.41514979852519</v>
+        <v>50.44308894478822</v>
       </c>
       <c r="G46">
-        <v>681.5431873328155</v>
+        <v>676.3057863102463</v>
       </c>
       <c r="H46">
-        <v>3071.344369797666</v>
+        <v>2321.399542288654</v>
       </c>
       <c r="I46">
-        <v>941.7184519364259</v>
+        <v>875.7711967780916</v>
       </c>
       <c r="J46">
-        <v>-151.1275664363185</v>
+        <v>-146.4446596116326</v>
       </c>
       <c r="K46">
-        <v>-1448.244250660509</v>
+        <v>-683.4953944932479</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>37.90649321292356</v>
+        <v>49.77516992001742</v>
       </c>
       <c r="G47">
-        <v>703.568169382323</v>
+        <v>698.1615147223438</v>
       </c>
       <c r="H47">
-        <v>3084.088525249767</v>
+        <v>2331.031896421353</v>
       </c>
       <c r="I47">
-        <v>1042.789804713045</v>
+        <v>969.7646609596086</v>
       </c>
       <c r="J47">
-        <v>-203.3960123202369</v>
+        <v>-197.0934918954824</v>
       </c>
       <c r="K47">
-        <v>-1993.427271384326</v>
+        <v>-940.7932112466707</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>37.41751704482349</v>
+        <v>49.13309333125711</v>
       </c>
       <c r="G48">
-        <v>725.5931514318307</v>
+        <v>720.0172431344413</v>
       </c>
       <c r="H48">
-        <v>3096.502145992817</v>
+        <v>2340.414424083973</v>
       </c>
       <c r="I48">
-        <v>1146.349946567847</v>
+        <v>1066.072627724193</v>
       </c>
       <c r="J48">
-        <v>-255.6644582041548</v>
+        <v>-247.7423241793317</v>
       </c>
       <c r="K48">
-        <v>-2561.377775604288</v>
+        <v>-1208.836087134089</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>36.94698433864676</v>
+        <v>48.51523492712261</v>
       </c>
       <c r="G49">
-        <v>747.6181334813384</v>
+        <v>741.8729715465389</v>
       </c>
       <c r="H49">
-        <v>3108.601945082415</v>
+        <v>2349.559757425486</v>
       </c>
       <c r="I49">
-        <v>1252.460161642243</v>
+        <v>1164.752089568653</v>
       </c>
       <c r="J49">
-        <v>-307.9329040880731</v>
+        <v>-298.3911564631816</v>
       </c>
       <c r="K49">
-        <v>-3152.095763320402</v>
+        <v>-1487.624022155506</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>36.4937642945772</v>
+        <v>47.92010984979076</v>
       </c>
       <c r="G50">
-        <v>769.643115530846</v>
+        <v>763.7286999586364</v>
       </c>
       <c r="H50">
-        <v>3120.403399158112</v>
+        <v>2358.479594080426</v>
       </c>
       <c r="I50">
-        <v>1361.183243143236</v>
+        <v>1265.86144237759</v>
       </c>
       <c r="J50">
-        <v>-360.2013499719915</v>
+        <v>-349.0399887470314</v>
       </c>
       <c r="K50">
-        <v>-3765.581234532666</v>
+        <v>-1777.157016310921</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>36.05682083752561</v>
+        <v>47.34635762486144</v>
       </c>
       <c r="G51">
-        <v>791.6680975803537</v>
+        <v>785.5844283707339</v>
       </c>
       <c r="H51">
-        <v>3131.920867472592</v>
+        <v>2367.184787134151</v>
       </c>
       <c r="I51">
-        <v>1472.58353050279</v>
+        <v>1369.46051998055</v>
       </c>
       <c r="J51">
-        <v>-412.4697958559099</v>
+        <v>-399.6888210308812</v>
       </c>
       <c r="K51">
-        <v>-4401.834189241079</v>
+        <v>-2077.435069600333</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>35.63520265515489</v>
+        <v>46.79272908024798</v>
       </c>
       <c r="G52">
-        <v>813.6930796298614</v>
+        <v>807.4401567828315</v>
       </c>
       <c r="H52">
-        <v>3143.167696933235</v>
+        <v>2375.685424515902</v>
       </c>
       <c r="I52">
-        <v>1586.72694745219</v>
+        <v>1475.610629560079</v>
       </c>
       <c r="J52">
-        <v>-464.7382417398283</v>
+        <v>-450.337653314731</v>
       </c>
       <c r="K52">
-        <v>-5060.854627445639</v>
+        <v>-2388.458182023742</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>35.22803448696826</v>
+        <v>46.25807490784349</v>
       </c>
       <c r="G53">
-        <v>835.7180616793689</v>
+        <v>829.295885194929</v>
       </c>
       <c r="H53">
-        <v>3154.156315083345</v>
+        <v>2383.990899276367</v>
       </c>
       <c r="I53">
-        <v>1703.681041033948</v>
+        <v>1584.374587931691</v>
       </c>
       <c r="J53">
-        <v>-517.0066876237461</v>
+        <v>-500.9864855985803</v>
       </c>
       <c r="K53">
-        <v>-5742.642549146345</v>
+        <v>-2710.226353581147</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>34.83450948295323</v>
+        <v>45.74133562962543</v>
       </c>
       <c r="G54">
-        <v>857.7430437288766</v>
+        <v>851.1516136070265</v>
       </c>
       <c r="H54">
-        <v>3164.898312647467</v>
+        <v>2392.109971977505</v>
       </c>
       <c r="I54">
-        <v>1823.515021574365</v>
+        <v>1695.8167587172</v>
       </c>
       <c r="J54">
-        <v>-569.2751335076645</v>
+        <v>-551.6353178824302</v>
       </c>
       <c r="K54">
-        <v>-6447.197954343204</v>
+        <v>-3042.73958427255</v>
       </c>
     </row>
   </sheetData>

--- a/runs/run971/NotionalETEOutput971.xlsx
+++ b/runs/run971/NotionalETEOutput971.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_ANGERMAX0_State_Update</t>
+    <t>Missile_HELLMASKER_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_ANGERMAX0_419.MISSILE_ANGERMAX0_419</t>
+    <t>MISSILE_HELLMASKER_419.MISSILE_HELLMASKER_419</t>
   </si>
   <si>
-    <t>MISSILE_ANGERMAX0</t>
+    <t>MISSILE_HELLMASKER</t>
   </si>
 </sst>
 </file>
@@ -471,19 +471,19 @@
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>271.13511384174</v>
+        <v>208.2464562333562</v>
       </c>
       <c r="G2">
-        <v>-132.3561649373627</v>
+        <v>-143.6059762851652</v>
       </c>
       <c r="H2">
-        <v>1035.738216202934</v>
+        <v>1337.402181262413</v>
       </c>
       <c r="I2">
-        <v>-1632.493161755704</v>
+        <v>-1880.679235551066</v>
       </c>
       <c r="J2">
-        <v>2082.103960877755</v>
+        <v>2810.158423695445</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -506,22 +506,22 @@
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>271.13511384174</v>
+        <v>208.2464562333562</v>
       </c>
       <c r="G3">
-        <v>-132.3561649373627</v>
+        <v>-143.6059762851652</v>
       </c>
       <c r="H3">
-        <v>1035.738216202934</v>
+        <v>1337.402181262413</v>
       </c>
       <c r="I3">
-        <v>-1600.263399842186</v>
+        <v>-1843.549619686507</v>
       </c>
       <c r="J3">
-        <v>2031.455128593905</v>
+        <v>2741.799088442658</v>
       </c>
       <c r="K3">
-        <v>215.4847851424597</v>
+        <v>420.2047094480097</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -541,22 +541,22 @@
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>271.13511384174</v>
+        <v>208.2464562333562</v>
       </c>
       <c r="G4">
-        <v>-132.3561649373627</v>
+        <v>-143.6059762851652</v>
       </c>
       <c r="H4">
-        <v>1035.738216202934</v>
+        <v>1337.402181262413</v>
       </c>
       <c r="I4">
-        <v>-1567.240009692384</v>
+        <v>-1805.505721189903</v>
       </c>
       <c r="J4">
-        <v>1980.806296310056</v>
+        <v>2673.439753189871</v>
       </c>
       <c r="K4">
-        <v>420.2245111509213</v>
+        <v>819.456085933702</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -576,22 +576,22 @@
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>271.13511384174</v>
+        <v>208.2464562333562</v>
       </c>
       <c r="G5">
-        <v>-132.3561649373627</v>
+        <v>-143.6059762851652</v>
       </c>
       <c r="H5">
-        <v>1035.738216202934</v>
+        <v>1337.402181262413</v>
       </c>
       <c r="I5">
-        <v>-1533.403448941106</v>
+        <v>-1766.525026692566</v>
       </c>
       <c r="J5">
-        <v>1930.157464026206</v>
+        <v>2605.080417937084</v>
       </c>
       <c r="K5">
-        <v>614.2191780253862</v>
+        <v>1197.75412945708</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -611,22 +611,22 @@
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>271.13511384174</v>
+        <v>208.2464562333562</v>
       </c>
       <c r="G6">
-        <v>-132.3561649373627</v>
+        <v>-143.6059762851652</v>
       </c>
       <c r="H6">
-        <v>1035.738216202934</v>
+        <v>1337.402181262413</v>
       </c>
       <c r="I6">
-        <v>-1498.733694010392</v>
+        <v>-1726.584468454813</v>
       </c>
       <c r="J6">
-        <v>1879.508631742356</v>
+        <v>2536.721082684297</v>
       </c>
       <c r="K6">
-        <v>797.4687857658531</v>
+        <v>1555.098840018141</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -646,22 +646,22 @@
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>271.13511384174</v>
+        <v>208.2464562333562</v>
       </c>
       <c r="G7">
-        <v>-132.3561649373627</v>
+        <v>-143.6059762851652</v>
       </c>
       <c r="H7">
-        <v>1035.738216202934</v>
+        <v>1337.402181262413</v>
       </c>
       <c r="I7">
-        <v>-1463.210228260099</v>
+        <v>-1685.660410715094</v>
       </c>
       <c r="J7">
-        <v>1828.859799458507</v>
+        <v>2468.36174743151</v>
       </c>
       <c r="K7">
-        <v>969.9733343723237</v>
+        <v>1891.490217616888</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -681,22 +681,22 @@
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>271.13511384174</v>
+        <v>208.2464562333562</v>
       </c>
       <c r="G8">
-        <v>-132.3561649373627</v>
+        <v>-143.6059762851652</v>
       </c>
       <c r="H8">
-        <v>1035.738216202934</v>
+        <v>1337.402181262413</v>
       </c>
       <c r="I8">
-        <v>-1426.812029846694</v>
+        <v>-1643.728635702978</v>
       </c>
       <c r="J8">
-        <v>1778.210967174657</v>
+        <v>2400.002412178723</v>
       </c>
       <c r="K8">
-        <v>1131.732823844796</v>
+        <v>2206.928262253318</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -716,22 +716,22 @@
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>271.13511384174</v>
+        <v>208.2464562333562</v>
       </c>
       <c r="G9">
-        <v>-132.3561649373627</v>
+        <v>-143.6059762851652</v>
       </c>
       <c r="H9">
-        <v>1035.738216202934</v>
+        <v>1337.402181262413</v>
       </c>
       <c r="I9">
-        <v>-1389.517559283088</v>
+        <v>-1600.764329307715</v>
       </c>
       <c r="J9">
-        <v>1727.562134890807</v>
+        <v>2331.643076925936</v>
       </c>
       <c r="K9">
-        <v>1282.747254183272</v>
+        <v>2501.412973927433</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>271.13511384174</v>
+        <v>208.2464562333562</v>
       </c>
       <c r="G10">
-        <v>-110.5004365252652</v>
+        <v>-119.892587358189</v>
       </c>
       <c r="H10">
-        <v>1035.738216202934</v>
+        <v>1337.402181262413</v>
       </c>
       <c r="I10">
-        <v>-1351.304746692137</v>
+        <v>-1556.742066393905</v>
       </c>
       <c r="J10">
-        <v>1676.913302606957</v>
+        <v>2263.283741673149</v>
       </c>
       <c r="K10">
-        <v>1423.01662538775</v>
+        <v>2774.944352639232</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>210.4324780033879</v>
+        <v>161.6235433311959</v>
       </c>
       <c r="G11">
-        <v>-88.64470811316762</v>
+        <v>-96.17919843121285</v>
       </c>
       <c r="H11">
-        <v>1276.022512821747</v>
+        <v>1647.670487861367</v>
       </c>
       <c r="I11">
-        <v>-1312.150978746277</v>
+        <v>-1511.635795755582</v>
       </c>
       <c r="J11">
-        <v>1626.264470323108</v>
+        <v>2194.924406420363</v>
       </c>
       <c r="K11">
-        <v>1552.54093745823</v>
+        <v>3027.522398388714</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>174.7727246212906</v>
+        <v>134.2349208589634</v>
       </c>
       <c r="G12">
-        <v>-66.78897970107009</v>
+        <v>-72.46580950423667</v>
       </c>
       <c r="H12">
-        <v>1419.148128493368</v>
+        <v>1832.482158995309</v>
       </c>
       <c r="I12">
-        <v>-1272.033085285556</v>
+        <v>-1465.418824699799</v>
       </c>
       <c r="J12">
-        <v>1575.615638039258</v>
+        <v>2126.565071167575</v>
       </c>
       <c r="K12">
-        <v>1671.320190394714</v>
+        <v>3259.147111175881</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>152.2616721546389</v>
+        <v>116.9452130234831</v>
       </c>
       <c r="G13">
-        <v>-44.93325128897255</v>
+        <v>-48.75242057726047</v>
       </c>
       <c r="H13">
-        <v>1521.430332523323</v>
+        <v>1964.554569411404</v>
       </c>
       <c r="I13">
-        <v>-1230.927325606149</v>
+        <v>-1418.063803250599</v>
       </c>
       <c r="J13">
-        <v>1524.966805755408</v>
+        <v>2058.205735914788</v>
       </c>
       <c r="K13">
-        <v>1779.354384197201</v>
+        <v>3469.818491000734</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>136.5625555421225</v>
+        <v>104.8874409620636</v>
       </c>
       <c r="G14">
-        <v>-23.077522876875</v>
+        <v>-25.03903165028427</v>
       </c>
       <c r="H14">
-        <v>1601.077430003718</v>
+        <v>2067.399284644572</v>
       </c>
       <c r="I14">
-        <v>-1188.809374411243</v>
+        <v>-1369.542707964035</v>
       </c>
       <c r="J14">
-        <v>1474.317973471558</v>
+        <v>1989.846400662001</v>
       </c>
       <c r="K14">
-        <v>1876.64351886569</v>
+        <v>3659.53653786327</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>124.8505444142838</v>
+        <v>95.89198191517053</v>
       </c>
       <c r="G15">
-        <v>-1.221794464777476</v>
+        <v>-1.325642723308092</v>
       </c>
       <c r="H15">
-        <v>1666.314580832176</v>
+        <v>2151.6370837838</v>
       </c>
       <c r="I15">
-        <v>-1145.654307415967</v>
+        <v>-1319.826825344628</v>
       </c>
       <c r="J15">
-        <v>1423.669141187709</v>
+        <v>1921.487065409214</v>
       </c>
       <c r="K15">
-        <v>1963.187594400181</v>
+        <v>3828.301251763489</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>115.6933872461795</v>
+        <v>88.85878911911441</v>
       </c>
       <c r="G16">
-        <v>20.63393394732007</v>
+        <v>22.38774620366811</v>
       </c>
       <c r="H16">
-        <v>1721.565685502677</v>
+        <v>2222.98035059342</v>
       </c>
       <c r="I16">
-        <v>-1101.436586597865</v>
+        <v>-1268.886734853492</v>
       </c>
       <c r="J16">
-        <v>1373.020308903859</v>
+        <v>1853.127730156427</v>
       </c>
       <c r="K16">
-        <v>2038.986610800675</v>
+        <v>3976.112632701394</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>108.2845803427069</v>
+        <v>83.16842404354563</v>
       </c>
       <c r="G17">
-        <v>42.48966235941761</v>
+        <v>46.10113513064431</v>
       </c>
       <c r="H17">
-        <v>1769.485956078533</v>
+        <v>2284.857641005458</v>
       </c>
       <c r="I17">
-        <v>-1056.130045084175</v>
+        <v>-1216.692291498035</v>
       </c>
       <c r="J17">
-        <v>1322.371476620009</v>
+        <v>1784.768394903641</v>
       </c>
       <c r="K17">
-        <v>2104.040568067172</v>
+        <v>4102.970680676983</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>102.1326307070344</v>
+        <v>78.4433934401592</v>
       </c>
       <c r="G18">
-        <v>64.34539077151514</v>
+        <v>69.81452405762049</v>
       </c>
       <c r="H18">
-        <v>1811.794813109009</v>
+        <v>2339.48916545255</v>
       </c>
       <c r="I18">
-        <v>-1009.707871666965</v>
+        <v>-1163.212607992957</v>
       </c>
       <c r="J18">
-        <v>1271.72264433616</v>
+        <v>1716.409059650854</v>
       </c>
       <c r="K18">
-        <v>2158.349466199672</v>
+        <v>4208.875395690256</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>96.9193162674993</v>
+        <v>74.4392855181692</v>
       </c>
       <c r="G19">
-        <v>86.2011191836127</v>
+        <v>93.52791298459671</v>
       </c>
       <c r="H19">
-        <v>1849.669753915147</v>
+        <v>2388.395373273107</v>
       </c>
       <c r="I19">
-        <v>-962.1425949369719</v>
+        <v>-1108.416036481974</v>
       </c>
       <c r="J19">
-        <v>1221.07381205231</v>
+        <v>1648.049724398066</v>
       </c>
       <c r="K19">
-        <v>2201.913305198174</v>
+        <v>4293.826777741213</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>92.42855449070615</v>
+        <v>70.99013718561038</v>
       </c>
       <c r="G20">
-        <v>108.0568475957102</v>
+        <v>117.2413019115729</v>
       </c>
       <c r="H20">
-        <v>1883.952590738189</v>
+        <v>2432.663258757808</v>
       </c>
       <c r="I20">
-        <v>-913.4060670267551</v>
+        <v>-1052.270149809453</v>
       </c>
       <c r="J20">
-        <v>1170.42497976846</v>
+        <v>1579.69038914528</v>
       </c>
       <c r="K20">
-        <v>2234.732085062679</v>
+        <v>4357.824826829855</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>88.50788741411597</v>
+        <v>67.97885246781</v>
       </c>
       <c r="G21">
-        <v>129.9125760078078</v>
+        <v>140.9546908385491</v>
       </c>
       <c r="H21">
-        <v>1915.266047688052</v>
+        <v>2473.096917545781</v>
       </c>
       <c r="I21">
-        <v>-863.4694469535328</v>
+        <v>-994.7417223308913</v>
       </c>
       <c r="J21">
-        <v>1119.77614748461</v>
+        <v>1511.331053892493</v>
       </c>
       <c r="K21">
-        <v>2256.805805793187</v>
+        <v>4400.86954295618</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>85.04630894580079</v>
+        <v>65.32017267238858</v>
       </c>
       <c r="G22">
-        <v>151.7683044199053</v>
+        <v>164.6680797655253</v>
       </c>
       <c r="H22">
-        <v>1944.083754455093</v>
+        <v>2510.307926356978</v>
       </c>
       <c r="I22">
-        <v>-812.3031835518552</v>
+        <v>-935.796710250852</v>
       </c>
       <c r="J22">
-        <v>1069.127315200761</v>
+        <v>1442.971718639706</v>
       </c>
       <c r="K22">
-        <v>2268.134467389697</v>
+        <v>4422.96092612019</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>81.96084162686364</v>
+        <v>62.95036661559158</v>
       </c>
       <c r="G23">
-        <v>173.6240328320029</v>
+        <v>188.3814686925015</v>
       </c>
       <c r="H23">
-        <v>1970.774343978412</v>
+        <v>2544.772284328176</v>
       </c>
       <c r="I23">
-        <v>-759.8769979860106</v>
+        <v>-875.4002314767586</v>
       </c>
       <c r="J23">
-        <v>1018.478482916911</v>
+        <v>1374.612383386919</v>
       </c>
       <c r="K23">
-        <v>2268.71806985221</v>
+        <v>4424.098976321885</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>79.18806195603251</v>
+        <v>60.82072161246037</v>
       </c>
       <c r="G24">
-        <v>195.4797612441004</v>
+        <v>212.0948576194777</v>
       </c>
       <c r="H24">
-        <v>1995.630363234353</v>
+        <v>2576.867744214037</v>
       </c>
       <c r="I24">
-        <v>-706.1598658318135</v>
+        <v>-813.516544976595</v>
       </c>
       <c r="J24">
-        <v>967.8296506330613</v>
+        <v>1306.253048134132</v>
       </c>
       <c r="K24">
-        <v>2258.556613180726</v>
+        <v>4404.283693561263</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>76.67855650895609</v>
+        <v>58.89328547611027</v>
       </c>
       <c r="G25">
-        <v>217.3354896561979</v>
+        <v>235.8082465464539</v>
       </c>
       <c r="H25">
-        <v>2018.887870991762</v>
+        <v>2606.899118087175</v>
       </c>
       <c r="I25">
-        <v>-651.1199987171742</v>
+        <v>-750.1090296283119</v>
       </c>
       <c r="J25">
-        <v>917.1808183492117</v>
+        <v>1237.893712881345</v>
       </c>
       <c r="K25">
-        <v>2237.650097375245</v>
+        <v>4363.515077838327</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>74.39318322079066</v>
+        <v>57.13799498021155</v>
       </c>
       <c r="G26">
-        <v>239.1912180682955</v>
+        <v>259.5216354734301</v>
       </c>
       <c r="H26">
-        <v>2040.740105667477</v>
+        <v>2635.115926025286</v>
       </c>
       <c r="I26">
-        <v>-594.7248255105866</v>
+        <v>-685.1401625484222</v>
       </c>
       <c r="J26">
-        <v>866.5319860653619</v>
+        <v>1169.534377628558</v>
       </c>
       <c r="K26">
-        <v>2205.998522435766</v>
+        <v>4301.793129153074</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>72.30048268397535</v>
+        <v>55.53068759543731</v>
       </c>
       <c r="G27">
-        <v>261.046946480393</v>
+        <v>283.2350244004062</v>
       </c>
       <c r="H27">
-        <v>2061.34725409052</v>
+        <v>2661.725010077057</v>
       </c>
       <c r="I27">
-        <v>-536.9409730463948</v>
+        <v>-618.571496886952</v>
       </c>
       <c r="J27">
-        <v>815.8831537815121</v>
+        <v>1101.175042375771</v>
       </c>
       <c r="K27">
-        <v>2163.60188836229</v>
+        <v>4219.117847505505</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>70.3748439083985</v>
+        <v>54.05169269390095</v>
       </c>
       <c r="G28">
-        <v>282.9026748924906</v>
+        <v>306.9484133273825</v>
       </c>
       <c r="H28">
-        <v>2080.843584207762</v>
+        <v>2686.899744404232</v>
       </c>
       <c r="I28">
-        <v>-477.734246375442</v>
+        <v>-550.3636390756179</v>
       </c>
       <c r="J28">
-        <v>765.2343214976626</v>
+        <v>1032.815707122984</v>
       </c>
       <c r="K28">
-        <v>2110.460195154816</v>
+        <v>4115.489232895621</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>68.5951779586927</v>
+        <v>52.68481283074266</v>
       </c>
       <c r="G29">
-        <v>304.7584033045881</v>
+        <v>330.6618022543587</v>
       </c>
       <c r="H29">
-        <v>2099.342751792508</v>
+        <v>2710.786887595762</v>
       </c>
       <c r="I29">
-        <v>-417.0696085294061</v>
+        <v>-480.4762255157574</v>
       </c>
       <c r="J29">
-        <v>714.5854892138127</v>
+        <v>964.456371870197</v>
       </c>
       <c r="K29">
-        <v>2046.573442813345</v>
+        <v>3990.907285323421</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>66.94394135647727</v>
+        <v>51.41657366414441</v>
       </c>
       <c r="G30">
-        <v>326.6141317166856</v>
+        <v>354.3751911813348</v>
       </c>
       <c r="H30">
-        <v>2116.941814892275</v>
+        <v>2733.511766343686</v>
       </c>
       <c r="I30">
-        <v>-354.9111597868552</v>
+        <v>-408.8678986922272</v>
       </c>
       <c r="J30">
-        <v>663.936656929963</v>
+        <v>896.0970366174099</v>
       </c>
       <c r="K30">
-        <v>1971.941631337877</v>
+        <v>3845.372004788905</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>65.40640529909854</v>
+        <v>50.23566267573212</v>
       </c>
       <c r="G31">
-        <v>348.4698601287832</v>
+        <v>378.088580108311</v>
       </c>
       <c r="H31">
-        <v>2133.72431616412</v>
+        <v>2755.182255524136</v>
       </c>
       <c r="I31">
-        <v>-291.2221164287434</v>
+        <v>-335.4962826991203</v>
       </c>
       <c r="J31">
-        <v>613.2878246461133</v>
+        <v>827.7377013646231</v>
       </c>
       <c r="K31">
-        <v>1886.564760728412</v>
+        <v>3678.883391292075</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>63.97010081282883</v>
+        <v>49.13250301817363</v>
       </c>
       <c r="G32">
-        <v>370.3255885408807</v>
+        <v>401.8019690352872</v>
       </c>
       <c r="H32">
-        <v>2149.762681324778</v>
+        <v>2775.891875208137</v>
       </c>
       <c r="I32">
-        <v>-225.9647889707837</v>
+        <v>-260.3179581628324</v>
       </c>
       <c r="J32">
-        <v>562.6389923622635</v>
+        <v>759.378366111836</v>
       </c>
       <c r="K32">
-        <v>1790.442830984949</v>
+        <v>3491.441444832926</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>62.62439190860319</v>
+        <v>48.09892567566005</v>
       </c>
       <c r="G33">
-        <v>392.1813169529782</v>
+        <v>425.5153579622634</v>
       </c>
       <c r="H33">
-        <v>2165.120108087519</v>
+        <v>2795.72222976082</v>
       </c>
       <c r="I33">
-        <v>-159.1005598598117</v>
+        <v>-183.2884365476282</v>
       </c>
       <c r="J33">
-        <v>511.990160078414</v>
+        <v>691.0190308590493</v>
       </c>
       <c r="K33">
-        <v>1683.575842107489</v>
+        <v>3283.046165411464</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>61.36014326260752</v>
+        <v>47.12791422459403</v>
       </c>
       <c r="G34">
-        <v>414.0370453650758</v>
+        <v>449.2287468892396</v>
       </c>
       <c r="H34">
-        <v>2179.852070195109</v>
+        <v>2814.744949931555</v>
       </c>
       <c r="I34">
-        <v>-90.58986062094486</v>
+        <v>-104.36213382851</v>
       </c>
       <c r="J34">
-        <v>461.3413277945642</v>
+        <v>622.6596956062622</v>
       </c>
       <c r="K34">
-        <v>1565.963794096032</v>
+        <v>3053.697553027685</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>60.16945865152918</v>
+        <v>46.21340393769189</v>
       </c>
       <c r="G35">
-        <v>435.8927737771733</v>
+        <v>472.9421358162158</v>
       </c>
       <c r="H35">
-        <v>2194.007526992068</v>
+        <v>2833.023254720213</v>
       </c>
       <c r="I35">
-        <v>-20.39214844200877</v>
+        <v>-23.49234351580088</v>
       </c>
       <c r="J35">
-        <v>410.6924955107144</v>
+        <v>554.3003603534752</v>
       </c>
       <c r="K35">
-        <v>1437.606686950577</v>
+        <v>2803.395607681591</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>59.04547300965608</v>
+        <v>45.35012207257031</v>
       </c>
       <c r="G36">
-        <v>457.7485021892709</v>
+        <v>496.655524743192</v>
       </c>
       <c r="H36">
-        <v>2207.629905117005</v>
+        <v>2850.613218992328</v>
       </c>
       <c r="I36">
-        <v>51.5341178186228</v>
+        <v>59.36879098451601</v>
       </c>
       <c r="J36">
-        <v>360.0436632268648</v>
+        <v>485.9410251006884</v>
       </c>
       <c r="K36">
-        <v>1298.504520671125</v>
+        <v>2532.140329373181</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>57.9821855881375</v>
+        <v>44.5334597290201</v>
       </c>
       <c r="G37">
-        <v>479.6042306013684</v>
+        <v>520.3689136701681</v>
       </c>
       <c r="H37">
-        <v>2220.757901968085</v>
+        <v>2867.564810957918</v>
       </c>
       <c r="I37">
-        <v>125.2315022149707</v>
+        <v>144.2703046910571</v>
       </c>
       <c r="J37">
-        <v>309.3948309430149</v>
+        <v>417.5816898479013</v>
       </c>
       <c r="K37">
-        <v>1148.657295257676</v>
+        <v>2239.931718102455</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>56.97432495139268</v>
+        <v>43.75936815893409</v>
       </c>
       <c r="G38">
-        <v>501.4599590134659</v>
+        <v>544.0823025971443</v>
       </c>
       <c r="H38">
-        <v>2233.426148413606</v>
+        <v>2883.922747899862</v>
       </c>
       <c r="I38">
-        <v>200.7436169017289</v>
+        <v>231.2624400646622</v>
       </c>
       <c r="J38">
-        <v>258.7459986591654</v>
+        <v>349.2223545951146</v>
       </c>
       <c r="K38">
-        <v>988.0650107102294</v>
+        <v>1926.769773869415</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>56.01723887386839</v>
+        <v>43.02427420105207</v>
       </c>
       <c r="G39">
-        <v>523.3156874255635</v>
+        <v>567.7956915241206</v>
       </c>
       <c r="H39">
-        <v>2245.665759338508</v>
+        <v>2899.727207069842</v>
       </c>
       <c r="I39">
-        <v>278.115147942776</v>
+        <v>320.3966767405444</v>
       </c>
       <c r="J39">
-        <v>208.0971663753156</v>
+        <v>280.8630193423274</v>
       </c>
       <c r="K39">
-        <v>816.7276670287849</v>
+        <v>1592.654496674056</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>55.10680388719221</v>
+        <v>42.32501080827424</v>
       </c>
       <c r="G40">
-        <v>545.171415837661</v>
+        <v>591.5090804510968</v>
       </c>
       <c r="H40">
-        <v>2257.504794063482</v>
+        <v>2915.014420206834</v>
       </c>
       <c r="I40">
-        <v>357.3918817552063</v>
+        <v>411.7257619925768</v>
       </c>
       <c r="J40">
-        <v>157.4483340914658</v>
+        <v>212.5036840895404</v>
       </c>
       <c r="K40">
-        <v>634.6452642133437</v>
+        <v>1237.585886516383</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>54.23935046445763</v>
+        <v>41.658759585139</v>
       </c>
       <c r="G41">
-        <v>567.0271442497585</v>
+        <v>615.222469378073</v>
       </c>
       <c r="H41">
-        <v>2268.968643782005</v>
+        <v>2929.817173817127</v>
       </c>
       <c r="I41">
-        <v>438.6207322045087</v>
+        <v>505.3037419477213</v>
       </c>
       <c r="J41">
-        <v>106.7995018076162</v>
+        <v>144.1443488367536</v>
       </c>
       <c r="K41">
-        <v>441.8178022639054</v>
+        <v>861.5639433963953</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>53.41160074505805</v>
+        <v>41.02300295712168</v>
       </c>
       <c r="G42">
-        <v>588.882872661856</v>
+        <v>638.9358583050491</v>
       </c>
       <c r="H42">
-        <v>2280.080359472034</v>
+        <v>2944.165232591953</v>
       </c>
       <c r="I42">
-        <v>521.8497683669548</v>
+        <v>601.1859935691003</v>
       </c>
       <c r="J42">
-        <v>56.1506695237664</v>
+        <v>75.78501358396655</v>
       </c>
       <c r="K42">
-        <v>238.2452811804692</v>
+        <v>464.5886673140903</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>52.62061638993315</v>
+        <v>40.4154841206388</v>
       </c>
       <c r="G43">
-        <v>610.7386010739538</v>
+        <v>662.6492472320255</v>
       </c>
       <c r="H43">
-        <v>2290.86093093048</v>
+        <v>2958.085699712146</v>
       </c>
       <c r="I43">
-        <v>607.1282429755911</v>
+        <v>699.429257426601</v>
       </c>
       <c r="J43">
-        <v>5.501837239916588</v>
+        <v>7.425678331179471</v>
       </c>
       <c r="K43">
-        <v>23.92770096303591</v>
+        <v>46.66005826946987</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>51.863754676078</v>
+        <v>39.83417332125249</v>
       </c>
       <c r="G44">
-        <v>632.5943294860512</v>
+        <v>686.3626361590016</v>
       </c>
       <c r="H44">
-        <v>2301.329525420477</v>
+        <v>2971.603325002638</v>
       </c>
       <c r="I44">
-        <v>694.5066215667064</v>
+        <v>800.0916712744463</v>
       </c>
       <c r="J44">
-        <v>-45.14699504393298</v>
+        <v>-60.93365692160729</v>
       </c>
       <c r="K44">
-        <v>-201.1349383883941</v>
+        <v>-392.221883737465</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>51.13863133505578</v>
+        <v>39.27723931163503</v>
       </c>
       <c r="G45">
-        <v>654.4500578981487</v>
+        <v>710.0760250859777</v>
       </c>
       <c r="H45">
-        <v>2311.503692749298</v>
+        <v>2984.740769740343</v>
       </c>
       <c r="I45">
-        <v>784.036612343994</v>
+        <v>903.2328044555727</v>
       </c>
       <c r="J45">
-        <v>-95.79582732778279</v>
+        <v>-129.2929921743944</v>
       </c>
       <c r="K45">
-        <v>-436.9426368738221</v>
+        <v>-852.0571587067169</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>50.44308894478822</v>
+        <v>38.74302507475149</v>
       </c>
       <c r="G46">
-        <v>676.3057863102463</v>
+        <v>733.789414012954</v>
       </c>
       <c r="H46">
-        <v>2321.399542288654</v>
+        <v>2997.518835232507</v>
       </c>
       <c r="I46">
-        <v>875.7711967780916</v>
+        <v>1008.913693153182</v>
       </c>
       <c r="J46">
-        <v>-146.4446596116326</v>
+        <v>-197.6523274271814</v>
       </c>
       <c r="K46">
-        <v>-683.4953944932479</v>
+        <v>-1332.845766638286</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>49.77516992001742</v>
+        <v>38.2300270790712</v>
       </c>
       <c r="G47">
-        <v>698.1615147223438</v>
+        <v>757.5028029399301</v>
       </c>
       <c r="H47">
-        <v>2331.031896421353</v>
+        <v>3009.956660955489</v>
       </c>
       <c r="I47">
-        <v>969.7646609596086</v>
+        <v>1117.196876510336</v>
       </c>
       <c r="J47">
-        <v>-197.0934918954824</v>
+        <v>-266.0116626799685</v>
       </c>
       <c r="K47">
-        <v>-940.7932112466707</v>
+        <v>-1834.587707532169</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>49.13309333125711</v>
+        <v>37.73687747426648</v>
       </c>
       <c r="G48">
-        <v>720.0172431344413</v>
+        <v>781.2161918669062</v>
       </c>
       <c r="H48">
-        <v>2340.414424083973</v>
+        <v>3022.071896992396</v>
       </c>
       <c r="I48">
-        <v>1066.072627724193</v>
+        <v>1228.146433638956</v>
       </c>
       <c r="J48">
-        <v>-247.7423241793317</v>
+        <v>-334.370997932755</v>
       </c>
       <c r="K48">
-        <v>-1208.836087134089</v>
+        <v>-2357.282981388365</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>48.51523492712261</v>
+        <v>37.26232874727972</v>
       </c>
       <c r="G49">
-        <v>741.8729715465389</v>
+        <v>804.9295807938826</v>
       </c>
       <c r="H49">
-        <v>2349.559757425486</v>
+        <v>3033.880854669124</v>
       </c>
       <c r="I49">
-        <v>1164.752089568653</v>
+        <v>1341.828021540149</v>
       </c>
       <c r="J49">
-        <v>-298.3911564631816</v>
+        <v>-402.7303331855421</v>
       </c>
       <c r="K49">
-        <v>-1487.624022155506</v>
+        <v>-2900.931588206879</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>47.92010984979076</v>
+        <v>36.80524044686026</v>
       </c>
       <c r="G50">
-        <v>763.7286999586364</v>
+        <v>828.6429697208587</v>
       </c>
       <c r="H50">
-        <v>2358.479594080426</v>
+        <v>3045.398638615105</v>
       </c>
       <c r="I50">
-        <v>1265.86144237759</v>
+        <v>1458.308913958266</v>
       </c>
       <c r="J50">
-        <v>-349.0399887470314</v>
+        <v>-471.0896684383291</v>
       </c>
       <c r="K50">
-        <v>-1777.157016310921</v>
+        <v>-3465.533527987711</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>47.34635762486144</v>
+        <v>36.36456765496479</v>
       </c>
       <c r="G51">
-        <v>785.5844283707339</v>
+        <v>852.3563586478349</v>
       </c>
       <c r="H51">
-        <v>2367.184787134151</v>
+        <v>3056.639262931395</v>
       </c>
       <c r="I51">
-        <v>1369.46051998055</v>
+        <v>1577.658041191722</v>
       </c>
       <c r="J51">
-        <v>-399.6888210308812</v>
+        <v>-539.4490036911162</v>
       </c>
       <c r="K51">
-        <v>-2077.435069600333</v>
+        <v>-4051.088800730858</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>46.79272908024798</v>
+        <v>35.9393509397566</v>
       </c>
       <c r="G52">
-        <v>807.4401567828315</v>
+        <v>876.0697475748111</v>
       </c>
       <c r="H52">
-        <v>2375.685424515902</v>
+        <v>3067.615753707369</v>
       </c>
       <c r="I52">
-        <v>1475.610629560079</v>
+        <v>1699.946030884119</v>
       </c>
       <c r="J52">
-        <v>-450.337653314731</v>
+        <v>-607.8083389439033</v>
       </c>
       <c r="K52">
-        <v>-2388.458182023742</v>
+        <v>-4657.59740643632</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>46.25807490784349</v>
+        <v>35.52870757034559</v>
       </c>
       <c r="G53">
-        <v>829.295885194929</v>
+        <v>899.7831365017873</v>
       </c>
       <c r="H53">
-        <v>2383.990899276367</v>
+        <v>3078.340239766972</v>
       </c>
       <c r="I53">
-        <v>1584.374587931691</v>
+        <v>1825.245249819802</v>
       </c>
       <c r="J53">
-        <v>-500.9864855985803</v>
+        <v>-676.1676741966897</v>
       </c>
       <c r="K53">
-        <v>-2710.226353581147</v>
+        <v>-5285.059345104093</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>45.74133562962543</v>
+        <v>35.13182381021298</v>
       </c>
       <c r="G54">
-        <v>851.1516136070265</v>
+        <v>923.4965254287634</v>
       </c>
       <c r="H54">
-        <v>2392.109971977505</v>
+        <v>3088.824033229897</v>
       </c>
       <c r="I54">
-        <v>1695.8167587172</v>
+        <v>1953.629846748609</v>
       </c>
       <c r="J54">
-        <v>-551.6353178824302</v>
+        <v>-744.5270094494767</v>
       </c>
       <c r="K54">
-        <v>-3042.73958427255</v>
+        <v>-5933.474616734187</v>
       </c>
     </row>
   </sheetData>

--- a/runs/run971/NotionalETEOutput971.xlsx
+++ b/runs/run971/NotionalETEOutput971.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="18">
   <si>
     <t>uniqueid</t>
   </si>
@@ -49,10 +49,22 @@
     <t>tUp</t>
   </si>
   <si>
+    <t>Missile_SOMERSAULT_State_Update</t>
+  </si>
+  <si>
     <t>Missile_HELLMASKER_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER_419.MISSILE_HELLMASKER_419</t>
+    <t>MISSILE_SOMERSAULT_250.MISSILE_SOMERSAULT_250</t>
+  </si>
+  <si>
+    <t>MISSILE_HELLMASKER_179.MISSILE_HELLMASKER_179</t>
+  </si>
+  <si>
+    <t>MISSILE_SOMERSAULT_175.MISSILE_SOMERSAULT_175</t>
+  </si>
+  <si>
+    <t>MISSILE_SOMERSAULT</t>
   </si>
   <si>
     <t>MISSILE_HELLMASKER</t>
@@ -413,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:K160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -462,31 +474,31 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>208.2464562333562</v>
+        <v>1116579.166015158</v>
       </c>
       <c r="G2">
-        <v>-143.6059762851652</v>
+        <v>4841128.432492676</v>
       </c>
       <c r="H2">
-        <v>1337.402181262413</v>
+        <v>3985223.566985722</v>
       </c>
       <c r="I2">
-        <v>-1880.679235551066</v>
+        <v>1114860.454063749</v>
       </c>
       <c r="J2">
-        <v>2810.158423695445</v>
+        <v>4843220.640684552</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984371.96394234</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -497,31 +509,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>208.2464562333562</v>
+        <v>1116579.166015158</v>
       </c>
       <c r="G3">
-        <v>-143.6059762851652</v>
+        <v>4841128.432492676</v>
       </c>
       <c r="H3">
-        <v>1337.402181262413</v>
+        <v>3985223.566985722</v>
       </c>
       <c r="I3">
-        <v>-1843.549619686507</v>
+        <v>1114890.068036217</v>
       </c>
       <c r="J3">
-        <v>2741.799088442658</v>
+        <v>4843171.989122775</v>
       </c>
       <c r="K3">
-        <v>420.2047094480097</v>
+        <v>3984675.760059572</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -532,31 +544,31 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>208.2464562333562</v>
+        <v>1116579.166015158</v>
       </c>
       <c r="G4">
-        <v>-143.6059762851652</v>
+        <v>4841128.432492676</v>
       </c>
       <c r="H4">
-        <v>1337.402181262413</v>
+        <v>3985223.566985722</v>
       </c>
       <c r="I4">
-        <v>-1805.505721189903</v>
+        <v>1114920.411225512</v>
       </c>
       <c r="J4">
-        <v>2673.439753189871</v>
+        <v>4843123.337560998</v>
       </c>
       <c r="K4">
-        <v>819.456085933702</v>
+        <v>3984964.407509848</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -567,31 +579,31 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>208.2464562333562</v>
+        <v>1116579.166015158</v>
       </c>
       <c r="G5">
-        <v>-143.6059762851652</v>
+        <v>4841128.432492676</v>
       </c>
       <c r="H5">
-        <v>1337.402181262413</v>
+        <v>3985223.566985722</v>
       </c>
       <c r="I5">
-        <v>-1766.525026692566</v>
+        <v>1114951.501587929</v>
       </c>
       <c r="J5">
-        <v>2605.080417937084</v>
+        <v>4843074.685999222</v>
       </c>
       <c r="K5">
-        <v>1197.75412945708</v>
+        <v>3985237.906293167</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -602,31 +614,31 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>208.2464562333562</v>
+        <v>1116579.166015158</v>
       </c>
       <c r="G6">
-        <v>-143.6059762851652</v>
+        <v>4841128.432492676</v>
       </c>
       <c r="H6">
-        <v>1337.402181262413</v>
+        <v>3985223.566985722</v>
       </c>
       <c r="I6">
-        <v>-1726.584468454813</v>
+        <v>1114983.357521917</v>
       </c>
       <c r="J6">
-        <v>2536.721082684297</v>
+        <v>4843026.034437445</v>
       </c>
       <c r="K6">
-        <v>1555.098840018141</v>
+        <v>3985496.25640953</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -637,31 +649,31 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>208.2464562333562</v>
+        <v>1116579.166015158</v>
       </c>
       <c r="G7">
-        <v>-143.6059762851652</v>
+        <v>4841128.432492676</v>
       </c>
       <c r="H7">
-        <v>1337.402181262413</v>
+        <v>3985223.566985722</v>
       </c>
       <c r="I7">
-        <v>-1685.660410715094</v>
+        <v>1115015.997878974</v>
       </c>
       <c r="J7">
-        <v>2468.36174743151</v>
+        <v>4842977.382875669</v>
       </c>
       <c r="K7">
-        <v>1891.490217616888</v>
+        <v>3985739.457858936</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -672,31 +684,31 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>208.2464562333562</v>
+        <v>1116579.166015158</v>
       </c>
       <c r="G8">
-        <v>-143.6059762851652</v>
+        <v>4841128.432492676</v>
       </c>
       <c r="H8">
-        <v>1337.402181262413</v>
+        <v>3985223.566985722</v>
       </c>
       <c r="I8">
-        <v>-1643.728635702978</v>
+        <v>1115049.441974794</v>
       </c>
       <c r="J8">
-        <v>2400.002412178723</v>
+        <v>4842928.731313891</v>
       </c>
       <c r="K8">
-        <v>2206.928262253318</v>
+        <v>3985967.510641385</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -707,31 +719,31 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>208.2464562333562</v>
+        <v>1116579.166015158</v>
       </c>
       <c r="G9">
-        <v>-143.6059762851652</v>
+        <v>4841128.432492676</v>
       </c>
       <c r="H9">
-        <v>1337.402181262413</v>
+        <v>3985223.566985722</v>
       </c>
       <c r="I9">
-        <v>-1600.764329307715</v>
+        <v>1115083.709600705</v>
       </c>
       <c r="J9">
-        <v>2331.643076925936</v>
+        <v>4842880.079752115</v>
       </c>
       <c r="K9">
-        <v>2501.412973927433</v>
+        <v>3986180.414756878</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -742,31 +754,31 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>208.2464562333562</v>
+        <v>1116579.166015158</v>
       </c>
       <c r="G10">
-        <v>-119.892587358189</v>
+        <v>4841144.945325085</v>
       </c>
       <c r="H10">
-        <v>1337.402181262413</v>
+        <v>3985223.566985722</v>
       </c>
       <c r="I10">
-        <v>-1556.742066393905</v>
+        <v>1115118.821035379</v>
       </c>
       <c r="J10">
-        <v>2263.283741673149</v>
+        <v>4842831.428190338</v>
       </c>
       <c r="K10">
-        <v>2774.944352639232</v>
+        <v>3986378.170205414</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -777,31 +789,31 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>161.6235433311959</v>
+        <v>1116530.485422519</v>
       </c>
       <c r="G11">
-        <v>-96.17919843121285</v>
+        <v>4841161.458157492</v>
       </c>
       <c r="H11">
-        <v>1647.670487861367</v>
+        <v>3985422.821154437</v>
       </c>
       <c r="I11">
-        <v>-1511.635795755582</v>
+        <v>1115154.79705683</v>
       </c>
       <c r="J11">
-        <v>2194.924406420363</v>
+        <v>4842782.776628561</v>
       </c>
       <c r="K11">
-        <v>3027.522398388714</v>
+        <v>3986560.776986994</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -812,31 +824,31 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>134.2349208589634</v>
+        <v>1116501.888016426</v>
       </c>
       <c r="G12">
-        <v>-72.46580950423667</v>
+        <v>4841177.970989901</v>
       </c>
       <c r="H12">
-        <v>1832.482158995309</v>
+        <v>3985541.507127568</v>
       </c>
       <c r="I12">
-        <v>-1465.418824699799</v>
+        <v>1115191.658954713</v>
       </c>
       <c r="J12">
-        <v>2126.565071167575</v>
+        <v>4842734.125066784</v>
       </c>
       <c r="K12">
-        <v>3259.147111175881</v>
+        <v>3986728.235101617</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -847,31 +859,31 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>116.9452130234831</v>
+        <v>1116483.835235688</v>
       </c>
       <c r="G13">
-        <v>-48.75242057726047</v>
+        <v>4841194.483822309</v>
       </c>
       <c r="H13">
-        <v>1964.554569411404</v>
+        <v>3985626.323970886</v>
       </c>
       <c r="I13">
-        <v>-1418.063803250599</v>
+        <v>1115229.428542918</v>
       </c>
       <c r="J13">
-        <v>2058.205735914788</v>
+        <v>4842685.473505008</v>
       </c>
       <c r="K13">
-        <v>3469.818491000734</v>
+        <v>3986880.544549283</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -882,31 +894,31 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>104.8874409620636</v>
+        <v>1116471.245299682</v>
       </c>
       <c r="G14">
-        <v>-25.03903165028427</v>
+        <v>4841210.996654716</v>
       </c>
       <c r="H14">
-        <v>2067.399284644572</v>
+        <v>3985692.370801338</v>
       </c>
       <c r="I14">
-        <v>-1369.542707964035</v>
+        <v>1115268.128172484</v>
       </c>
       <c r="J14">
-        <v>1989.846400662001</v>
+        <v>4842636.821943231</v>
       </c>
       <c r="K14">
-        <v>3659.53653786327</v>
+        <v>3987017.705329992</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -917,31 +929,31 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>95.89198191517053</v>
+        <v>1116461.852830396</v>
       </c>
       <c r="G15">
-        <v>-1.325642723308092</v>
+        <v>4841227.509487125</v>
       </c>
       <c r="H15">
-        <v>2151.6370837838</v>
+        <v>3985746.468278537</v>
       </c>
       <c r="I15">
-        <v>-1319.826825344628</v>
+        <v>1115307.780744827</v>
       </c>
       <c r="J15">
-        <v>1921.487065409214</v>
+        <v>4842588.170381455</v>
       </c>
       <c r="K15">
-        <v>3828.301251763489</v>
+        <v>3987139.717443746</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -952,31 +964,31 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>88.85878911911441</v>
+        <v>1116454.509231034</v>
       </c>
       <c r="G16">
-        <v>22.38774620366811</v>
+        <v>4841244.022319533</v>
       </c>
       <c r="H16">
-        <v>2222.98035059342</v>
+        <v>3985792.2848928</v>
       </c>
       <c r="I16">
-        <v>-1268.886734853492</v>
+        <v>1115348.409725283</v>
       </c>
       <c r="J16">
-        <v>1853.127730156427</v>
+        <v>4842539.518819678</v>
       </c>
       <c r="K16">
-        <v>3976.112632701394</v>
+        <v>3987246.580890542</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -987,31 +999,31 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>83.16842404354563</v>
+        <v>1116448.567724445</v>
       </c>
       <c r="G17">
-        <v>46.10113513064431</v>
+        <v>4841260.535151941</v>
       </c>
       <c r="H17">
-        <v>2284.857641005458</v>
+        <v>3985832.022461224</v>
       </c>
       <c r="I17">
-        <v>-1216.692291498035</v>
+        <v>1115390.039157005</v>
       </c>
       <c r="J17">
-        <v>1784.768394903641</v>
+        <v>4842490.867257901</v>
       </c>
       <c r="K17">
-        <v>4102.970680676983</v>
+        <v>3987338.295670382</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1022,31 +1034,31 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>78.4433934401592</v>
+        <v>1116443.634156898</v>
       </c>
       <c r="G18">
-        <v>69.81452405762049</v>
+        <v>4841277.04798435</v>
       </c>
       <c r="H18">
-        <v>2339.48916545255</v>
+        <v>3985867.106801963</v>
       </c>
       <c r="I18">
-        <v>-1163.212607992957</v>
+        <v>1115432.693675185</v>
       </c>
       <c r="J18">
-        <v>1716.409059650854</v>
+        <v>4842442.215696124</v>
       </c>
       <c r="K18">
-        <v>4208.875395690256</v>
+        <v>3987414.861783265</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1057,31 +1069,31 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>74.4392855181692</v>
+        <v>1116439.453329607</v>
       </c>
       <c r="G19">
-        <v>93.52791298459671</v>
+        <v>4841293.560816756</v>
       </c>
       <c r="H19">
-        <v>2388.395373273107</v>
+        <v>3985898.514346908</v>
       </c>
       <c r="I19">
-        <v>-1108.416036481974</v>
+        <v>1115476.398521634</v>
       </c>
       <c r="J19">
-        <v>1648.049724398066</v>
+        <v>4842393.564134348</v>
       </c>
       <c r="K19">
-        <v>4293.826777741213</v>
+        <v>3987476.279229192</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1092,31 +1104,31 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>70.99013718561038</v>
+        <v>1116435.85195478</v>
       </c>
       <c r="G20">
-        <v>117.2413019115729</v>
+        <v>4841310.073649165</v>
       </c>
       <c r="H20">
-        <v>2432.663258757808</v>
+        <v>3985926.943163307</v>
       </c>
       <c r="I20">
-        <v>-1052.270149809453</v>
+        <v>1115521.179559719</v>
       </c>
       <c r="J20">
-        <v>1579.69038914528</v>
+        <v>4842344.91257257</v>
       </c>
       <c r="K20">
-        <v>4357.824826829855</v>
+        <v>3987522.548008162</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1127,31 +1139,31 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>67.97885246781</v>
+        <v>1116432.707768466</v>
       </c>
       <c r="G21">
-        <v>140.9546908385491</v>
+        <v>4841326.586481574</v>
       </c>
       <c r="H21">
-        <v>2473.096917545781</v>
+        <v>3985952.909641026</v>
       </c>
       <c r="I21">
-        <v>-994.7417223308913</v>
+        <v>1115567.063289669</v>
       </c>
       <c r="J21">
-        <v>1511.331053892493</v>
+        <v>4842296.261010794</v>
       </c>
       <c r="K21">
-        <v>4400.86954295618</v>
+        <v>3987553.668120175</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1162,31 +1174,31 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>65.32017267238858</v>
+        <v>1116429.931749122</v>
       </c>
       <c r="G22">
-        <v>164.6680797655253</v>
+        <v>4841343.099313981</v>
       </c>
       <c r="H22">
-        <v>2510.307926356978</v>
+        <v>3985976.806534359</v>
       </c>
       <c r="I22">
-        <v>-935.796710250852</v>
+        <v>1115614.076864256</v>
       </c>
       <c r="J22">
-        <v>1442.971718639706</v>
+        <v>4842247.609449018</v>
       </c>
       <c r="K22">
-        <v>4422.96092612019</v>
+        <v>3987569.639565232</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1197,31 +1209,31 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>62.95036661559158</v>
+        <v>1116427.45735282</v>
       </c>
       <c r="G23">
-        <v>188.3814686925015</v>
+        <v>4841359.61214639</v>
       </c>
       <c r="H23">
-        <v>2544.772284328176</v>
+        <v>3985998.939529744</v>
       </c>
       <c r="I23">
-        <v>-875.4002314767586</v>
+        <v>1115662.248104866</v>
       </c>
       <c r="J23">
-        <v>1374.612383386919</v>
+        <v>4842198.957887241</v>
       </c>
       <c r="K23">
-        <v>4424.098976321885</v>
+        <v>3987570.462343332</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1232,31 +1244,31 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>60.82072161246037</v>
+        <v>1116425.233716963</v>
       </c>
       <c r="G24">
-        <v>212.0948576194777</v>
+        <v>4841376.124978798</v>
       </c>
       <c r="H24">
-        <v>2576.867744214037</v>
+        <v>3986019.551219829</v>
       </c>
       <c r="I24">
-        <v>-813.516544976595</v>
+        <v>1115711.60551796</v>
       </c>
       <c r="J24">
-        <v>1306.253048134132</v>
+        <v>4842150.306325464</v>
       </c>
       <c r="K24">
-        <v>4404.283693561263</v>
+        <v>3987556.136454475</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1267,31 +1279,31 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>58.89328547611027</v>
+        <v>1116423.221214364</v>
       </c>
       <c r="G25">
-        <v>235.8082465464539</v>
+        <v>4841392.637811205</v>
       </c>
       <c r="H25">
-        <v>2606.899118087175</v>
+        <v>3986038.837354795</v>
       </c>
       <c r="I25">
-        <v>-750.1090296283119</v>
+        <v>1115762.178311943</v>
       </c>
       <c r="J25">
-        <v>1237.893712881345</v>
+        <v>4842101.654763686</v>
       </c>
       <c r="K25">
-        <v>4363.515077838327</v>
+        <v>3987526.661898662</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1302,31 +1314,31 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>57.13799498021155</v>
+        <v>1116421.38845497</v>
       </c>
       <c r="G26">
-        <v>259.5216354734301</v>
+        <v>4841409.150643614</v>
       </c>
       <c r="H26">
-        <v>2635.115926025286</v>
+        <v>3986056.958176322</v>
       </c>
       <c r="I26">
-        <v>-685.1401625484222</v>
+        <v>1115813.996414451</v>
       </c>
       <c r="J26">
-        <v>1169.534377628558</v>
+        <v>4842053.00320191</v>
       </c>
       <c r="K26">
-        <v>4301.793129153074</v>
+        <v>3987482.038675892</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1337,31 +1349,31 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>55.53068759543731</v>
+        <v>1116419.71020985</v>
       </c>
       <c r="G27">
-        <v>283.2350244004062</v>
+        <v>4841425.663476021</v>
       </c>
       <c r="H27">
-        <v>2661.725010077057</v>
+        <v>3986074.046518283</v>
       </c>
       <c r="I27">
-        <v>-618.571496886952</v>
+        <v>1115867.090490062</v>
       </c>
       <c r="J27">
-        <v>1101.175042375771</v>
+        <v>4842004.351640133</v>
       </c>
       <c r="K27">
-        <v>4219.117847505505</v>
+        <v>3987422.266786166</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1372,31 +1384,31 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>54.05169269390095</v>
+        <v>1116418.165940223</v>
       </c>
       <c r="G28">
-        <v>306.9484133273825</v>
+        <v>4841442.17630843</v>
       </c>
       <c r="H28">
-        <v>2686.899744404232</v>
+        <v>3986090.213721489</v>
       </c>
       <c r="I28">
-        <v>-550.3636390756179</v>
+        <v>1115921.49195844</v>
       </c>
       <c r="J28">
-        <v>1032.815707122984</v>
+        <v>4841955.700078356</v>
       </c>
       <c r="K28">
-        <v>4115.489232895621</v>
+        <v>3987347.346229483</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1407,31 +1419,31 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>52.68481283074266</v>
+        <v>1116416.738733778</v>
       </c>
       <c r="G29">
-        <v>330.6618022543587</v>
+        <v>4841458.689140839</v>
       </c>
       <c r="H29">
-        <v>2710.786887595762</v>
+        <v>3986105.554034239</v>
       </c>
       <c r="I29">
-        <v>-480.4762255157574</v>
+        <v>1115977.233012927</v>
       </c>
       <c r="J29">
-        <v>964.456371870197</v>
+        <v>4841907.04851658</v>
       </c>
       <c r="K29">
-        <v>3990.907285323421</v>
+        <v>3987257.277005843</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1442,31 +1454,31 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>51.41657366414441</v>
+        <v>1116415.414521488</v>
       </c>
       <c r="G30">
-        <v>354.3751911813348</v>
+        <v>4841475.201973245</v>
       </c>
       <c r="H30">
-        <v>2733.511766343686</v>
+        <v>3986120.147941279</v>
       </c>
       <c r="I30">
-        <v>-408.8678986922272</v>
+        <v>1116034.346639601</v>
       </c>
       <c r="J30">
-        <v>896.0970366174099</v>
+        <v>4841858.396954804</v>
       </c>
       <c r="K30">
-        <v>3845.372004788905</v>
+        <v>3987152.059115247</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1477,31 +1489,31 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>50.23566267573212</v>
+        <v>1116414.181491564</v>
       </c>
       <c r="G31">
-        <v>378.088580108311</v>
+        <v>4841491.714805654</v>
       </c>
       <c r="H31">
-        <v>2755.182255524136</v>
+        <v>3986134.064719807</v>
       </c>
       <c r="I31">
-        <v>-335.4962826991203</v>
+        <v>1116092.866636788</v>
       </c>
       <c r="J31">
-        <v>827.7377013646231</v>
+        <v>4841809.745393026</v>
       </c>
       <c r="K31">
-        <v>3678.883391292075</v>
+        <v>3987031.692557694</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1512,31 +1524,31 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>49.13250301817363</v>
+        <v>1116413.029644488</v>
       </c>
       <c r="G32">
-        <v>401.8019690352872</v>
+        <v>4841508.227638063</v>
       </c>
       <c r="H32">
-        <v>2775.891875208137</v>
+        <v>3986147.364428372</v>
       </c>
       <c r="I32">
-        <v>-260.3179581628324</v>
+        <v>1116152.827635068</v>
       </c>
       <c r="J32">
-        <v>759.378366111836</v>
+        <v>4841761.09383125</v>
       </c>
       <c r="K32">
-        <v>3491.441444832926</v>
+        <v>3986896.177333185</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1547,31 +1559,31 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>48.09892567566005</v>
+        <v>1116411.950450709</v>
       </c>
       <c r="G33">
-        <v>425.5153579622634</v>
+        <v>4841524.74047047</v>
       </c>
       <c r="H33">
-        <v>2795.72222976082</v>
+        <v>3986160.099473259</v>
       </c>
       <c r="I33">
-        <v>-183.2884365476282</v>
+        <v>1116214.265117768</v>
       </c>
       <c r="J33">
-        <v>691.0190308590493</v>
+        <v>4841712.442269473</v>
       </c>
       <c r="K33">
-        <v>3283.046165411464</v>
+        <v>3986745.513441719</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1582,31 +1594,31 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>47.12791422459403</v>
+        <v>1116410.936584136</v>
       </c>
       <c r="G34">
-        <v>449.2287468892396</v>
+        <v>4841541.253302879</v>
       </c>
       <c r="H34">
-        <v>2814.744949931555</v>
+        <v>3986172.315855705</v>
       </c>
       <c r="I34">
-        <v>-104.36213382851</v>
+        <v>1116277.215441957</v>
       </c>
       <c r="J34">
-        <v>622.6596956062622</v>
+        <v>4841663.790707696</v>
       </c>
       <c r="K34">
-        <v>3053.697553027685</v>
+        <v>3986579.700883296</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1617,31 +1629,31 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>46.21340393769189</v>
+        <v>1116409.98171238</v>
       </c>
       <c r="G35">
-        <v>472.9421358162158</v>
+        <v>4841557.766135286</v>
       </c>
       <c r="H35">
-        <v>2833.023254720213</v>
+        <v>3986184.054174923</v>
       </c>
       <c r="I35">
-        <v>-23.49234351580088</v>
+        <v>1116341.715859967</v>
       </c>
       <c r="J35">
-        <v>554.3003603534752</v>
+        <v>4841615.139145919</v>
       </c>
       <c r="K35">
-        <v>2803.395607681591</v>
+        <v>3986398.739657917</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1652,31 +1664,31 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>45.35012207257031</v>
+        <v>1116409.080329987</v>
       </c>
       <c r="G36">
-        <v>496.655524743192</v>
+        <v>4841574.278967694</v>
       </c>
       <c r="H36">
-        <v>2850.613218992328</v>
+        <v>3986195.350442167</v>
       </c>
       <c r="I36">
-        <v>59.36879098451601</v>
+        <v>1116407.804541431</v>
       </c>
       <c r="J36">
-        <v>485.9410251006884</v>
+        <v>4841566.487584143</v>
       </c>
       <c r="K36">
-        <v>2532.140329373181</v>
+        <v>3986202.629765581</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1687,31 +1699,31 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>44.5334597290201</v>
+        <v>1116408.227624645</v>
       </c>
       <c r="G37">
-        <v>520.3689136701681</v>
+        <v>4841590.791800103</v>
       </c>
       <c r="H37">
-        <v>2867.564810957918</v>
+        <v>3986206.236747</v>
       </c>
       <c r="I37">
-        <v>144.2703046910571</v>
+        <v>1116475.520595875</v>
       </c>
       <c r="J37">
-        <v>417.5816898479013</v>
+        <v>4841517.836022366</v>
       </c>
       <c r="K37">
-        <v>2239.931718102455</v>
+        <v>3985991.371206288</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1722,31 +1734,31 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>43.75936815893409</v>
+        <v>1116407.419368918</v>
       </c>
       <c r="G38">
-        <v>544.0823025971443</v>
+        <v>4841607.30463251</v>
       </c>
       <c r="H38">
-        <v>2883.922747899862</v>
+        <v>3986216.74180684</v>
       </c>
       <c r="I38">
-        <v>231.2624400646622</v>
+        <v>1116544.904095863</v>
       </c>
       <c r="J38">
-        <v>349.2223545951146</v>
+        <v>4841469.18446059</v>
       </c>
       <c r="K38">
-        <v>1926.769773869415</v>
+        <v>3985764.963980039</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1757,31 +1769,31 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>43.02427420105207</v>
+        <v>1116406.651831943</v>
       </c>
       <c r="G39">
-        <v>567.7956915241206</v>
+        <v>4841623.817464919</v>
       </c>
       <c r="H39">
-        <v>2899.727207069842</v>
+        <v>3986226.891423501</v>
       </c>
       <c r="I39">
-        <v>320.3966767405444</v>
+        <v>1116615.996100706</v>
       </c>
       <c r="J39">
-        <v>280.8630193423274</v>
+        <v>4841420.532898812</v>
       </c>
       <c r="K39">
-        <v>1592.654496674056</v>
+        <v>3985523.408086833</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1792,31 +1804,31 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>42.32501080827424</v>
+        <v>1116405.921706898</v>
       </c>
       <c r="G40">
-        <v>591.5090804510968</v>
+        <v>4841640.330297328</v>
       </c>
       <c r="H40">
-        <v>2915.014420206834</v>
+        <v>3986236.708864989</v>
       </c>
       <c r="I40">
-        <v>411.7257619925768</v>
+        <v>1116688.838680765</v>
       </c>
       <c r="J40">
-        <v>212.5036840895404</v>
+        <v>4841371.881337035</v>
       </c>
       <c r="K40">
-        <v>1237.585886516383</v>
+        <v>3985266.703526671</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1827,31 +1839,31 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>41.658759585139</v>
+        <v>1116405.226050999</v>
       </c>
       <c r="G41">
-        <v>615.222469378073</v>
+        <v>4841656.843129735</v>
       </c>
       <c r="H41">
-        <v>2929.817173817127</v>
+        <v>3986246.215186783</v>
       </c>
       <c r="I41">
-        <v>505.3037419477213</v>
+        <v>1116763.474942344</v>
       </c>
       <c r="J41">
-        <v>144.1443488367536</v>
+        <v>4841323.229775259</v>
       </c>
       <c r="K41">
-        <v>861.5639433963953</v>
+        <v>3984994.850299552</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1862,31 +1874,31 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>41.02300295712168</v>
+        <v>1116404.56223556</v>
       </c>
       <c r="G42">
-        <v>638.9358583050491</v>
+        <v>4841673.355962143</v>
       </c>
       <c r="H42">
-        <v>2944.165232591953</v>
+        <v>3986255.429503757</v>
       </c>
       <c r="I42">
-        <v>601.1859935691003</v>
+        <v>1116839.9490532</v>
       </c>
       <c r="J42">
-        <v>75.78501358396655</v>
+        <v>4841274.578213482</v>
       </c>
       <c r="K42">
-        <v>464.5886673140903</v>
+        <v>3984707.848405476</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1897,31 +1909,31 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>40.4154841206388</v>
+        <v>1116403.927904173</v>
       </c>
       <c r="G43">
-        <v>662.6492472320255</v>
+        <v>4841689.868794551</v>
       </c>
       <c r="H43">
-        <v>2958.085699712146</v>
+        <v>3986264.36922156</v>
       </c>
       <c r="I43">
-        <v>699.429257426601</v>
+        <v>1116918.306268681</v>
       </c>
       <c r="J43">
-        <v>7.425678331179471</v>
+        <v>4841225.926651705</v>
       </c>
       <c r="K43">
-        <v>46.66005826946987</v>
+        <v>3984405.697844444</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1932,31 +1944,31 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>39.83417332125249</v>
+        <v>1116403.320937502</v>
       </c>
       <c r="G44">
-        <v>686.3626361590016</v>
+        <v>4841706.381626959</v>
       </c>
       <c r="H44">
-        <v>2971.603325002638</v>
+        <v>3986273.050234518</v>
       </c>
       <c r="I44">
-        <v>800.0916712744463</v>
+        <v>1116998.592958506</v>
       </c>
       <c r="J44">
-        <v>-60.93365692160729</v>
+        <v>4841177.275089929</v>
       </c>
       <c r="K44">
-        <v>-392.221883737465</v>
+        <v>3984088.398616455</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1967,31 +1979,31 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>39.27723931163503</v>
+        <v>1116402.739423479</v>
       </c>
       <c r="G45">
-        <v>710.0760250859777</v>
+        <v>4841722.894459368</v>
       </c>
       <c r="H45">
-        <v>2984.740769740343</v>
+        <v>3986281.487095695</v>
       </c>
       <c r="I45">
-        <v>903.2328044555727</v>
+        <v>1117080.856634206</v>
       </c>
       <c r="J45">
-        <v>-129.2929921743944</v>
+        <v>4841128.623528152</v>
       </c>
       <c r="K45">
-        <v>-852.0571587067169</v>
+        <v>3983755.950721509</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2002,31 +2014,31 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>38.74302507475149</v>
+        <v>1116402.181631955</v>
       </c>
       <c r="G46">
-        <v>733.789414012954</v>
+        <v>4841739.407291775</v>
       </c>
       <c r="H46">
-        <v>2997.518835232507</v>
+        <v>3986289.693163679</v>
       </c>
       <c r="I46">
-        <v>1008.913693153182</v>
+        <v>1117165.145977238</v>
       </c>
       <c r="J46">
-        <v>-197.6523274271814</v>
+        <v>4841079.971966375</v>
       </c>
       <c r="K46">
-        <v>-1332.845766638286</v>
+        <v>3983408.354159607</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2037,31 +2049,31 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>38.2300270790712</v>
+        <v>1116401.64599304</v>
       </c>
       <c r="G47">
-        <v>757.5028029399301</v>
+        <v>4841755.920124183</v>
       </c>
       <c r="H47">
-        <v>3009.956660955489</v>
+        <v>3986297.680729835</v>
       </c>
       <c r="I47">
-        <v>1117.196876510336</v>
+        <v>1117251.510867798</v>
       </c>
       <c r="J47">
-        <v>-266.0116626799685</v>
+        <v>4841031.320404598</v>
       </c>
       <c r="K47">
-        <v>-1834.587707532169</v>
+        <v>3983045.608930748</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2072,31 +2084,31 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>37.73687747426648</v>
+        <v>1116401.131078516</v>
       </c>
       <c r="G48">
-        <v>781.2161918669062</v>
+        <v>4841772.432956592</v>
       </c>
       <c r="H48">
-        <v>3022.071896992396</v>
+        <v>3986305.461129038</v>
       </c>
       <c r="I48">
-        <v>1228.146433638956</v>
+        <v>1117340.002414334</v>
       </c>
       <c r="J48">
-        <v>-334.370997932755</v>
+        <v>4840982.668842821</v>
       </c>
       <c r="K48">
-        <v>-2357.282981388365</v>
+        <v>3982667.715034933</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2107,31 +2119,31 @@
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>37.26232874727972</v>
+        <v>1116400.63558581</v>
       </c>
       <c r="G49">
-        <v>804.9295807938826</v>
+        <v>4841788.945788999</v>
       </c>
       <c r="H49">
-        <v>3033.880854669124</v>
+        <v>3986313.044836414</v>
       </c>
       <c r="I49">
-        <v>1341.828021540149</v>
+        <v>1117430.672983792</v>
       </c>
       <c r="J49">
-        <v>-402.7303331855421</v>
+        <v>4840934.017281045</v>
       </c>
       <c r="K49">
-        <v>-2900.931588206879</v>
+        <v>3982274.672472161</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2142,31 +2154,31 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>36.80524044686026</v>
+        <v>1116400.158324138</v>
       </c>
       <c r="G50">
-        <v>828.6429697208587</v>
+        <v>4841805.458621408</v>
       </c>
       <c r="H50">
-        <v>3045.398638615105</v>
+        <v>3986320.44155215</v>
       </c>
       <c r="I50">
-        <v>1458.308913958266</v>
+        <v>1117523.576232608</v>
       </c>
       <c r="J50">
-        <v>-471.0896684383291</v>
+        <v>4840885.365719268</v>
       </c>
       <c r="K50">
-        <v>-3465.533527987711</v>
+        <v>3981866.481242432</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2177,31 +2189,31 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>36.36456765496479</v>
+        <v>1116399.698202466</v>
       </c>
       <c r="G51">
-        <v>852.3563586478349</v>
+        <v>4841821.971453816</v>
       </c>
       <c r="H51">
-        <v>3056.639262931395</v>
+        <v>3986327.660276094</v>
       </c>
       <c r="I51">
-        <v>1577.658041191722</v>
+        <v>1117618.767138457</v>
       </c>
       <c r="J51">
-        <v>-539.4490036911162</v>
+        <v>4840836.714157491</v>
       </c>
       <c r="K51">
-        <v>-4051.088800730858</v>
+        <v>3981443.141345747</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2212,31 +2224,31 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>35.9393509397566</v>
+        <v>1116399.254219016</v>
       </c>
       <c r="G52">
-        <v>876.0697475748111</v>
+        <v>4841838.484286224</v>
       </c>
       <c r="H52">
-        <v>3067.615753707369</v>
+        <v>3986334.709373596</v>
       </c>
       <c r="I52">
-        <v>1699.946030884119</v>
+        <v>1117716.302032787</v>
       </c>
       <c r="J52">
-        <v>-607.8083389439033</v>
+        <v>4840788.062595715</v>
       </c>
       <c r="K52">
-        <v>-4657.59740643632</v>
+        <v>3981004.652782105</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2247,31 +2259,31 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>35.52870757034559</v>
+        <v>1116398.8254521</v>
       </c>
       <c r="G53">
-        <v>899.7831365017873</v>
+        <v>4841854.997118632</v>
       </c>
       <c r="H53">
-        <v>3078.340239766972</v>
+        <v>3986341.59663378</v>
       </c>
       <c r="I53">
-        <v>1825.245249819802</v>
+        <v>1117816.238634161</v>
       </c>
       <c r="J53">
-        <v>-676.1676741966897</v>
+        <v>4840739.411033938</v>
       </c>
       <c r="K53">
-        <v>-5285.059345104093</v>
+        <v>3980551.015551507</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2282,31 +2294,3741 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>35.13182381021298</v>
+        <v>1116398.411052067</v>
       </c>
       <c r="G54">
-        <v>923.4965254287634</v>
+        <v>4841871.50995104</v>
       </c>
       <c r="H54">
-        <v>3088.824033229897</v>
+        <v>3986348.329321287</v>
       </c>
       <c r="I54">
-        <v>1953.629846748609</v>
+        <v>1117918.636082403</v>
       </c>
       <c r="J54">
-        <v>-744.5270094494767</v>
+        <v>4840690.759472161</v>
       </c>
       <c r="K54">
-        <v>-5933.474616734187</v>
+        <v>3980082.229653952</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55">
+        <v>971</v>
+      </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55">
+        <v>152.142</v>
+      </c>
+      <c r="F55">
+        <v>1116578.61753844</v>
+      </c>
+      <c r="G55">
+        <v>4841122.496739143</v>
+      </c>
+      <c r="H55">
+        <v>3985225.45856016</v>
+      </c>
+      <c r="I55">
+        <v>1114861.557222089</v>
+      </c>
+      <c r="J55">
+        <v>4843234.177696627</v>
+      </c>
+      <c r="K55">
+        <v>3984365.252020544</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56">
+        <v>971</v>
+      </c>
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56">
+        <v>153.142</v>
+      </c>
+      <c r="F56">
+        <v>1116578.61753844</v>
+      </c>
+      <c r="G56">
+        <v>4841122.496739143</v>
+      </c>
+      <c r="H56">
+        <v>3985225.45856016</v>
+      </c>
+      <c r="I56">
+        <v>1114891.17122386</v>
+      </c>
+      <c r="J56">
+        <v>4843185.525998867</v>
+      </c>
+      <c r="K56">
+        <v>3984669.047626013</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57">
+        <v>971</v>
+      </c>
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57">
+        <v>154.142</v>
+      </c>
+      <c r="F57">
+        <v>1116578.61753844</v>
+      </c>
+      <c r="G57">
+        <v>4841122.496739143</v>
+      </c>
+      <c r="H57">
+        <v>3985225.45856016</v>
+      </c>
+      <c r="I57">
+        <v>1114921.51444318</v>
+      </c>
+      <c r="J57">
+        <v>4843136.874301107</v>
+      </c>
+      <c r="K57">
+        <v>3984957.694590045</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58">
+        <v>971</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58">
+        <v>155.142</v>
+      </c>
+      <c r="F58">
+        <v>1116578.61753844</v>
+      </c>
+      <c r="G58">
+        <v>4841122.496739143</v>
+      </c>
+      <c r="H58">
+        <v>3985225.45856016</v>
+      </c>
+      <c r="I58">
+        <v>1114952.604836361</v>
+      </c>
+      <c r="J58">
+        <v>4843088.222603346</v>
+      </c>
+      <c r="K58">
+        <v>3985231.192912638</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59">
+        <v>971</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59">
+        <v>156.142</v>
+      </c>
+      <c r="F59">
+        <v>1116578.61753844</v>
+      </c>
+      <c r="G59">
+        <v>4841122.496739143</v>
+      </c>
+      <c r="H59">
+        <v>3985225.45856016</v>
+      </c>
+      <c r="I59">
+        <v>1114984.460801871</v>
+      </c>
+      <c r="J59">
+        <v>4843039.570905587</v>
+      </c>
+      <c r="K59">
+        <v>3985489.542593794</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60">
+        <v>971</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60">
+        <v>157.142</v>
+      </c>
+      <c r="F60">
+        <v>1116578.61753844</v>
+      </c>
+      <c r="G60">
+        <v>4841122.496739143</v>
+      </c>
+      <c r="H60">
+        <v>3985225.45856016</v>
+      </c>
+      <c r="I60">
+        <v>1115017.101191225</v>
+      </c>
+      <c r="J60">
+        <v>4842990.919207827</v>
+      </c>
+      <c r="K60">
+        <v>3985732.743633512</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61">
+        <v>971</v>
+      </c>
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61">
+        <v>158.142</v>
+      </c>
+      <c r="F61">
+        <v>1116578.61753844</v>
+      </c>
+      <c r="G61">
+        <v>4841122.496739143</v>
+      </c>
+      <c r="H61">
+        <v>3985225.45856016</v>
+      </c>
+      <c r="I61">
+        <v>1115050.545320138</v>
+      </c>
+      <c r="J61">
+        <v>4842942.267510067</v>
+      </c>
+      <c r="K61">
+        <v>3985960.796031793</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62">
+        <v>971</v>
+      </c>
+      <c r="B62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62">
+        <v>159.142</v>
+      </c>
+      <c r="F62">
+        <v>1116578.61753844</v>
+      </c>
+      <c r="G62">
+        <v>4841122.496739143</v>
+      </c>
+      <c r="H62">
+        <v>3985225.45856016</v>
+      </c>
+      <c r="I62">
+        <v>1115084.812979958</v>
+      </c>
+      <c r="J62">
+        <v>4842893.615812307</v>
+      </c>
+      <c r="K62">
+        <v>3986173.699788635</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63">
+        <v>971</v>
+      </c>
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63">
+        <v>160.142</v>
+      </c>
+      <c r="F63">
+        <v>1116578.61753844</v>
+      </c>
+      <c r="G63">
+        <v>4841139.009551304</v>
+      </c>
+      <c r="H63">
+        <v>3985225.45856016</v>
+      </c>
+      <c r="I63">
+        <v>1115119.924449375</v>
+      </c>
+      <c r="J63">
+        <v>4842844.964114547</v>
+      </c>
+      <c r="K63">
+        <v>3986371.45490404</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64">
+        <v>971</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64">
+        <v>161.142</v>
+      </c>
+      <c r="F64">
+        <v>1116529.936969713</v>
+      </c>
+      <c r="G64">
+        <v>4841155.522363465</v>
+      </c>
+      <c r="H64">
+        <v>3985424.71282345</v>
+      </c>
+      <c r="I64">
+        <v>1115155.900506424</v>
+      </c>
+      <c r="J64">
+        <v>4842796.312416787</v>
+      </c>
+      <c r="K64">
+        <v>3986554.061378007</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65">
+        <v>971</v>
+      </c>
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65">
+        <v>162.142</v>
+      </c>
+      <c r="F65">
+        <v>1116501.339577667</v>
+      </c>
+      <c r="G65">
+        <v>4841172.035175627</v>
+      </c>
+      <c r="H65">
+        <v>3985543.398852915</v>
+      </c>
+      <c r="I65">
+        <v>1115192.762440781</v>
+      </c>
+      <c r="J65">
+        <v>4842747.660719027</v>
+      </c>
+      <c r="K65">
+        <v>3986721.519210536</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66">
+        <v>971</v>
+      </c>
+      <c r="B66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66">
+        <v>163.142</v>
+      </c>
+      <c r="F66">
+        <v>1116483.286805797</v>
+      </c>
+      <c r="G66">
+        <v>4841188.547987789</v>
+      </c>
+      <c r="H66">
+        <v>3985628.215736492</v>
+      </c>
+      <c r="I66">
+        <v>1115230.532066359</v>
+      </c>
+      <c r="J66">
+        <v>4842699.009021267</v>
+      </c>
+      <c r="K66">
+        <v>3986873.828401627</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67">
+        <v>971</v>
+      </c>
+      <c r="B67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67">
+        <v>164.142</v>
+      </c>
+      <c r="F67">
+        <v>1116470.696875976</v>
+      </c>
+      <c r="G67">
+        <v>4841205.06079995</v>
+      </c>
+      <c r="H67">
+        <v>3985694.262598292</v>
+      </c>
+      <c r="I67">
+        <v>1115269.23173422</v>
+      </c>
+      <c r="J67">
+        <v>4842650.357323507</v>
+      </c>
+      <c r="K67">
+        <v>3987010.988951282</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68">
+        <v>971</v>
+      </c>
+      <c r="B68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68">
+        <v>165.142</v>
+      </c>
+      <c r="F68">
+        <v>1116461.304411303</v>
+      </c>
+      <c r="G68">
+        <v>4841221.573612112</v>
+      </c>
+      <c r="H68">
+        <v>3985748.360101169</v>
+      </c>
+      <c r="I68">
+        <v>1115308.884345798</v>
+      </c>
+      <c r="J68">
+        <v>4842601.705625747</v>
+      </c>
+      <c r="K68">
+        <v>3987133.000859498</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69">
+        <v>971</v>
+      </c>
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69">
+        <v>166.142</v>
+      </c>
+      <c r="F69">
+        <v>1116453.960815548</v>
+      </c>
+      <c r="G69">
+        <v>4841238.086424273</v>
+      </c>
+      <c r="H69">
+        <v>3985794.176737179</v>
+      </c>
+      <c r="I69">
+        <v>1115349.513366457</v>
+      </c>
+      <c r="J69">
+        <v>4842553.053927987</v>
+      </c>
+      <c r="K69">
+        <v>3987239.864126276</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70">
+        <v>971</v>
+      </c>
+      <c r="B70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70">
+        <v>167.142</v>
+      </c>
+      <c r="F70">
+        <v>1116448.019311878</v>
+      </c>
+      <c r="G70">
+        <v>4841254.599236434</v>
+      </c>
+      <c r="H70">
+        <v>3985833.914324464</v>
+      </c>
+      <c r="I70">
+        <v>1115391.142839372</v>
+      </c>
+      <c r="J70">
+        <v>4842504.402230227</v>
+      </c>
+      <c r="K70">
+        <v>3987331.578751617</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71">
+        <v>971</v>
+      </c>
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71">
+        <v>168.142</v>
+      </c>
+      <c r="F71">
+        <v>1116443.085746755</v>
+      </c>
+      <c r="G71">
+        <v>4841271.112048597</v>
+      </c>
+      <c r="H71">
+        <v>3985868.998681856</v>
+      </c>
+      <c r="I71">
+        <v>1115433.797399759</v>
+      </c>
+      <c r="J71">
+        <v>4842455.750532467</v>
+      </c>
+      <c r="K71">
+        <v>3987408.144735519</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72">
+        <v>971</v>
+      </c>
+      <c r="B72" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72">
+        <v>169.142</v>
+      </c>
+      <c r="F72">
+        <v>1116438.904921517</v>
+      </c>
+      <c r="G72">
+        <v>4841287.624860758</v>
+      </c>
+      <c r="H72">
+        <v>3985900.406241708</v>
+      </c>
+      <c r="I72">
+        <v>1115477.502289454</v>
+      </c>
+      <c r="J72">
+        <v>4842407.098834707</v>
+      </c>
+      <c r="K72">
+        <v>3987469.562077985</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73">
+        <v>971</v>
+      </c>
+      <c r="B73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73">
+        <v>170.142</v>
+      </c>
+      <c r="F73">
+        <v>1116435.303548459</v>
+      </c>
+      <c r="G73">
+        <v>4841304.13767292</v>
+      </c>
+      <c r="H73">
+        <v>3985928.835071601</v>
+      </c>
+      <c r="I73">
+        <v>1115522.283371849</v>
+      </c>
+      <c r="J73">
+        <v>4842358.447136947</v>
+      </c>
+      <c r="K73">
+        <v>3987515.830779012</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74">
+        <v>971</v>
+      </c>
+      <c r="B74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" t="s">
+        <v>17</v>
+      </c>
+      <c r="E74">
+        <v>171.142</v>
+      </c>
+      <c r="F74">
+        <v>1116432.159363689</v>
+      </c>
+      <c r="G74">
+        <v>4841320.650485082</v>
+      </c>
+      <c r="H74">
+        <v>3985954.801561644</v>
+      </c>
+      <c r="I74">
+        <v>1115568.167147201</v>
+      </c>
+      <c r="J74">
+        <v>4842309.795439187</v>
+      </c>
+      <c r="K74">
+        <v>3987546.950838602</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75">
+        <v>971</v>
+      </c>
+      <c r="B75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" t="s">
+        <v>17</v>
+      </c>
+      <c r="E75">
+        <v>172.142</v>
+      </c>
+      <c r="F75">
+        <v>1116429.383345709</v>
+      </c>
+      <c r="G75">
+        <v>4841337.163297242</v>
+      </c>
+      <c r="H75">
+        <v>3985978.698466321</v>
+      </c>
+      <c r="I75">
+        <v>1115615.180768309</v>
+      </c>
+      <c r="J75">
+        <v>4842261.143741427</v>
+      </c>
+      <c r="K75">
+        <v>3987562.922256753</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76">
+        <v>971</v>
+      </c>
+      <c r="B76" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" t="s">
+        <v>17</v>
+      </c>
+      <c r="E76">
+        <v>173.142</v>
+      </c>
+      <c r="F76">
+        <v>1116426.908950622</v>
+      </c>
+      <c r="G76">
+        <v>4841353.676109404</v>
+      </c>
+      <c r="H76">
+        <v>3986000.83147221</v>
+      </c>
+      <c r="I76">
+        <v>1115663.352056585</v>
+      </c>
+      <c r="J76">
+        <v>4842212.492043667</v>
+      </c>
+      <c r="K76">
+        <v>3987563.745033468</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77">
+        <v>971</v>
+      </c>
+      <c r="B77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" t="s">
+        <v>17</v>
+      </c>
+      <c r="E77">
+        <v>174.142</v>
+      </c>
+      <c r="F77">
+        <v>1116424.685315858</v>
+      </c>
+      <c r="G77">
+        <v>4841370.188921566</v>
+      </c>
+      <c r="H77">
+        <v>3986021.443172079</v>
+      </c>
+      <c r="I77">
+        <v>1115712.709518517</v>
+      </c>
+      <c r="J77">
+        <v>4842163.840345907</v>
+      </c>
+      <c r="K77">
+        <v>3987549.419168743</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78">
+        <v>971</v>
+      </c>
+      <c r="B78" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78">
+        <v>175.142</v>
+      </c>
+      <c r="F78">
+        <v>1116422.672814248</v>
+      </c>
+      <c r="G78">
+        <v>4841386.701733727</v>
+      </c>
+      <c r="H78">
+        <v>3986040.729316198</v>
+      </c>
+      <c r="I78">
+        <v>1115763.282362542</v>
+      </c>
+      <c r="J78">
+        <v>4842115.188648148</v>
+      </c>
+      <c r="K78">
+        <v>3987519.944662582</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79">
+        <v>971</v>
+      </c>
+      <c r="B79" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79">
+        <v>176.142</v>
+      </c>
+      <c r="F79">
+        <v>1116420.840055754</v>
+      </c>
+      <c r="G79">
+        <v>4841403.214545889</v>
+      </c>
+      <c r="H79">
+        <v>3986058.850146327</v>
+      </c>
+      <c r="I79">
+        <v>1115815.100516325</v>
+      </c>
+      <c r="J79">
+        <v>4842066.536950388</v>
+      </c>
+      <c r="K79">
+        <v>3987475.321514983</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80">
+        <v>971</v>
+      </c>
+      <c r="B80" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" t="s">
+        <v>17</v>
+      </c>
+      <c r="E80">
+        <v>177.142</v>
+      </c>
+      <c r="F80">
+        <v>1116419.161811459</v>
+      </c>
+      <c r="G80">
+        <v>4841419.72735805</v>
+      </c>
+      <c r="H80">
+        <v>3986075.938496399</v>
+      </c>
+      <c r="I80">
+        <v>1115868.194644473</v>
+      </c>
+      <c r="J80">
+        <v>4842017.885252627</v>
+      </c>
+      <c r="K80">
+        <v>3987415.549725946</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81">
+        <v>971</v>
+      </c>
+      <c r="B81" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" t="s">
+        <v>17</v>
+      </c>
+      <c r="E81">
+        <v>178.142</v>
+      </c>
+      <c r="F81">
+        <v>1116417.61754259</v>
+      </c>
+      <c r="G81">
+        <v>4841436.240170212</v>
+      </c>
+      <c r="H81">
+        <v>3986092.105707278</v>
+      </c>
+      <c r="I81">
+        <v>1115922.596166681</v>
+      </c>
+      <c r="J81">
+        <v>4841969.233554867</v>
+      </c>
+      <c r="K81">
+        <v>3987340.629295471</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82">
+        <v>971</v>
+      </c>
+      <c r="B82" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" t="s">
+        <v>17</v>
+      </c>
+      <c r="E82">
+        <v>179.142</v>
+      </c>
+      <c r="F82">
+        <v>1116416.190336846</v>
+      </c>
+      <c r="G82">
+        <v>4841452.752982373</v>
+      </c>
+      <c r="H82">
+        <v>3986107.446027309</v>
+      </c>
+      <c r="I82">
+        <v>1115978.337276324</v>
+      </c>
+      <c r="J82">
+        <v>4841920.581857108</v>
+      </c>
+      <c r="K82">
+        <v>3987250.560223559</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83">
+        <v>971</v>
+      </c>
+      <c r="B83" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" t="s">
+        <v>17</v>
+      </c>
+      <c r="E83">
+        <v>180.142</v>
+      </c>
+      <c r="F83">
+        <v>1116414.866125207</v>
+      </c>
+      <c r="G83">
+        <v>4841469.265794534</v>
+      </c>
+      <c r="H83">
+        <v>3986122.039941276</v>
+      </c>
+      <c r="I83">
+        <v>1116035.450959512</v>
+      </c>
+      <c r="J83">
+        <v>4841871.930159348</v>
+      </c>
+      <c r="K83">
+        <v>3987145.342510209</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84">
+        <v>971</v>
+      </c>
+      <c r="B84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" t="s">
+        <v>17</v>
+      </c>
+      <c r="E84">
+        <v>181.142</v>
+      </c>
+      <c r="F84">
+        <v>1116413.633095888</v>
+      </c>
+      <c r="G84">
+        <v>4841485.778606696</v>
+      </c>
+      <c r="H84">
+        <v>3986135.95672641</v>
+      </c>
+      <c r="I84">
+        <v>1116093.971014605</v>
+      </c>
+      <c r="J84">
+        <v>4841823.278461587</v>
+      </c>
+      <c r="K84">
+        <v>3987024.976155421</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85">
+        <v>971</v>
+      </c>
+      <c r="B85" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" t="s">
+        <v>17</v>
+      </c>
+      <c r="E85">
+        <v>182.142</v>
+      </c>
+      <c r="F85">
+        <v>1116412.481249378</v>
+      </c>
+      <c r="G85">
+        <v>4841502.291418859</v>
+      </c>
+      <c r="H85">
+        <v>3986149.256441288</v>
+      </c>
+      <c r="I85">
+        <v>1116153.932072216</v>
+      </c>
+      <c r="J85">
+        <v>4841774.626763827</v>
+      </c>
+      <c r="K85">
+        <v>3986889.461159195</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86">
+        <v>971</v>
+      </c>
+      <c r="B86" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" t="s">
+        <v>17</v>
+      </c>
+      <c r="E86">
+        <v>183.142</v>
+      </c>
+      <c r="F86">
+        <v>1116411.402056129</v>
+      </c>
+      <c r="G86">
+        <v>4841518.80423102</v>
+      </c>
+      <c r="H86">
+        <v>3986161.99149222</v>
+      </c>
+      <c r="I86">
+        <v>1116215.369615709</v>
+      </c>
+      <c r="J86">
+        <v>4841725.975066068</v>
+      </c>
+      <c r="K86">
+        <v>3986738.797521532</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87">
+        <v>971</v>
+      </c>
+      <c r="B87" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" t="s">
+        <v>17</v>
+      </c>
+      <c r="E87">
+        <v>184.142</v>
+      </c>
+      <c r="F87">
+        <v>1116410.388190054</v>
+      </c>
+      <c r="G87">
+        <v>4841535.317043182</v>
+      </c>
+      <c r="H87">
+        <v>3986174.207880464</v>
+      </c>
+      <c r="I87">
+        <v>1116278.320002188</v>
+      </c>
+      <c r="J87">
+        <v>4841677.323368308</v>
+      </c>
+      <c r="K87">
+        <v>3986572.985242431</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88">
+        <v>971</v>
+      </c>
+      <c r="B88" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" t="s">
+        <v>17</v>
+      </c>
+      <c r="E88">
+        <v>185.142</v>
+      </c>
+      <c r="F88">
+        <v>1116409.433318767</v>
+      </c>
+      <c r="G88">
+        <v>4841551.829855342</v>
+      </c>
+      <c r="H88">
+        <v>3986185.946205254</v>
+      </c>
+      <c r="I88">
+        <v>1116342.820484021</v>
+      </c>
+      <c r="J88">
+        <v>4841628.671670547</v>
+      </c>
+      <c r="K88">
+        <v>3986392.024321891</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89">
+        <v>971</v>
+      </c>
+      <c r="B89" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89">
+        <v>186.142</v>
+      </c>
+      <c r="F89">
+        <v>1116408.531936816</v>
+      </c>
+      <c r="G89">
+        <v>4841568.342667504</v>
+      </c>
+      <c r="H89">
+        <v>3986197.24247786</v>
+      </c>
+      <c r="I89">
+        <v>1116408.90923088</v>
+      </c>
+      <c r="J89">
+        <v>4841580.019972787</v>
+      </c>
+      <c r="K89">
+        <v>3986195.914759915</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90">
+        <v>971</v>
+      </c>
+      <c r="B90" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90">
+        <v>187.142</v>
+      </c>
+      <c r="F90">
+        <v>1116407.679231894</v>
+      </c>
+      <c r="G90">
+        <v>4841584.855479666</v>
+      </c>
+      <c r="H90">
+        <v>3986208.128787859</v>
+      </c>
+      <c r="I90">
+        <v>1116476.62535233</v>
+      </c>
+      <c r="J90">
+        <v>4841531.368275028</v>
+      </c>
+      <c r="K90">
+        <v>3985984.656556501</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91">
+        <v>971</v>
+      </c>
+      <c r="B91" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" t="s">
+        <v>17</v>
+      </c>
+      <c r="E91">
+        <v>188.142</v>
+      </c>
+      <c r="F91">
+        <v>1116406.870976563</v>
+      </c>
+      <c r="G91">
+        <v>4841601.368291827</v>
+      </c>
+      <c r="H91">
+        <v>3986218.633852686</v>
+      </c>
+      <c r="I91">
+        <v>1116546.008920972</v>
+      </c>
+      <c r="J91">
+        <v>4841482.716577268</v>
+      </c>
+      <c r="K91">
+        <v>3985758.249711649</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92">
+        <v>971</v>
+      </c>
+      <c r="B92" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92" t="s">
+        <v>17</v>
+      </c>
+      <c r="E92">
+        <v>189.142</v>
+      </c>
+      <c r="F92">
+        <v>1116406.103439966</v>
+      </c>
+      <c r="G92">
+        <v>4841617.881103989</v>
+      </c>
+      <c r="H92">
+        <v>3986228.783474164</v>
+      </c>
+      <c r="I92">
+        <v>1116617.100996161</v>
+      </c>
+      <c r="J92">
+        <v>4841434.064879507</v>
+      </c>
+      <c r="K92">
+        <v>3985516.694225358</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93">
+        <v>971</v>
+      </c>
+      <c r="B93" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" t="s">
+        <v>17</v>
+      </c>
+      <c r="E93">
+        <v>190.142</v>
+      </c>
+      <c r="F93">
+        <v>1116405.373315279</v>
+      </c>
+      <c r="G93">
+        <v>4841634.393916151</v>
+      </c>
+      <c r="H93">
+        <v>3986238.600920312</v>
+      </c>
+      <c r="I93">
+        <v>1116689.943648298</v>
+      </c>
+      <c r="J93">
+        <v>4841385.413181747</v>
+      </c>
+      <c r="K93">
+        <v>3985259.990097631</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94">
+        <v>971</v>
+      </c>
+      <c r="B94" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" t="s">
+        <v>17</v>
+      </c>
+      <c r="E94">
+        <v>191.142</v>
+      </c>
+      <c r="F94">
+        <v>1116404.677659722</v>
+      </c>
+      <c r="G94">
+        <v>4841650.906728311</v>
+      </c>
+      <c r="H94">
+        <v>3986248.107246618</v>
+      </c>
+      <c r="I94">
+        <v>1116764.57998373</v>
+      </c>
+      <c r="J94">
+        <v>4841336.761483988</v>
+      </c>
+      <c r="K94">
+        <v>3984988.137328465</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95">
+        <v>971</v>
+      </c>
+      <c r="B95" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95" t="s">
+        <v>17</v>
+      </c>
+      <c r="E95">
+        <v>192.142</v>
+      </c>
+      <c r="F95">
+        <v>1116404.013844609</v>
+      </c>
+      <c r="G95">
+        <v>4841667.419540473</v>
+      </c>
+      <c r="H95">
+        <v>3986257.321567965</v>
+      </c>
+      <c r="I95">
+        <v>1116841.054170257</v>
+      </c>
+      <c r="J95">
+        <v>4841288.109786228</v>
+      </c>
+      <c r="K95">
+        <v>3984701.135917862</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96">
+        <v>971</v>
+      </c>
+      <c r="B96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96" t="s">
+        <v>14</v>
+      </c>
+      <c r="D96" t="s">
+        <v>17</v>
+      </c>
+      <c r="E96">
+        <v>193.142</v>
+      </c>
+      <c r="F96">
+        <v>1116403.379513533</v>
+      </c>
+      <c r="G96">
+        <v>4841683.932352635</v>
+      </c>
+      <c r="H96">
+        <v>3986266.261290011</v>
+      </c>
+      <c r="I96">
+        <v>1116919.411463273</v>
+      </c>
+      <c r="J96">
+        <v>4841239.458088467</v>
+      </c>
+      <c r="K96">
+        <v>3984398.985865822</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97">
+        <v>971</v>
+      </c>
+      <c r="B97" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" t="s">
+        <v>17</v>
+      </c>
+      <c r="E97">
+        <v>194.142</v>
+      </c>
+      <c r="F97">
+        <v>1116402.772547161</v>
+      </c>
+      <c r="G97">
+        <v>4841700.445164796</v>
+      </c>
+      <c r="H97">
+        <v>3986274.94230709</v>
+      </c>
+      <c r="I97">
+        <v>1116999.698232542</v>
+      </c>
+      <c r="J97">
+        <v>4841190.806390707</v>
+      </c>
+      <c r="K97">
+        <v>3984081.687172343</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98">
+        <v>971</v>
+      </c>
+      <c r="B98" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" t="s">
+        <v>14</v>
+      </c>
+      <c r="D98" t="s">
+        <v>17</v>
+      </c>
+      <c r="E98">
+        <v>195.142</v>
+      </c>
+      <c r="F98">
+        <v>1116402.191033423</v>
+      </c>
+      <c r="G98">
+        <v>4841716.957976958</v>
+      </c>
+      <c r="H98">
+        <v>3986283.379172271</v>
+      </c>
+      <c r="I98">
+        <v>1117081.961989642</v>
+      </c>
+      <c r="J98">
+        <v>4841142.154692948</v>
+      </c>
+      <c r="K98">
+        <v>3983749.239837426</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99">
+        <v>971</v>
+      </c>
+      <c r="B99" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" t="s">
+        <v>17</v>
+      </c>
+      <c r="E99">
+        <v>196.142</v>
+      </c>
+      <c r="F99">
+        <v>1116401.633242173</v>
+      </c>
+      <c r="G99">
+        <v>4841733.470789119</v>
+      </c>
+      <c r="H99">
+        <v>3986291.585244151</v>
+      </c>
+      <c r="I99">
+        <v>1117166.251416079</v>
+      </c>
+      <c r="J99">
+        <v>4841093.502995187</v>
+      </c>
+      <c r="K99">
+        <v>3983401.643861072</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100">
+        <v>971</v>
+      </c>
+      <c r="B100" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100">
+        <v>197.142</v>
+      </c>
+      <c r="F100">
+        <v>1116401.097603522</v>
+      </c>
+      <c r="G100">
+        <v>4841749.983601281</v>
+      </c>
+      <c r="H100">
+        <v>3986299.572814099</v>
+      </c>
+      <c r="I100">
+        <v>1117252.616392097</v>
+      </c>
+      <c r="J100">
+        <v>4841044.851297428</v>
+      </c>
+      <c r="K100">
+        <v>3983038.89924328</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101">
+        <v>971</v>
+      </c>
+      <c r="B101" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101" t="s">
+        <v>14</v>
+      </c>
+      <c r="D101" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101">
+        <v>198.142</v>
+      </c>
+      <c r="F101">
+        <v>1116400.582689251</v>
+      </c>
+      <c r="G101">
+        <v>4841766.496413443</v>
+      </c>
+      <c r="H101">
+        <v>3986307.353216994</v>
+      </c>
+      <c r="I101">
+        <v>1117341.108026196</v>
+      </c>
+      <c r="J101">
+        <v>4840996.199599667</v>
+      </c>
+      <c r="K101">
+        <v>3982661.005984051</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102">
+        <v>971</v>
+      </c>
+      <c r="B102" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" t="s">
+        <v>14</v>
+      </c>
+      <c r="D102" t="s">
+        <v>17</v>
+      </c>
+      <c r="E102">
+        <v>199.142</v>
+      </c>
+      <c r="F102">
+        <v>1116400.087196788</v>
+      </c>
+      <c r="G102">
+        <v>4841783.009225604</v>
+      </c>
+      <c r="H102">
+        <v>3986314.93692797</v>
+      </c>
+      <c r="I102">
+        <v>1117431.778685373</v>
+      </c>
+      <c r="J102">
+        <v>4840947.547901908</v>
+      </c>
+      <c r="K102">
+        <v>3982267.964083383</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103">
+        <v>971</v>
+      </c>
+      <c r="B103" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103" t="s">
+        <v>14</v>
+      </c>
+      <c r="D103" t="s">
+        <v>17</v>
+      </c>
+      <c r="E103">
+        <v>200.142</v>
+      </c>
+      <c r="F103">
+        <v>1116399.609935351</v>
+      </c>
+      <c r="G103">
+        <v>4841799.522037766</v>
+      </c>
+      <c r="H103">
+        <v>3986322.333647216</v>
+      </c>
+      <c r="I103">
+        <v>1117524.682026117</v>
+      </c>
+      <c r="J103">
+        <v>4840898.896204147</v>
+      </c>
+      <c r="K103">
+        <v>3981859.773541278</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104">
+        <v>971</v>
+      </c>
+      <c r="B104" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104" t="s">
+        <v>17</v>
+      </c>
+      <c r="E104">
+        <v>201.142</v>
+      </c>
+      <c r="F104">
+        <v>1116399.149813904</v>
+      </c>
+      <c r="G104">
+        <v>4841816.034849928</v>
+      </c>
+      <c r="H104">
+        <v>3986329.552374586</v>
+      </c>
+      <c r="I104">
+        <v>1117619.873026157</v>
+      </c>
+      <c r="J104">
+        <v>4840850.244506388</v>
+      </c>
+      <c r="K104">
+        <v>3981436.434357735</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105">
+        <v>971</v>
+      </c>
+      <c r="B105" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105" t="s">
+        <v>17</v>
+      </c>
+      <c r="E105">
+        <v>202.142</v>
+      </c>
+      <c r="F105">
+        <v>1116398.705830673</v>
+      </c>
+      <c r="G105">
+        <v>4841832.547662089</v>
+      </c>
+      <c r="H105">
+        <v>3986336.601475434</v>
+      </c>
+      <c r="I105">
+        <v>1117717.408016999</v>
+      </c>
+      <c r="J105">
+        <v>4840801.592808628</v>
+      </c>
+      <c r="K105">
+        <v>3980997.946532754</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106">
+        <v>971</v>
+      </c>
+      <c r="B106" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" t="s">
+        <v>14</v>
+      </c>
+      <c r="D106" t="s">
+        <v>17</v>
+      </c>
+      <c r="E106">
+        <v>203.142</v>
+      </c>
+      <c r="F106">
+        <v>1116398.277063967</v>
+      </c>
+      <c r="G106">
+        <v>4841849.06047425</v>
+      </c>
+      <c r="H106">
+        <v>3986343.488738888</v>
+      </c>
+      <c r="I106">
+        <v>1117817.34471726</v>
+      </c>
+      <c r="J106">
+        <v>4840752.941110868</v>
+      </c>
+      <c r="K106">
+        <v>3980544.310066336</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107">
+        <v>971</v>
+      </c>
+      <c r="B107" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107" t="s">
+        <v>17</v>
+      </c>
+      <c r="E107">
+        <v>204.142</v>
+      </c>
+      <c r="F107">
+        <v>1116397.862664138</v>
+      </c>
+      <c r="G107">
+        <v>4841865.573286412</v>
+      </c>
+      <c r="H107">
+        <v>3986350.22142959</v>
+      </c>
+      <c r="I107">
+        <v>1117919.742266826</v>
+      </c>
+      <c r="J107">
+        <v>4840704.289413108</v>
+      </c>
+      <c r="K107">
+        <v>3980075.52495848</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108">
+        <v>971</v>
+      </c>
+      <c r="B108" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" t="s">
+        <v>16</v>
+      </c>
+      <c r="E108">
+        <v>152.142</v>
+      </c>
+      <c r="F108">
+        <v>1116578.9053182</v>
+      </c>
+      <c r="G108">
+        <v>4841117.961651636</v>
+      </c>
+      <c r="H108">
+        <v>3985224.325085211</v>
+      </c>
+      <c r="I108">
+        <v>1114860.024940463</v>
+      </c>
+      <c r="J108">
+        <v>4843230.763350484</v>
+      </c>
+      <c r="K108">
+        <v>3984368.888683113</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109">
+        <v>971</v>
+      </c>
+      <c r="B109" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" t="s">
+        <v>15</v>
+      </c>
+      <c r="D109" t="s">
+        <v>16</v>
+      </c>
+      <c r="E109">
+        <v>153.142</v>
+      </c>
+      <c r="F109">
+        <v>1116578.9053182</v>
+      </c>
+      <c r="G109">
+        <v>4841117.961651636</v>
+      </c>
+      <c r="H109">
+        <v>3985224.325085211</v>
+      </c>
+      <c r="I109">
+        <v>1114889.638901532</v>
+      </c>
+      <c r="J109">
+        <v>4843182.111687022</v>
+      </c>
+      <c r="K109">
+        <v>3984672.684565866</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110">
+        <v>971</v>
+      </c>
+      <c r="B110" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" t="s">
+        <v>16</v>
+      </c>
+      <c r="E110">
+        <v>154.142</v>
+      </c>
+      <c r="F110">
+        <v>1116578.9053182</v>
+      </c>
+      <c r="G110">
+        <v>4841117.961651636</v>
+      </c>
+      <c r="H110">
+        <v>3985224.325085211</v>
+      </c>
+      <c r="I110">
+        <v>1114919.982079148</v>
+      </c>
+      <c r="J110">
+        <v>4843133.46002356</v>
+      </c>
+      <c r="K110">
+        <v>3984961.331793356</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111">
+        <v>971</v>
+      </c>
+      <c r="B111" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" t="s">
+        <v>16</v>
+      </c>
+      <c r="E111">
+        <v>155.142</v>
+      </c>
+      <c r="F111">
+        <v>1116578.9053182</v>
+      </c>
+      <c r="G111">
+        <v>4841117.961651636</v>
+      </c>
+      <c r="H111">
+        <v>3985224.325085211</v>
+      </c>
+      <c r="I111">
+        <v>1114951.072429598</v>
+      </c>
+      <c r="J111">
+        <v>4843084.808360098</v>
+      </c>
+      <c r="K111">
+        <v>3985234.83036558</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112">
+        <v>971</v>
+      </c>
+      <c r="B112" t="s">
+        <v>11</v>
+      </c>
+      <c r="C112" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" t="s">
+        <v>16</v>
+      </c>
+      <c r="E112">
+        <v>156.142</v>
+      </c>
+      <c r="F112">
+        <v>1116578.9053182</v>
+      </c>
+      <c r="G112">
+        <v>4841117.961651636</v>
+      </c>
+      <c r="H112">
+        <v>3985224.325085211</v>
+      </c>
+      <c r="I112">
+        <v>1114982.928351325</v>
+      </c>
+      <c r="J112">
+        <v>4843036.156696636</v>
+      </c>
+      <c r="K112">
+        <v>3985493.180282541</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113">
+        <v>971</v>
+      </c>
+      <c r="B113" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" t="s">
+        <v>16</v>
+      </c>
+      <c r="E113">
+        <v>157.142</v>
+      </c>
+      <c r="F113">
+        <v>1116578.9053182</v>
+      </c>
+      <c r="G113">
+        <v>4841117.961651636</v>
+      </c>
+      <c r="H113">
+        <v>3985224.325085211</v>
+      </c>
+      <c r="I113">
+        <v>1115015.568695817</v>
+      </c>
+      <c r="J113">
+        <v>4842987.505033175</v>
+      </c>
+      <c r="K113">
+        <v>3985736.381544237</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114">
+        <v>971</v>
+      </c>
+      <c r="B114" t="s">
+        <v>11</v>
+      </c>
+      <c r="C114" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114" t="s">
+        <v>16</v>
+      </c>
+      <c r="E114">
+        <v>158.142</v>
+      </c>
+      <c r="F114">
+        <v>1116578.9053182</v>
+      </c>
+      <c r="G114">
+        <v>4841117.961651636</v>
+      </c>
+      <c r="H114">
+        <v>3985224.325085211</v>
+      </c>
+      <c r="I114">
+        <v>1115049.012778764</v>
+      </c>
+      <c r="J114">
+        <v>4842938.853369712</v>
+      </c>
+      <c r="K114">
+        <v>3985964.434150667</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115">
+        <v>971</v>
+      </c>
+      <c r="B115" t="s">
+        <v>11</v>
+      </c>
+      <c r="C115" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" t="s">
+        <v>16</v>
+      </c>
+      <c r="E115">
+        <v>159.142</v>
+      </c>
+      <c r="F115">
+        <v>1116578.9053182</v>
+      </c>
+      <c r="G115">
+        <v>4841117.961651636</v>
+      </c>
+      <c r="H115">
+        <v>3985224.325085211</v>
+      </c>
+      <c r="I115">
+        <v>1115083.280391486</v>
+      </c>
+      <c r="J115">
+        <v>4842890.20170625</v>
+      </c>
+      <c r="K115">
+        <v>3986177.338101835</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116">
+        <v>971</v>
+      </c>
+      <c r="B116" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116" t="s">
+        <v>16</v>
+      </c>
+      <c r="E116">
+        <v>160.142</v>
+      </c>
+      <c r="F116">
+        <v>1116578.9053182</v>
+      </c>
+      <c r="G116">
+        <v>4841134.474448329</v>
+      </c>
+      <c r="H116">
+        <v>3985224.325085211</v>
+      </c>
+      <c r="I116">
+        <v>1115118.391812645</v>
+      </c>
+      <c r="J116">
+        <v>4842841.550042788</v>
+      </c>
+      <c r="K116">
+        <v>3986375.093397737</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117">
+        <v>971</v>
+      </c>
+      <c r="B117" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117" t="s">
+        <v>16</v>
+      </c>
+      <c r="E117">
+        <v>161.142</v>
+      </c>
+      <c r="F117">
+        <v>1116530.224736927</v>
+      </c>
+      <c r="G117">
+        <v>4841150.987245021</v>
+      </c>
+      <c r="H117">
+        <v>3985423.579291829</v>
+      </c>
+      <c r="I117">
+        <v>1115154.367820248</v>
+      </c>
+      <c r="J117">
+        <v>4842792.898379327</v>
+      </c>
+      <c r="K117">
+        <v>3986557.700038375</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118">
+        <v>971</v>
+      </c>
+      <c r="B118" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118" t="s">
+        <v>15</v>
+      </c>
+      <c r="D118" t="s">
+        <v>16</v>
+      </c>
+      <c r="E118">
+        <v>162.142</v>
+      </c>
+      <c r="F118">
+        <v>1116501.62733751</v>
+      </c>
+      <c r="G118">
+        <v>4841167.500041714</v>
+      </c>
+      <c r="H118">
+        <v>3985542.265287538</v>
+      </c>
+      <c r="I118">
+        <v>1115191.229703942</v>
+      </c>
+      <c r="J118">
+        <v>4842744.246715864</v>
+      </c>
+      <c r="K118">
+        <v>3986725.158023749</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119">
+        <v>971</v>
+      </c>
+      <c r="B119" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119" t="s">
+        <v>16</v>
+      </c>
+      <c r="E119">
+        <v>163.142</v>
+      </c>
+      <c r="F119">
+        <v>1116483.574560988</v>
+      </c>
+      <c r="G119">
+        <v>4841184.012838407</v>
+      </c>
+      <c r="H119">
+        <v>3985627.082146992</v>
+      </c>
+      <c r="I119">
+        <v>1115228.999277609</v>
+      </c>
+      <c r="J119">
+        <v>4842695.595052402</v>
+      </c>
+      <c r="K119">
+        <v>3986877.467353858</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120">
+        <v>971</v>
+      </c>
+      <c r="B120" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120" t="s">
+        <v>15</v>
+      </c>
+      <c r="D120" t="s">
+        <v>16</v>
+      </c>
+      <c r="E120">
+        <v>164.142</v>
+      </c>
+      <c r="F120">
+        <v>1116470.984627921</v>
+      </c>
+      <c r="G120">
+        <v>4841200.525635099</v>
+      </c>
+      <c r="H120">
+        <v>3985693.128990007</v>
+      </c>
+      <c r="I120">
+        <v>1115267.69889228</v>
+      </c>
+      <c r="J120">
+        <v>4842646.943388942</v>
+      </c>
+      <c r="K120">
+        <v>3987014.628028702</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121">
+        <v>971</v>
+      </c>
+      <c r="B121" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" t="s">
+        <v>15</v>
+      </c>
+      <c r="D121" t="s">
+        <v>16</v>
+      </c>
+      <c r="E121">
+        <v>165.142</v>
+      </c>
+      <c r="F121">
+        <v>1116461.592160828</v>
+      </c>
+      <c r="G121">
+        <v>4841217.038431792</v>
+      </c>
+      <c r="H121">
+        <v>3985747.226477497</v>
+      </c>
+      <c r="I121">
+        <v>1115307.351449359</v>
+      </c>
+      <c r="J121">
+        <v>4842598.29172548</v>
+      </c>
+      <c r="K121">
+        <v>3987136.640048283</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122">
+        <v>971</v>
+      </c>
+      <c r="B122" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" t="s">
+        <v>15</v>
+      </c>
+      <c r="D122" t="s">
+        <v>16</v>
+      </c>
+      <c r="E122">
+        <v>166.142</v>
+      </c>
+      <c r="F122">
+        <v>1116454.24856318</v>
+      </c>
+      <c r="G122">
+        <v>4841233.551228484</v>
+      </c>
+      <c r="H122">
+        <v>3985793.043100475</v>
+      </c>
+      <c r="I122">
+        <v>1115347.980414177</v>
+      </c>
+      <c r="J122">
+        <v>4842549.640062017</v>
+      </c>
+      <c r="K122">
+        <v>3987243.503412599</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123">
+        <v>971</v>
+      </c>
+      <c r="B123" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" t="s">
+        <v>15</v>
+      </c>
+      <c r="D123" t="s">
+        <v>16</v>
+      </c>
+      <c r="E123">
+        <v>167.142</v>
+      </c>
+      <c r="F123">
+        <v>1116448.307057978</v>
+      </c>
+      <c r="G123">
+        <v>4841250.064025177</v>
+      </c>
+      <c r="H123">
+        <v>3985832.780676459</v>
+      </c>
+      <c r="I123">
+        <v>1115389.609829876</v>
+      </c>
+      <c r="J123">
+        <v>4842500.988398556</v>
+      </c>
+      <c r="K123">
+        <v>3987335.21812165</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124">
+        <v>971</v>
+      </c>
+      <c r="B124" t="s">
+        <v>11</v>
+      </c>
+      <c r="C124" t="s">
+        <v>15</v>
+      </c>
+      <c r="D124" t="s">
+        <v>16</v>
+      </c>
+      <c r="E124">
+        <v>168.142</v>
+      </c>
+      <c r="F124">
+        <v>1116443.373491584</v>
+      </c>
+      <c r="G124">
+        <v>4841266.57682187</v>
+      </c>
+      <c r="H124">
+        <v>3985867.865023872</v>
+      </c>
+      <c r="I124">
+        <v>1115432.264331637</v>
+      </c>
+      <c r="J124">
+        <v>4842452.336735094</v>
+      </c>
+      <c r="K124">
+        <v>3987411.784175437</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125">
+        <v>971</v>
+      </c>
+      <c r="B125" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125" t="s">
+        <v>16</v>
+      </c>
+      <c r="E125">
+        <v>169.142</v>
+      </c>
+      <c r="F125">
+        <v>1116439.192665269</v>
+      </c>
+      <c r="G125">
+        <v>4841283.089618562</v>
+      </c>
+      <c r="H125">
+        <v>3985899.272574791</v>
+      </c>
+      <c r="I125">
+        <v>1115475.969161264</v>
+      </c>
+      <c r="J125">
+        <v>4842403.685071632</v>
+      </c>
+      <c r="K125">
+        <v>3987473.20157396</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126">
+        <v>971</v>
+      </c>
+      <c r="B126" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" t="s">
+        <v>15</v>
+      </c>
+      <c r="D126" t="s">
+        <v>16</v>
+      </c>
+      <c r="E126">
+        <v>170.142</v>
+      </c>
+      <c r="F126">
+        <v>1116435.591291282</v>
+      </c>
+      <c r="G126">
+        <v>4841299.602415255</v>
+      </c>
+      <c r="H126">
+        <v>3985927.701396598</v>
+      </c>
+      <c r="I126">
+        <v>1115520.750182112</v>
+      </c>
+      <c r="J126">
+        <v>4842355.03340817</v>
+      </c>
+      <c r="K126">
+        <v>3987519.470317219</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127">
+        <v>971</v>
+      </c>
+      <c r="B127" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127" t="s">
+        <v>15</v>
+      </c>
+      <c r="D127" t="s">
+        <v>16</v>
+      </c>
+      <c r="E127">
+        <v>171.142</v>
+      </c>
+      <c r="F127">
+        <v>1116432.447105702</v>
+      </c>
+      <c r="G127">
+        <v>4841316.115211948</v>
+      </c>
+      <c r="H127">
+        <v>3985953.667879256</v>
+      </c>
+      <c r="I127">
+        <v>1115566.6338944</v>
+      </c>
+      <c r="J127">
+        <v>4842306.381744708</v>
+      </c>
+      <c r="K127">
+        <v>3987550.590405213</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128">
+        <v>971</v>
+      </c>
+      <c r="B128" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128" t="s">
+        <v>16</v>
+      </c>
+      <c r="E128">
+        <v>172.142</v>
+      </c>
+      <c r="F128">
+        <v>1116429.671087007</v>
+      </c>
+      <c r="G128">
+        <v>4841332.628008639</v>
+      </c>
+      <c r="H128">
+        <v>3985977.564777136</v>
+      </c>
+      <c r="I128">
+        <v>1115613.647450892</v>
+      </c>
+      <c r="J128">
+        <v>4842257.730081246</v>
+      </c>
+      <c r="K128">
+        <v>3987566.561837942</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129">
+        <v>971</v>
+      </c>
+      <c r="B129" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129" t="s">
+        <v>16</v>
+      </c>
+      <c r="E129">
+        <v>173.142</v>
+      </c>
+      <c r="F129">
+        <v>1116427.196691282</v>
+      </c>
+      <c r="G129">
+        <v>4841349.140805333</v>
+      </c>
+      <c r="H129">
+        <v>3985999.69777673</v>
+      </c>
+      <c r="I129">
+        <v>1115661.81867296</v>
+      </c>
+      <c r="J129">
+        <v>4842209.078417785</v>
+      </c>
+      <c r="K129">
+        <v>3987567.384615407</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130">
+        <v>971</v>
+      </c>
+      <c r="B130" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" t="s">
+        <v>15</v>
+      </c>
+      <c r="D130" t="s">
+        <v>16</v>
+      </c>
+      <c r="E130">
+        <v>174.142</v>
+      </c>
+      <c r="F130">
+        <v>1116424.973055945</v>
+      </c>
+      <c r="G130">
+        <v>4841365.653602025</v>
+      </c>
+      <c r="H130">
+        <v>3986020.309470737</v>
+      </c>
+      <c r="I130">
+        <v>1115711.176067055</v>
+      </c>
+      <c r="J130">
+        <v>4842160.426754322</v>
+      </c>
+      <c r="K130">
+        <v>3987553.058737608</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131">
+        <v>971</v>
+      </c>
+      <c r="B131" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131" t="s">
+        <v>15</v>
+      </c>
+      <c r="D131" t="s">
+        <v>16</v>
+      </c>
+      <c r="E131">
+        <v>175.142</v>
+      </c>
+      <c r="F131">
+        <v>1116422.960553816</v>
+      </c>
+      <c r="G131">
+        <v>4841382.166398718</v>
+      </c>
+      <c r="H131">
+        <v>3986039.595609371</v>
+      </c>
+      <c r="I131">
+        <v>1115761.748841572</v>
+      </c>
+      <c r="J131">
+        <v>4842111.77509086</v>
+      </c>
+      <c r="K131">
+        <v>3987523.584204544</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132">
+        <v>971</v>
+      </c>
+      <c r="B132" t="s">
+        <v>11</v>
+      </c>
+      <c r="C132" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" t="s">
+        <v>16</v>
+      </c>
+      <c r="E132">
+        <v>176.142</v>
+      </c>
+      <c r="F132">
+        <v>1116421.12779485</v>
+      </c>
+      <c r="G132">
+        <v>4841398.679195411</v>
+      </c>
+      <c r="H132">
+        <v>3986057.716434346</v>
+      </c>
+      <c r="I132">
+        <v>1115813.566924135</v>
+      </c>
+      <c r="J132">
+        <v>4842063.123427399</v>
+      </c>
+      <c r="K132">
+        <v>3987478.961016215</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133">
+        <v>971</v>
+      </c>
+      <c r="B133" t="s">
+        <v>11</v>
+      </c>
+      <c r="C133" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" t="s">
+        <v>16</v>
+      </c>
+      <c r="E133">
+        <v>177.142</v>
+      </c>
+      <c r="F133">
+        <v>1116419.449550122</v>
+      </c>
+      <c r="G133">
+        <v>4841415.191992102</v>
+      </c>
+      <c r="H133">
+        <v>3986074.804779558</v>
+      </c>
+      <c r="I133">
+        <v>1115866.66097931</v>
+      </c>
+      <c r="J133">
+        <v>4842014.471763936</v>
+      </c>
+      <c r="K133">
+        <v>3987419.189172623</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134">
+        <v>971</v>
+      </c>
+      <c r="B134" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134" t="s">
+        <v>15</v>
+      </c>
+      <c r="D134" t="s">
+        <v>16</v>
+      </c>
+      <c r="E134">
+        <v>178.142</v>
+      </c>
+      <c r="F134">
+        <v>1116417.905280855</v>
+      </c>
+      <c r="G134">
+        <v>4841431.704788796</v>
+      </c>
+      <c r="H134">
+        <v>3986090.971985838</v>
+      </c>
+      <c r="I134">
+        <v>1115921.062426747</v>
+      </c>
+      <c r="J134">
+        <v>4841965.820100474</v>
+      </c>
+      <c r="K134">
+        <v>3987344.268673766</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135">
+        <v>971</v>
+      </c>
+      <c r="B135" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135" t="s">
+        <v>15</v>
+      </c>
+      <c r="D135" t="s">
+        <v>16</v>
+      </c>
+      <c r="E135">
+        <v>179.142</v>
+      </c>
+      <c r="F135">
+        <v>1116416.478074743</v>
+      </c>
+      <c r="G135">
+        <v>4841448.217585488</v>
+      </c>
+      <c r="H135">
+        <v>3986106.312301506</v>
+      </c>
+      <c r="I135">
+        <v>1115976.80345978</v>
+      </c>
+      <c r="J135">
+        <v>4841917.168437013</v>
+      </c>
+      <c r="K135">
+        <v>3987254.199519645</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136">
+        <v>971</v>
+      </c>
+      <c r="B136" t="s">
+        <v>11</v>
+      </c>
+      <c r="C136" t="s">
+        <v>15</v>
+      </c>
+      <c r="D136" t="s">
+        <v>16</v>
+      </c>
+      <c r="E136">
+        <v>180.142</v>
+      </c>
+      <c r="F136">
+        <v>1116415.153862763</v>
+      </c>
+      <c r="G136">
+        <v>4841464.730382181</v>
+      </c>
+      <c r="H136">
+        <v>3986120.906211323</v>
+      </c>
+      <c r="I136">
+        <v>1116033.91706447</v>
+      </c>
+      <c r="J136">
+        <v>4841868.516773552</v>
+      </c>
+      <c r="K136">
+        <v>3987148.981710259</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137">
+        <v>971</v>
+      </c>
+      <c r="B137" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137" t="s">
+        <v>15</v>
+      </c>
+      <c r="D137" t="s">
+        <v>16</v>
+      </c>
+      <c r="E137">
+        <v>181.142</v>
+      </c>
+      <c r="F137">
+        <v>1116413.920833126</v>
+      </c>
+      <c r="G137">
+        <v>4841481.243178873</v>
+      </c>
+      <c r="H137">
+        <v>3986134.822992499</v>
+      </c>
+      <c r="I137">
+        <v>1116092.437039131</v>
+      </c>
+      <c r="J137">
+        <v>4841819.865110089</v>
+      </c>
+      <c r="K137">
+        <v>3987028.615245609</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138">
+        <v>971</v>
+      </c>
+      <c r="B138" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" t="s">
+        <v>15</v>
+      </c>
+      <c r="D138" t="s">
+        <v>16</v>
+      </c>
+      <c r="E138">
+        <v>182.142</v>
+      </c>
+      <c r="F138">
+        <v>1116412.768986319</v>
+      </c>
+      <c r="G138">
+        <v>4841497.755975567</v>
+      </c>
+      <c r="H138">
+        <v>3986148.122703593</v>
+      </c>
+      <c r="I138">
+        <v>1116152.398014332</v>
+      </c>
+      <c r="J138">
+        <v>4841771.213446627</v>
+      </c>
+      <c r="K138">
+        <v>3986893.100125694</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139">
+        <v>971</v>
+      </c>
+      <c r="B139" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" t="s">
+        <v>15</v>
+      </c>
+      <c r="D139" t="s">
+        <v>16</v>
+      </c>
+      <c r="E139">
+        <v>183.142</v>
+      </c>
+      <c r="F139">
+        <v>1116411.689792792</v>
+      </c>
+      <c r="G139">
+        <v>4841514.268772258</v>
+      </c>
+      <c r="H139">
+        <v>3986160.857750903</v>
+      </c>
+      <c r="I139">
+        <v>1116213.835473384</v>
+      </c>
+      <c r="J139">
+        <v>4841722.561783166</v>
+      </c>
+      <c r="K139">
+        <v>3986742.436350515</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140">
+        <v>971</v>
+      </c>
+      <c r="B140" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140" t="s">
+        <v>15</v>
+      </c>
+      <c r="D140" t="s">
+        <v>16</v>
+      </c>
+      <c r="E140">
+        <v>184.142</v>
+      </c>
+      <c r="F140">
+        <v>1116410.675926456</v>
+      </c>
+      <c r="G140">
+        <v>4841530.781568951</v>
+      </c>
+      <c r="H140">
+        <v>3986173.074135673</v>
+      </c>
+      <c r="I140">
+        <v>1116276.785773343</v>
+      </c>
+      <c r="J140">
+        <v>4841673.910119704</v>
+      </c>
+      <c r="K140">
+        <v>3986576.623920071</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141">
+        <v>971</v>
+      </c>
+      <c r="B141" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" t="s">
+        <v>15</v>
+      </c>
+      <c r="D141" t="s">
+        <v>16</v>
+      </c>
+      <c r="E141">
+        <v>185.142</v>
+      </c>
+      <c r="F141">
+        <v>1116409.721054923</v>
+      </c>
+      <c r="G141">
+        <v>4841547.294365644</v>
+      </c>
+      <c r="H141">
+        <v>3986184.812457124</v>
+      </c>
+      <c r="I141">
+        <v>1116341.286166526</v>
+      </c>
+      <c r="J141">
+        <v>4841625.258456241</v>
+      </c>
+      <c r="K141">
+        <v>3986395.662834363</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142">
+        <v>971</v>
+      </c>
+      <c r="B142" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142" t="s">
+        <v>15</v>
+      </c>
+      <c r="D142" t="s">
+        <v>16</v>
+      </c>
+      <c r="E142">
+        <v>186.142</v>
+      </c>
+      <c r="F142">
+        <v>1116408.81967274</v>
+      </c>
+      <c r="G142">
+        <v>4841563.807162336</v>
+      </c>
+      <c r="H142">
+        <v>3986196.108726517</v>
+      </c>
+      <c r="I142">
+        <v>1116407.374822551</v>
+      </c>
+      <c r="J142">
+        <v>4841576.60679278</v>
+      </c>
+      <c r="K142">
+        <v>3986199.553093391</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143">
+        <v>971</v>
+      </c>
+      <c r="B143" t="s">
+        <v>11</v>
+      </c>
+      <c r="C143" t="s">
+        <v>15</v>
+      </c>
+      <c r="D143" t="s">
+        <v>16</v>
+      </c>
+      <c r="E143">
+        <v>187.142</v>
+      </c>
+      <c r="F143">
+        <v>1116407.966967597</v>
+      </c>
+      <c r="G143">
+        <v>4841580.31995903</v>
+      </c>
+      <c r="H143">
+        <v>3986206.99503342</v>
+      </c>
+      <c r="I143">
+        <v>1116475.090850931</v>
+      </c>
+      <c r="J143">
+        <v>4841527.955129318</v>
+      </c>
+      <c r="K143">
+        <v>3985988.294697154</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144">
+        <v>971</v>
+      </c>
+      <c r="B144" t="s">
+        <v>11</v>
+      </c>
+      <c r="C144" t="s">
+        <v>15</v>
+      </c>
+      <c r="D144" t="s">
+        <v>16</v>
+      </c>
+      <c r="E144">
+        <v>188.142</v>
+      </c>
+      <c r="F144">
+        <v>1116407.158712059</v>
+      </c>
+      <c r="G144">
+        <v>4841596.832755721</v>
+      </c>
+      <c r="H144">
+        <v>3986217.500095259</v>
+      </c>
+      <c r="I144">
+        <v>1116544.474324212</v>
+      </c>
+      <c r="J144">
+        <v>4841479.303465856</v>
+      </c>
+      <c r="K144">
+        <v>3985761.887645653</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145">
+        <v>971</v>
+      </c>
+      <c r="B145" t="s">
+        <v>11</v>
+      </c>
+      <c r="C145" t="s">
+        <v>15</v>
+      </c>
+      <c r="D145" t="s">
+        <v>16</v>
+      </c>
+      <c r="E145">
+        <v>189.142</v>
+      </c>
+      <c r="F145">
+        <v>1116406.391175263</v>
+      </c>
+      <c r="G145">
+        <v>4841613.345552414</v>
+      </c>
+      <c r="H145">
+        <v>3986227.64971385</v>
+      </c>
+      <c r="I145">
+        <v>1116615.566301691</v>
+      </c>
+      <c r="J145">
+        <v>4841430.651802394</v>
+      </c>
+      <c r="K145">
+        <v>3985520.331938887</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146">
+        <v>971</v>
+      </c>
+      <c r="B146" t="s">
+        <v>11</v>
+      </c>
+      <c r="C146" t="s">
+        <v>15</v>
+      </c>
+      <c r="D146" t="s">
+        <v>16</v>
+      </c>
+      <c r="E146">
+        <v>190.142</v>
+      </c>
+      <c r="F146">
+        <v>1116405.661050389</v>
+      </c>
+      <c r="G146">
+        <v>4841629.858349107</v>
+      </c>
+      <c r="H146">
+        <v>3986237.467157206</v>
+      </c>
+      <c r="I146">
+        <v>1116688.408853712</v>
+      </c>
+      <c r="J146">
+        <v>4841382.000138932</v>
+      </c>
+      <c r="K146">
+        <v>3985263.627576857</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147">
+        <v>971</v>
+      </c>
+      <c r="B147" t="s">
+        <v>11</v>
+      </c>
+      <c r="C147" t="s">
+        <v>15</v>
+      </c>
+      <c r="D147" t="s">
+        <v>16</v>
+      </c>
+      <c r="E147">
+        <v>191.142</v>
+      </c>
+      <c r="F147">
+        <v>1116404.965394652</v>
+      </c>
+      <c r="G147">
+        <v>4841646.371145799</v>
+      </c>
+      <c r="H147">
+        <v>3986246.973480809</v>
+      </c>
+      <c r="I147">
+        <v>1116763.045086562</v>
+      </c>
+      <c r="J147">
+        <v>4841333.34847547</v>
+      </c>
+      <c r="K147">
+        <v>3984991.774559563</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148">
+        <v>971</v>
+      </c>
+      <c r="B148" t="s">
+        <v>11</v>
+      </c>
+      <c r="C148" t="s">
+        <v>15</v>
+      </c>
+      <c r="D148" t="s">
+        <v>16</v>
+      </c>
+      <c r="E148">
+        <v>192.142</v>
+      </c>
+      <c r="F148">
+        <v>1116404.301579368</v>
+      </c>
+      <c r="G148">
+        <v>4841662.883942492</v>
+      </c>
+      <c r="H148">
+        <v>3986256.187799535</v>
+      </c>
+      <c r="I148">
+        <v>1116839.519167983</v>
+      </c>
+      <c r="J148">
+        <v>4841284.696812009</v>
+      </c>
+      <c r="K148">
+        <v>3984704.772887004</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149">
+        <v>971</v>
+      </c>
+      <c r="B149" t="s">
+        <v>11</v>
+      </c>
+      <c r="C149" t="s">
+        <v>15</v>
+      </c>
+      <c r="D149" t="s">
+        <v>16</v>
+      </c>
+      <c r="E149">
+        <v>193.142</v>
+      </c>
+      <c r="F149">
+        <v>1116403.667248129</v>
+      </c>
+      <c r="G149">
+        <v>4841679.396739185</v>
+      </c>
+      <c r="H149">
+        <v>3986265.127519039</v>
+      </c>
+      <c r="I149">
+        <v>1116917.876353303</v>
+      </c>
+      <c r="J149">
+        <v>4841236.045148547</v>
+      </c>
+      <c r="K149">
+        <v>3984402.62255918</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150">
+        <v>971</v>
+      </c>
+      <c r="B150" t="s">
+        <v>11</v>
+      </c>
+      <c r="C150" t="s">
+        <v>15</v>
+      </c>
+      <c r="D150" t="s">
+        <v>16</v>
+      </c>
+      <c r="E150">
+        <v>194.142</v>
+      </c>
+      <c r="F150">
+        <v>1116403.0602816</v>
+      </c>
+      <c r="G150">
+        <v>4841695.909535877</v>
+      </c>
+      <c r="H150">
+        <v>3986273.808533648</v>
+      </c>
+      <c r="I150">
+        <v>1116998.163012225</v>
+      </c>
+      <c r="J150">
+        <v>4841187.393485085</v>
+      </c>
+      <c r="K150">
+        <v>3984085.323576092</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151">
+        <v>971</v>
+      </c>
+      <c r="B151" t="s">
+        <v>11</v>
+      </c>
+      <c r="C151" t="s">
+        <v>15</v>
+      </c>
+      <c r="D151" t="s">
+        <v>16</v>
+      </c>
+      <c r="E151">
+        <v>195.142</v>
+      </c>
+      <c r="F151">
+        <v>1116402.478767713</v>
+      </c>
+      <c r="G151">
+        <v>4841712.42233257</v>
+      </c>
+      <c r="H151">
+        <v>3986282.24539643</v>
+      </c>
+      <c r="I151">
+        <v>1117080.42665626</v>
+      </c>
+      <c r="J151">
+        <v>4841138.741821623</v>
+      </c>
+      <c r="K151">
+        <v>3983752.875937741</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152">
+        <v>971</v>
+      </c>
+      <c r="B152" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152" t="s">
+        <v>15</v>
+      </c>
+      <c r="D152" t="s">
+        <v>16</v>
+      </c>
+      <c r="E152">
+        <v>196.142</v>
+      </c>
+      <c r="F152">
+        <v>1116401.920976319</v>
+      </c>
+      <c r="G152">
+        <v>4841728.935129262</v>
+      </c>
+      <c r="H152">
+        <v>3986290.451465975</v>
+      </c>
+      <c r="I152">
+        <v>1117164.715966848</v>
+      </c>
+      <c r="J152">
+        <v>4841090.090158161</v>
+      </c>
+      <c r="K152">
+        <v>3983405.279644124</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153">
+        <v>971</v>
+      </c>
+      <c r="B153" t="s">
+        <v>11</v>
+      </c>
+      <c r="C153" t="s">
+        <v>15</v>
+      </c>
+      <c r="D153" t="s">
+        <v>16</v>
+      </c>
+      <c r="E153">
+        <v>197.142</v>
+      </c>
+      <c r="F153">
+        <v>1116401.385337529</v>
+      </c>
+      <c r="G153">
+        <v>4841745.447925955</v>
+      </c>
+      <c r="H153">
+        <v>3986298.439033651</v>
+      </c>
+      <c r="I153">
+        <v>1117251.080824165</v>
+      </c>
+      <c r="J153">
+        <v>4841041.438494699</v>
+      </c>
+      <c r="K153">
+        <v>3983042.534695243</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154">
+        <v>971</v>
+      </c>
+      <c r="B154" t="s">
+        <v>11</v>
+      </c>
+      <c r="C154" t="s">
+        <v>15</v>
+      </c>
+      <c r="D154" t="s">
+        <v>16</v>
+      </c>
+      <c r="E154">
+        <v>198.142</v>
+      </c>
+      <c r="F154">
+        <v>1116400.870423125</v>
+      </c>
+      <c r="G154">
+        <v>4841761.960722648</v>
+      </c>
+      <c r="H154">
+        <v>3986306.219434333</v>
+      </c>
+      <c r="I154">
+        <v>1117339.57233664</v>
+      </c>
+      <c r="J154">
+        <v>4840992.786831237</v>
+      </c>
+      <c r="K154">
+        <v>3982664.641091098</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155">
+        <v>971</v>
+      </c>
+      <c r="B155" t="s">
+        <v>11</v>
+      </c>
+      <c r="C155" t="s">
+        <v>15</v>
+      </c>
+      <c r="D155" t="s">
+        <v>16</v>
+      </c>
+      <c r="E155">
+        <v>199.142</v>
+      </c>
+      <c r="F155">
+        <v>1116400.374930535</v>
+      </c>
+      <c r="G155">
+        <v>4841778.47351934</v>
+      </c>
+      <c r="H155">
+        <v>3986313.803143152</v>
+      </c>
+      <c r="I155">
+        <v>1117430.242871198</v>
+      </c>
+      <c r="J155">
+        <v>4840944.135167776</v>
+      </c>
+      <c r="K155">
+        <v>3982271.598831688</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156">
+        <v>971</v>
+      </c>
+      <c r="B156" t="s">
+        <v>11</v>
+      </c>
+      <c r="C156" t="s">
+        <v>15</v>
+      </c>
+      <c r="D156" t="s">
+        <v>16</v>
+      </c>
+      <c r="E156">
+        <v>200.142</v>
+      </c>
+      <c r="F156">
+        <v>1116399.897668975</v>
+      </c>
+      <c r="G156">
+        <v>4841794.986316033</v>
+      </c>
+      <c r="H156">
+        <v>3986321.199860295</v>
+      </c>
+      <c r="I156">
+        <v>1117523.146084254</v>
+      </c>
+      <c r="J156">
+        <v>4840895.483504313</v>
+      </c>
+      <c r="K156">
+        <v>3981863.407917013</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157">
+        <v>971</v>
+      </c>
+      <c r="B157" t="s">
+        <v>11</v>
+      </c>
+      <c r="C157" t="s">
+        <v>15</v>
+      </c>
+      <c r="D157" t="s">
+        <v>16</v>
+      </c>
+      <c r="E157">
+        <v>201.142</v>
+      </c>
+      <c r="F157">
+        <v>1116399.43754741</v>
+      </c>
+      <c r="G157">
+        <v>4841811.499112725</v>
+      </c>
+      <c r="H157">
+        <v>3986328.418585612</v>
+      </c>
+      <c r="I157">
+        <v>1117618.336953463</v>
+      </c>
+      <c r="J157">
+        <v>4840846.831840851</v>
+      </c>
+      <c r="K157">
+        <v>3981440.068347075</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158">
+        <v>971</v>
+      </c>
+      <c r="B158" t="s">
+        <v>11</v>
+      </c>
+      <c r="C158" t="s">
+        <v>15</v>
+      </c>
+      <c r="D158" t="s">
+        <v>16</v>
+      </c>
+      <c r="E158">
+        <v>202.142</v>
+      </c>
+      <c r="F158">
+        <v>1116398.993564064</v>
+      </c>
+      <c r="G158">
+        <v>4841828.011909418</v>
+      </c>
+      <c r="H158">
+        <v>3986335.467684455</v>
+      </c>
+      <c r="I158">
+        <v>1117715.871810251</v>
+      </c>
+      <c r="J158">
+        <v>4840798.18017739</v>
+      </c>
+      <c r="K158">
+        <v>3981001.580121872</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159">
+        <v>971</v>
+      </c>
+      <c r="B159" t="s">
+        <v>11</v>
+      </c>
+      <c r="C159" t="s">
+        <v>15</v>
+      </c>
+      <c r="D159" t="s">
+        <v>16</v>
+      </c>
+      <c r="E159">
+        <v>203.142</v>
+      </c>
+      <c r="F159">
+        <v>1116398.564797248</v>
+      </c>
+      <c r="G159">
+        <v>4841844.52470611</v>
+      </c>
+      <c r="H159">
+        <v>3986342.35494595</v>
+      </c>
+      <c r="I159">
+        <v>1117815.808373158</v>
+      </c>
+      <c r="J159">
+        <v>4840749.528513928</v>
+      </c>
+      <c r="K159">
+        <v>3980547.943241404</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160">
+        <v>971</v>
+      </c>
+      <c r="B160" t="s">
+        <v>11</v>
+      </c>
+      <c r="C160" t="s">
+        <v>15</v>
+      </c>
+      <c r="D160" t="s">
+        <v>16</v>
+      </c>
+      <c r="E160">
+        <v>204.142</v>
+      </c>
+      <c r="F160">
+        <v>1116398.150397311</v>
+      </c>
+      <c r="G160">
+        <v>4841861.037502804</v>
+      </c>
+      <c r="H160">
+        <v>3986349.087634737</v>
+      </c>
+      <c r="I160">
+        <v>1117918.205781986</v>
+      </c>
+      <c r="J160">
+        <v>4840700.876850465</v>
+      </c>
+      <c r="K160">
+        <v>3980079.157705673</v>
       </c>
     </row>
   </sheetData>

--- a/runs/run971/NotionalETEOutput971.xlsx
+++ b/runs/run971/NotionalETEOutput971.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_HIGHWIND_State_Update</t>
+    <t>Missile_HELLMASKER_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND_390.MISSILE_HIGHWIND_390</t>
+    <t>MISSILE_HELLMASKER_245.MISSILE_HELLMASKER_245</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND</t>
+    <t>MISSILE_HELLMASKER</t>
   </si>
 </sst>
 </file>
@@ -471,22 +471,22 @@
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>1116578.803730256</v>
+        <v>1116580.047352589</v>
       </c>
       <c r="G2">
-        <v>4841121.540083917</v>
+        <v>4841123.159411816</v>
       </c>
       <c r="H2">
-        <v>3985226.29661522</v>
+        <v>3985229.065633947</v>
       </c>
       <c r="I2">
-        <v>1114862.106126027</v>
+        <v>1114862.044815878</v>
       </c>
       <c r="J2">
-        <v>4843229.960250132</v>
+        <v>4843224.651145076</v>
       </c>
       <c r="K2">
-        <v>3984367.131572676</v>
+        <v>3984372.24409846</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -506,22 +506,22 @@
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>1116578.803730256</v>
+        <v>1116580.047352589</v>
       </c>
       <c r="G3">
-        <v>4841121.540083917</v>
+        <v>4841123.159411816</v>
       </c>
       <c r="H3">
-        <v>3985226.29661522</v>
+        <v>3985229.065633947</v>
       </c>
       <c r="I3">
-        <v>1114891.720142379</v>
+        <v>1114891.658830601</v>
       </c>
       <c r="J3">
-        <v>4843181.308594738</v>
+        <v>4843175.999543014</v>
       </c>
       <c r="K3">
-        <v>3984670.927321455</v>
+        <v>3984676.040237053</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -541,22 +541,22 @@
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>1116578.803730256</v>
+        <v>1116580.047352589</v>
       </c>
       <c r="G4">
-        <v>4841121.540083917</v>
+        <v>4841123.159411816</v>
       </c>
       <c r="H4">
-        <v>3985226.29661522</v>
+        <v>3985229.065633947</v>
       </c>
       <c r="I4">
-        <v>1114922.063376639</v>
+        <v>1114922.002063192</v>
       </c>
       <c r="J4">
-        <v>4843132.656939343</v>
+        <v>4843127.34794095</v>
       </c>
       <c r="K4">
-        <v>3984959.57442165</v>
+        <v>3984964.687707625</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -576,22 +576,22 @@
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>1116578.803730256</v>
+        <v>1116580.047352589</v>
       </c>
       <c r="G5">
-        <v>4841121.540083917</v>
+        <v>4841123.159411816</v>
       </c>
       <c r="H5">
-        <v>3985226.29661522</v>
+        <v>3985229.065633947</v>
       </c>
       <c r="I5">
-        <v>1114953.153785127</v>
+        <v>1114953.092469971</v>
       </c>
       <c r="J5">
-        <v>4843084.005283948</v>
+        <v>4843078.696338887</v>
       </c>
       <c r="K5">
-        <v>3985233.072873262</v>
+        <v>3985238.186510175</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -611,22 +611,22 @@
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>1116578.803730256</v>
+        <v>1116580.047352589</v>
       </c>
       <c r="G6">
-        <v>4841121.540083917</v>
+        <v>4841123.159411816</v>
       </c>
       <c r="H6">
-        <v>3985226.29661522</v>
+        <v>3985229.065633947</v>
       </c>
       <c r="I6">
-        <v>1114985.009766321</v>
+        <v>1114984.948449413</v>
       </c>
       <c r="J6">
-        <v>4843035.353628554</v>
+        <v>4843030.044736824</v>
       </c>
       <c r="K6">
-        <v>3985491.422676289</v>
+        <v>3985496.536644703</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -646,22 +646,22 @@
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>1116578.803730256</v>
+        <v>1116580.047352589</v>
       </c>
       <c r="G7">
-        <v>4841121.540083917</v>
+        <v>4841123.159411816</v>
       </c>
       <c r="H7">
-        <v>3985226.29661522</v>
+        <v>3985229.065633947</v>
       </c>
       <c r="I7">
-        <v>1115017.650171746</v>
+        <v>1115017.588853043</v>
       </c>
       <c r="J7">
-        <v>4842986.70197316</v>
+        <v>4842981.393134762</v>
       </c>
       <c r="K7">
-        <v>3985734.623830733</v>
+        <v>3985739.73811121</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -681,22 +681,22 @@
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>1116578.803730256</v>
+        <v>1116580.047352589</v>
       </c>
       <c r="G8">
-        <v>4841121.540083917</v>
+        <v>4841123.159411816</v>
       </c>
       <c r="H8">
-        <v>3985226.29661522</v>
+        <v>3985229.065633947</v>
       </c>
       <c r="I8">
-        <v>1115051.094317125</v>
+        <v>1115051.032996583</v>
       </c>
       <c r="J8">
-        <v>4842938.050317764</v>
+        <v>4842932.741532698</v>
       </c>
       <c r="K8">
-        <v>3985962.676336593</v>
+        <v>3985967.790909694</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -716,22 +716,22 @@
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>1116578.803730256</v>
+        <v>1116580.047352589</v>
       </c>
       <c r="G9">
-        <v>4841121.540083917</v>
+        <v>4841123.159411816</v>
       </c>
       <c r="H9">
-        <v>3985226.29661522</v>
+        <v>3985229.065633947</v>
       </c>
       <c r="I9">
-        <v>1115085.361993817</v>
+        <v>1115085.30067139</v>
       </c>
       <c r="J9">
-        <v>4842889.398662371</v>
+        <v>4842884.089930635</v>
       </c>
       <c r="K9">
-        <v>3986175.580193869</v>
+        <v>3986180.695040157</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>1116578.803730256</v>
+        <v>1116580.047352589</v>
       </c>
       <c r="G10">
-        <v>4841138.052892815</v>
+        <v>4841139.672226238</v>
       </c>
       <c r="H10">
-        <v>3985226.29661522</v>
+        <v>3985229.065633947</v>
       </c>
       <c r="I10">
-        <v>1115120.473480521</v>
+        <v>1115120.412156163</v>
       </c>
       <c r="J10">
-        <v>4842840.747006976</v>
+        <v>4842835.438328573</v>
       </c>
       <c r="K10">
-        <v>3986373.335402561</v>
+        <v>3986378.450502598</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>1116530.123153412</v>
+        <v>1116531.366721526</v>
       </c>
       <c r="G11">
-        <v>4841154.565701713</v>
+        <v>4841156.18504066</v>
       </c>
       <c r="H11">
-        <v>3985425.550920411</v>
+        <v>3985428.320077584</v>
       </c>
       <c r="I11">
-        <v>1115156.449555283</v>
+        <v>1115156.388228947</v>
       </c>
       <c r="J11">
-        <v>4842792.095351581</v>
+        <v>4842786.786726509</v>
       </c>
       <c r="K11">
-        <v>3986555.94196267</v>
+        <v>3986561.057297017</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>1116501.525756597</v>
+        <v>1116502.76929286</v>
       </c>
       <c r="G12">
-        <v>4841171.078510612</v>
+        <v>4841172.697855082</v>
       </c>
       <c r="H12">
-        <v>3985544.236974835</v>
+        <v>3985547.006214473</v>
       </c>
       <c r="I12">
-        <v>1115193.311507789</v>
+        <v>1115193.250179426</v>
       </c>
       <c r="J12">
-        <v>4842743.443696187</v>
+        <v>4842738.135124446</v>
       </c>
       <c r="K12">
-        <v>3986723.399874195</v>
+        <v>3986728.515423415</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>1116483.472981717</v>
+        <v>1116484.716497873</v>
       </c>
       <c r="G13">
-        <v>4841187.591319511</v>
+        <v>4841189.210669504</v>
       </c>
       <c r="H13">
-        <v>3985629.053876248</v>
+        <v>3985631.823174819</v>
       </c>
       <c r="I13">
-        <v>1115231.081151963</v>
+        <v>1115231.019821523</v>
       </c>
       <c r="J13">
-        <v>4842694.792040792</v>
+        <v>4842689.483522383</v>
       </c>
       <c r="K13">
-        <v>3986875.709137135</v>
+        <v>3986880.82488179</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>1116470.883049796</v>
+        <v>1116472.126551929</v>
       </c>
       <c r="G14">
-        <v>4841204.104128408</v>
+        <v>4841205.723483926</v>
       </c>
       <c r="H14">
-        <v>3985695.100751937</v>
+        <v>3985697.870096399</v>
       </c>
       <c r="I14">
-        <v>1115269.780838877</v>
+        <v>1115269.719506309</v>
       </c>
       <c r="J14">
-        <v>4842646.140385398</v>
+        <v>4842640.83192032</v>
       </c>
       <c r="K14">
-        <v>3987012.869751492</v>
+        <v>3987017.985672144</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>1116461.490583557</v>
+        <v>1116462.73407523</v>
       </c>
       <c r="G15">
-        <v>4841220.616937308</v>
+        <v>4841222.236298348</v>
       </c>
       <c r="H15">
-        <v>3985749.19826619</v>
+        <v>3985751.96764824</v>
       </c>
       <c r="I15">
-        <v>1115309.433469979</v>
+        <v>1115309.37213523</v>
       </c>
       <c r="J15">
-        <v>4842597.488730004</v>
+        <v>4842592.180318258</v>
       </c>
       <c r="K15">
-        <v>3987134.881717265</v>
+        <v>3987139.997794477</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>1116454.146986577</v>
+        <v>1116455.390470071</v>
       </c>
       <c r="G16">
-        <v>4841237.129746205</v>
+        <v>4841238.749112769</v>
       </c>
       <c r="H16">
-        <v>3985795.014911835</v>
+        <v>3985797.784325718</v>
       </c>
       <c r="I16">
-        <v>1115350.062510642</v>
+        <v>1115350.001173658</v>
       </c>
       <c r="J16">
-        <v>4842548.837074609</v>
+        <v>4842543.528716194</v>
       </c>
       <c r="K16">
-        <v>3987241.745034454</v>
+        <v>3987246.861248787</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>1116448.205481916</v>
+        <v>1116449.448958792</v>
       </c>
       <c r="G17">
-        <v>4841253.642555104</v>
+        <v>4841255.261927191</v>
       </c>
       <c r="H17">
-        <v>3985834.752507477</v>
+        <v>3985837.521948971</v>
       </c>
       <c r="I17">
-        <v>1115391.692004053</v>
+        <v>1115391.63066478</v>
       </c>
       <c r="J17">
-        <v>4842500.185419215</v>
+        <v>4842494.877114131</v>
       </c>
       <c r="K17">
-        <v>3987333.459703059</v>
+        <v>3987338.576035075</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>1116443.27191597</v>
+        <v>1116444.515387351</v>
       </c>
       <c r="G18">
-        <v>4841270.155364003</v>
+        <v>4841271.774741613</v>
       </c>
       <c r="H18">
-        <v>3985869.836872246</v>
+        <v>3985872.606338118</v>
       </c>
       <c r="I18">
-        <v>1115434.34658544</v>
+        <v>1115434.285243822</v>
       </c>
       <c r="J18">
-        <v>4842451.53376382</v>
+        <v>4842446.225512069</v>
       </c>
       <c r="K18">
-        <v>3987410.025723081</v>
+        <v>3987415.142153342</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>1116439.091090036</v>
+        <v>1116440.334556761</v>
       </c>
       <c r="G19">
-        <v>4841286.668172901</v>
+        <v>4841288.287556035</v>
       </c>
       <c r="H19">
-        <v>3985901.244438703</v>
+        <v>3985904.013926398</v>
       </c>
       <c r="I19">
-        <v>1115478.051496654</v>
+        <v>1115477.990152631</v>
       </c>
       <c r="J19">
-        <v>4842402.882108426</v>
+        <v>4842397.573910005</v>
       </c>
       <c r="K19">
-        <v>3987471.443094519</v>
+        <v>3987476.559603588</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>1116435.489716377</v>
+        <v>1116436.73317909</v>
       </c>
       <c r="G20">
-        <v>4841303.180981799</v>
+        <v>4841304.800370457</v>
       </c>
       <c r="H20">
-        <v>3985929.673274574</v>
+        <v>3985932.442782022</v>
       </c>
       <c r="I20">
-        <v>1115522.832601097</v>
+        <v>1115522.771254613</v>
       </c>
       <c r="J20">
-        <v>4842354.230453031</v>
+        <v>4842348.922307942</v>
       </c>
       <c r="K20">
-        <v>3987517.711817372</v>
+        <v>3987522.828385811</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>1116432.345531083</v>
+        <v>1116433.588990295</v>
       </c>
       <c r="G21">
-        <v>4841319.693790698</v>
+        <v>4841321.313184879</v>
       </c>
       <c r="H21">
-        <v>3985955.639770078</v>
+        <v>3985958.409295567</v>
       </c>
       <c r="I21">
-        <v>1115568.71639904</v>
+        <v>1115568.655050032</v>
       </c>
       <c r="J21">
-        <v>4842305.578797637</v>
+        <v>4842300.27070588</v>
       </c>
       <c r="K21">
-        <v>3987548.831891642</v>
+        <v>3987553.948500013</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>1116429.56951264</v>
+        <v>1116430.81296876</v>
       </c>
       <c r="G22">
-        <v>4841336.206599596</v>
+        <v>4841337.825999301</v>
       </c>
       <c r="H22">
-        <v>3985979.53667978</v>
+        <v>3985982.306221873</v>
       </c>
       <c r="I22">
-        <v>1115615.730043295</v>
+        <v>1115615.668691702</v>
       </c>
       <c r="J22">
-        <v>4842256.927142242</v>
+        <v>4842251.619103816</v>
       </c>
       <c r="K22">
-        <v>3987564.803317328</v>
+        <v>3987569.919946192</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>1116427.095117141</v>
+        <v>1116428.338570504</v>
       </c>
       <c r="G23">
-        <v>4841352.719408494</v>
+        <v>4841354.338813723</v>
       </c>
       <c r="H23">
-        <v>3986001.669690324</v>
+        <v>3986004.439247796</v>
       </c>
       <c r="I23">
-        <v>1115663.901355288</v>
+        <v>1115663.840001045</v>
       </c>
       <c r="J23">
-        <v>4842208.275486848</v>
+        <v>4842202.967501754</v>
       </c>
       <c r="K23">
-        <v>3987565.62609443</v>
+        <v>3987570.74272435</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>1116424.871482006</v>
+        <v>1116426.114932893</v>
       </c>
       <c r="G24">
-        <v>4841369.232217394</v>
+        <v>4841370.851628145</v>
       </c>
       <c r="H24">
-        <v>3986022.281394527</v>
+        <v>3986025.050966321</v>
       </c>
       <c r="I24">
-        <v>1115713.258841522</v>
+        <v>1115713.197484565</v>
       </c>
       <c r="J24">
-        <v>4842159.623831453</v>
+        <v>4842154.315899691</v>
       </c>
       <c r="K24">
-        <v>3987551.300222948</v>
+        <v>3987556.416834486</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>1116422.85898006</v>
+        <v>1116424.102428705</v>
       </c>
       <c r="G25">
-        <v>4841385.745026291</v>
+        <v>4841387.364442566</v>
       </c>
       <c r="H25">
-        <v>3986041.567542702</v>
+        <v>3986044.337127896</v>
       </c>
       <c r="I25">
-        <v>1115763.831710447</v>
+        <v>1115763.770350708</v>
       </c>
       <c r="J25">
-        <v>4842110.972176058</v>
+        <v>4842105.664297627</v>
       </c>
       <c r="K25">
-        <v>3987521.825702883</v>
+        <v>3987526.9422766</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>1116421.02622126</v>
+        <v>1116422.269667865</v>
       </c>
       <c r="G26">
-        <v>4841402.25783519</v>
+        <v>4841403.877256989</v>
       </c>
       <c r="H26">
-        <v>3986059.688376641</v>
+        <v>3986062.457974426</v>
       </c>
       <c r="I26">
-        <v>1115815.649889742</v>
+        <v>1115815.588527154</v>
       </c>
       <c r="J26">
-        <v>4842062.320520665</v>
+        <v>4842057.012695565</v>
       </c>
       <c r="K26">
-        <v>3987477.202534234</v>
+        <v>3987482.319050693</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>1116419.347976685</v>
+        <v>1116420.59142142</v>
       </c>
       <c r="G27">
-        <v>4841418.770644088</v>
+        <v>4841420.39007141</v>
       </c>
       <c r="H27">
-        <v>3986076.776730307</v>
+        <v>3986079.546339965</v>
       </c>
       <c r="I27">
-        <v>1115868.744044031</v>
+        <v>1115868.682678523</v>
       </c>
       <c r="J27">
-        <v>4842013.668865269</v>
+        <v>4842008.361093501</v>
       </c>
       <c r="K27">
-        <v>3987417.430717</v>
+        <v>3987422.547156764</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>1116417.803707559</v>
+        <v>1116419.047150574</v>
       </c>
       <c r="G28">
-        <v>4841435.283452987</v>
+        <v>4841436.902885832</v>
       </c>
       <c r="H28">
-        <v>3986092.943944586</v>
+        <v>3986095.713565477</v>
       </c>
       <c r="I28">
-        <v>1115923.145593023</v>
+        <v>1115923.084224524</v>
       </c>
       <c r="J28">
-        <v>4841965.017209874</v>
+        <v>4841959.709491438</v>
       </c>
       <c r="K28">
-        <v>3987342.510251183</v>
+        <v>3987347.626594813</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>1116416.376501577</v>
+        <v>1116417.619943002</v>
       </c>
       <c r="G29">
-        <v>4841451.796261885</v>
+        <v>4841453.415700254</v>
       </c>
       <c r="H29">
-        <v>3986108.284267843</v>
+        <v>3986111.053899393</v>
       </c>
       <c r="I29">
-        <v>1115978.886730111</v>
+        <v>1115978.825358546</v>
       </c>
       <c r="J29">
-        <v>4841916.365554481</v>
+        <v>4841911.057889376</v>
       </c>
       <c r="K29">
-        <v>3987252.441136783</v>
+        <v>3987257.557364841</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>1116415.052289717</v>
+        <v>1116416.295729668</v>
       </c>
       <c r="G30">
-        <v>4841468.309070784</v>
+        <v>4841469.928514675</v>
       </c>
       <c r="H30">
-        <v>3986122.878184879</v>
+        <v>3986125.647826569</v>
       </c>
       <c r="I30">
-        <v>1116036.000441419</v>
+        <v>1116035.939066713</v>
       </c>
       <c r="J30">
-        <v>4841867.713899086</v>
+        <v>4841862.406287313</v>
       </c>
       <c r="K30">
-        <v>3987147.223373798</v>
+        <v>3987152.339466846</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>1116413.819260193</v>
+        <v>1116415.06269877</v>
       </c>
       <c r="G31">
-        <v>4841484.821879682</v>
+        <v>4841486.441329097</v>
       </c>
       <c r="H31">
-        <v>3986136.794972939</v>
+        <v>3986139.564624299</v>
       </c>
       <c r="I31">
-        <v>1116094.520525324</v>
+        <v>1116094.4591474</v>
       </c>
       <c r="J31">
-        <v>4841819.062243691</v>
+        <v>4841813.754685249</v>
       </c>
       <c r="K31">
-        <v>3987026.85696223</v>
+        <v>3987031.97290083</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>1116412.66741349</v>
+        <v>1116413.910850785</v>
       </c>
       <c r="G32">
-        <v>4841501.334688581</v>
+        <v>4841502.95414352</v>
       </c>
       <c r="H32">
-        <v>3986150.094690613</v>
+        <v>3986152.864351214</v>
       </c>
       <c r="I32">
-        <v>1116154.481612458</v>
+        <v>1116154.420231236</v>
       </c>
       <c r="J32">
-        <v>4841770.410588297</v>
+        <v>4841765.103083186</v>
       </c>
       <c r="K32">
-        <v>3986891.341902077</v>
+        <v>3986896.457666792</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>1116411.588220061</v>
+        <v>1116412.831656154</v>
       </c>
       <c r="G33">
-        <v>4841517.847497479</v>
+        <v>4841519.466957942</v>
       </c>
       <c r="H33">
-        <v>3986162.829744224</v>
+        <v>3986165.599413673</v>
       </c>
       <c r="I33">
-        <v>1116215.919186199</v>
+        <v>1116215.857801599</v>
       </c>
       <c r="J33">
-        <v>4841721.758932902</v>
+        <v>4841716.451481123</v>
       </c>
       <c r="K33">
-        <v>3986740.678193341</v>
+        <v>3986745.793764732</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>1116410.574353818</v>
+        <v>1116411.817788781</v>
       </c>
       <c r="G34">
-        <v>4841534.360306378</v>
+        <v>4841535.979772364</v>
       </c>
       <c r="H34">
-        <v>3986175.046135037</v>
+        <v>3986177.815812975</v>
       </c>
       <c r="I34">
-        <v>1116278.869603672</v>
+        <v>1116278.80821561</v>
       </c>
       <c r="J34">
-        <v>4841673.107277508</v>
+        <v>4841667.799879061</v>
       </c>
       <c r="K34">
-        <v>3986574.865836021</v>
+        <v>3986579.98119465</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>1116409.619482371</v>
+        <v>1116410.862916271</v>
       </c>
       <c r="G35">
-        <v>4841550.873115275</v>
+        <v>4841552.492586785</v>
       </c>
       <c r="H35">
-        <v>3986186.784462295</v>
+        <v>3986189.554148389</v>
       </c>
       <c r="I35">
-        <v>1116343.370117262</v>
+        <v>1116343.308725653</v>
       </c>
       <c r="J35">
-        <v>4841624.455622113</v>
+        <v>4841619.148276997</v>
       </c>
       <c r="K35">
-        <v>3986393.904830116</v>
+        <v>3986399.019956546</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>1116408.71810027</v>
+        <v>1116409.961533166</v>
       </c>
       <c r="G36">
-        <v>4841567.385924174</v>
+        <v>4841569.005401207</v>
       </c>
       <c r="H36">
-        <v>3986198.080737277</v>
+        <v>3986200.850431219</v>
       </c>
       <c r="I36">
-        <v>1116409.45889666</v>
+        <v>1116409.397501416</v>
       </c>
       <c r="J36">
-        <v>4841575.803966719</v>
+        <v>4841570.496674934</v>
       </c>
       <c r="K36">
-        <v>3986197.795175629</v>
+        <v>3986202.910050421</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>1116407.865395205</v>
+        <v>1116409.108827151</v>
       </c>
       <c r="G37">
-        <v>4841583.898733073</v>
+        <v>4841585.518215629</v>
       </c>
       <c r="H37">
-        <v>3986208.967049566</v>
+        <v>3986211.736751072</v>
       </c>
       <c r="I37">
-        <v>1116477.17505145</v>
+        <v>1116477.113652482</v>
       </c>
       <c r="J37">
-        <v>4841527.152311325</v>
+        <v>4841521.845072872</v>
       </c>
       <c r="K37">
-        <v>3985986.536872557</v>
+        <v>3985991.651476275</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>1116407.05713974</v>
+        <v>1116408.300570786</v>
       </c>
       <c r="G38">
-        <v>4841600.41154197</v>
+        <v>4841602.03103005</v>
       </c>
       <c r="H38">
-        <v>3986219.472116601</v>
+        <v>3986222.241825407</v>
       </c>
       <c r="I38">
-        <v>1116546.558654254</v>
+        <v>1116546.49725147</v>
       </c>
       <c r="J38">
-        <v>4841478.50065593</v>
+        <v>4841473.193470809</v>
       </c>
       <c r="K38">
-        <v>3985760.129920902</v>
+        <v>3985765.244234106</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>1116406.289603014</v>
+        <v>1116407.533033205</v>
       </c>
       <c r="G39">
-        <v>4841616.92435087</v>
+        <v>4841618.543844473</v>
       </c>
       <c r="H39">
-        <v>3986229.621740213</v>
+        <v>3986232.391456071</v>
       </c>
       <c r="I39">
-        <v>1116617.650764445</v>
+        <v>1116617.589357752</v>
       </c>
       <c r="J39">
-        <v>4841429.849000535</v>
+        <v>4841424.541868745</v>
       </c>
       <c r="K39">
-        <v>3985518.574320662</v>
+        <v>3985523.688323915</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>1116405.559478207</v>
+        <v>1116406.802907584</v>
       </c>
       <c r="G40">
-        <v>4841633.437159768</v>
+        <v>4841635.056658895</v>
       </c>
       <c r="H40">
-        <v>3986239.439188426</v>
+        <v>3986242.208911105</v>
       </c>
       <c r="I40">
-        <v>1116690.493452446</v>
+        <v>1116690.432041747</v>
       </c>
       <c r="J40">
-        <v>4841381.197345141</v>
+        <v>4841375.890266682</v>
       </c>
       <c r="K40">
-        <v>3985261.870071839</v>
+        <v>3985266.983745703</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>1116404.863822534</v>
+        <v>1116406.107251136</v>
       </c>
       <c r="G41">
-        <v>4841649.949968666</v>
+        <v>4841651.569473316</v>
       </c>
       <c r="H41">
-        <v>3986248.945516732</v>
+        <v>3986251.715246016</v>
       </c>
       <c r="I41">
-        <v>1116765.129824625</v>
+        <v>1116765.068409822</v>
       </c>
       <c r="J41">
-        <v>4841332.545689747</v>
+        <v>4841327.23866462</v>
       </c>
       <c r="K41">
-        <v>3984990.017174432</v>
+        <v>3984995.130499469</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>1116404.200007309</v>
+        <v>1116405.443435173</v>
       </c>
       <c r="G42">
-        <v>4841666.462777565</v>
+        <v>4841668.082287738</v>
       </c>
       <c r="H42">
-        <v>3986258.159840017</v>
+        <v>3986260.929575703</v>
       </c>
       <c r="I42">
-        <v>1116841.604048805</v>
+        <v>1116841.542629796</v>
       </c>
       <c r="J42">
-        <v>4841283.894034352</v>
+        <v>4841278.587062557</v>
       </c>
       <c r="K42">
-        <v>3984703.015628441</v>
+        <v>3984708.128585213</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>1116403.565676128</v>
+        <v>1116404.809103285</v>
       </c>
       <c r="G43">
-        <v>4841682.975586464</v>
+        <v>4841684.59510216</v>
       </c>
       <c r="H43">
-        <v>3986267.099563943</v>
+        <v>3986269.869305841</v>
       </c>
       <c r="I43">
-        <v>1116919.9613804</v>
+        <v>1116919.899957082</v>
       </c>
       <c r="J43">
-        <v>4841235.242378958</v>
+        <v>4841229.935460493</v>
       </c>
       <c r="K43">
-        <v>3984400.865433867</v>
+        <v>3984405.978002936</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>1116402.958709654</v>
+        <v>1116404.202136135</v>
       </c>
       <c r="G44">
-        <v>4841699.488395361</v>
+        <v>4841701.107916582</v>
       </c>
       <c r="H44">
-        <v>3986275.780582847</v>
+        <v>3986278.550330777</v>
       </c>
       <c r="I44">
-        <v>1117000.248189198</v>
+        <v>1117000.186761465</v>
       </c>
       <c r="J44">
-        <v>4841186.590723563</v>
+        <v>4841181.283858431</v>
       </c>
       <c r="K44">
-        <v>3984083.566590708</v>
+        <v>3984088.678752636</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>1116402.37719582</v>
+        <v>1116403.620621653</v>
       </c>
       <c r="G45">
-        <v>4841716.001204261</v>
+        <v>4841717.620731005</v>
       </c>
       <c r="H45">
-        <v>3986284.217449802</v>
+        <v>3986286.987203594</v>
       </c>
       <c r="I45">
-        <v>1117082.5119868</v>
+        <v>1117082.450554544</v>
       </c>
       <c r="J45">
-        <v>4841137.939068168</v>
+        <v>4841132.632256368</v>
       </c>
       <c r="K45">
-        <v>3983751.119098966</v>
+        <v>3983756.230834315</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>1116401.819404477</v>
+        <v>1116403.062829689</v>
       </c>
       <c r="G46">
-        <v>4841732.514013158</v>
+        <v>4841734.133545426</v>
       </c>
       <c r="H46">
-        <v>3986292.423523407</v>
+        <v>3986295.193282901</v>
       </c>
       <c r="I46">
-        <v>1117166.801454738</v>
+        <v>1117166.740017845</v>
       </c>
       <c r="J46">
-        <v>4841089.287412774</v>
+        <v>4841083.980654304</v>
       </c>
       <c r="K46">
-        <v>3983403.522958639</v>
+        <v>3983408.634247972</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>1116401.283765736</v>
+        <v>1116402.527190352</v>
       </c>
       <c r="G47">
-        <v>4841749.026822057</v>
+        <v>4841750.646359848</v>
       </c>
       <c r="H47">
-        <v>3986300.411095035</v>
+        <v>3986303.180860078</v>
       </c>
       <c r="I47">
-        <v>1117253.166473278</v>
+        <v>1117253.105031636</v>
       </c>
       <c r="J47">
-        <v>4841040.635757379</v>
+        <v>4841035.329052242</v>
       </c>
       <c r="K47">
-        <v>3983040.778169729</v>
+        <v>3983045.888993607</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>1116400.768851379</v>
+        <v>1116402.012275421</v>
       </c>
       <c r="G48">
-        <v>4841765.539630956</v>
+        <v>4841767.15917427</v>
       </c>
       <c r="H48">
-        <v>3986308.191499566</v>
+        <v>3986310.961270016</v>
       </c>
       <c r="I48">
-        <v>1117341.658150945</v>
+        <v>1117341.596704437</v>
       </c>
       <c r="J48">
-        <v>4840991.984101985</v>
+        <v>4840986.677450178</v>
       </c>
       <c r="K48">
-        <v>3982662.884732235</v>
+        <v>3982667.995071221</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>1116400.273358834</v>
+        <v>1116401.516782324</v>
       </c>
       <c r="G49">
-        <v>4841782.052439854</v>
+        <v>4841783.671988691</v>
       </c>
       <c r="H49">
-        <v>3986315.775212137</v>
+        <v>3986318.544987855</v>
       </c>
       <c r="I49">
-        <v>1117432.328854764</v>
+        <v>1117432.26740327</v>
       </c>
       <c r="J49">
-        <v>4840943.332446591</v>
+        <v>4840938.025848116</v>
       </c>
       <c r="K49">
-        <v>3982269.842646157</v>
+        <v>3982274.952480813</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>1116399.796097317</v>
+        <v>1116401.039520276</v>
       </c>
       <c r="G50">
-        <v>4841798.565248753</v>
+        <v>4841800.184803113</v>
       </c>
       <c r="H50">
-        <v>3986323.171932939</v>
+        <v>3986325.941713797</v>
       </c>
       <c r="I50">
-        <v>1117525.232241249</v>
+        <v>1117525.170784646</v>
       </c>
       <c r="J50">
-        <v>4840894.680791195</v>
+        <v>4840889.374246052</v>
       </c>
       <c r="K50">
-        <v>3981861.651911495</v>
+        <v>3981866.761222382</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>1116399.335975794</v>
+        <v>1116400.57939824</v>
       </c>
       <c r="G51">
-        <v>4841815.078057651</v>
+        <v>4841816.697617535</v>
       </c>
       <c r="H51">
-        <v>3986330.390661827</v>
+        <v>3986333.160447701</v>
       </c>
       <c r="I51">
-        <v>1117620.423288157</v>
+        <v>1117620.361826319</v>
       </c>
       <c r="J51">
-        <v>4840846.029135801</v>
+        <v>4840840.722643989</v>
       </c>
       <c r="K51">
-        <v>3981438.31252825</v>
+        <v>3981443.421295931</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>1116398.891992488</v>
+        <v>1116400.13541444</v>
       </c>
       <c r="G52">
-        <v>4841831.590866549</v>
+        <v>4841833.210431957</v>
       </c>
       <c r="H52">
-        <v>3986337.439764157</v>
+        <v>3986340.209554929</v>
       </c>
       <c r="I52">
-        <v>1117717.958327021</v>
+        <v>1117717.896859818</v>
       </c>
       <c r="J52">
-        <v>4840797.377480407</v>
+        <v>4840792.071041927</v>
       </c>
       <c r="K52">
-        <v>3980999.824496421</v>
+        <v>3981004.932701457</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>1116398.463225711</v>
+        <v>1116399.706647185</v>
       </c>
       <c r="G53">
-        <v>4841848.103675448</v>
+        <v>4841849.723246379</v>
       </c>
       <c r="H53">
-        <v>3986344.327029059</v>
+        <v>3986347.096824617</v>
       </c>
       <c r="I53">
-        <v>1117817.895076486</v>
+        <v>1117817.833603788</v>
       </c>
       <c r="J53">
-        <v>4840748.725825013</v>
+        <v>4840743.419439863</v>
       </c>
       <c r="K53">
-        <v>3980546.187816008</v>
+        <v>3980551.295438962</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>1116398.048825813</v>
+        <v>1116399.292246825</v>
       </c>
       <c r="G54">
-        <v>4841864.616484347</v>
+        <v>4841866.236060801</v>
       </c>
       <c r="H54">
-        <v>3986351.059721177</v>
+        <v>3986353.829521412</v>
       </c>
       <c r="I54">
-        <v>1117920.292676467</v>
+        <v>1117920.231198137</v>
       </c>
       <c r="J54">
-        <v>4840700.074169617</v>
+        <v>4840694.7678378</v>
       </c>
       <c r="K54">
-        <v>3980077.402487011</v>
+        <v>3980082.509508444</v>
       </c>
     </row>
   </sheetData>
